--- a/raw_data/SHIB-USD_4h_process.xlsx
+++ b/raw_data/SHIB-USD_4h_process.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="196">
   <si>
     <t>Open</t>
   </si>
@@ -58,129 +58,6 @@
     <t>sell_rsi_9</t>
   </si>
   <si>
-    <t>2023-12-27 17:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-27 21:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-28 01:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-28 05:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-28 09:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-28 13:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-28 17:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-28 21:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-29 01:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-29 05:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-29 09:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-29 13:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-29 17:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-29 21:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-30 01:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-30 05:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-30 09:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-30 13:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-30 17:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-30 21:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-31 01:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-31 05:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-31 09:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-31 13:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-31 17:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-31 21:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-01 01:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-01 05:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-01 09:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-01 13:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-01 17:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-01 21:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-02 01:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-02 05:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-02 09:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-02 13:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-02 17:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-02 21:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-03 01:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-03 05:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-03 09:00:00-03:00</t>
-  </si>
-  <si>
     <t>2024-01-03 13:00:00-03:00</t>
   </si>
   <si>
@@ -599,6 +476,129 @@
   </si>
   <si>
     <t>2024-01-26 17:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-26 21:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-27 01:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-27 05:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-27 09:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-27 13:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-27 17:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-27 21:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-28 01:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-28 05:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-28 09:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-28 13:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-28 17:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-28 21:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-29 01:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-29 05:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-29 09:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-29 13:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-29 17:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-29 21:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-30 01:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-30 05:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-30 09:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-30 13:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-30 17:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-30 21:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-31 01:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-31 05:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-31 09:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-31 13:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-31 17:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-31 21:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-02-01 01:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-02-01 05:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-02-01 09:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-02-01 13:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-02-01 17:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-02-01 21:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-02-02 01:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-02-02 05:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-02-02 09:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-02-02 13:00:00-03:00</t>
   </si>
   <si>
     <t>yes</t>
@@ -1014,19 +1014,19 @@
         <v>14</v>
       </c>
       <c r="B2">
-        <v>1.084664108930156E-05</v>
+        <v>9.682125892140904E-06</v>
       </c>
       <c r="C2">
-        <v>1.090206114895409E-05</v>
+        <v>9.789257092052139E-06</v>
       </c>
       <c r="D2">
-        <v>1.080364290828584E-05</v>
+        <v>9.438585948373657E-06</v>
       </c>
       <c r="E2">
-        <v>1.089532997866627E-05</v>
+        <v>9.506011338089593E-06</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>5033344</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -1034,19 +1034,19 @@
         <v>15</v>
       </c>
       <c r="B3">
-        <v>1.089709712687181E-05</v>
+        <v>9.506756214250345E-06</v>
       </c>
       <c r="C3">
-        <v>1.102412898035254E-05</v>
+        <v>9.616029274184257E-06</v>
       </c>
       <c r="D3">
-        <v>1.089709712687181E-05</v>
+        <v>9.501442946202587E-06</v>
       </c>
       <c r="E3">
-        <v>1.099157270800788E-05</v>
+        <v>9.559061254549306E-06</v>
       </c>
       <c r="F3">
-        <v>11673456</v>
+        <v>3629504</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -1054,19 +1054,19 @@
         <v>16</v>
       </c>
       <c r="B4">
-        <v>1.099147357308539E-05</v>
+        <v>9.560245416651014E-06</v>
       </c>
       <c r="C4">
-        <v>1.103860813600477E-05</v>
+        <v>9.617019713914488E-06</v>
       </c>
       <c r="D4">
-        <v>1.071861788659589E-05</v>
+        <v>9.488565410720184E-06</v>
       </c>
       <c r="E4">
-        <v>1.078019977285294E-05</v>
+        <v>9.586443411535583E-06</v>
       </c>
       <c r="F4">
-        <v>17028336</v>
+        <v>7786112</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -1074,19 +1074,19 @@
         <v>17</v>
       </c>
       <c r="B5">
-        <v>1.078012155630859E-05</v>
+        <v>9.582779966876842E-06</v>
       </c>
       <c r="C5">
-        <v>1.088658154912991E-05</v>
+        <v>9.685658369562589E-06</v>
       </c>
       <c r="D5">
-        <v>1.078012155630859E-05</v>
+        <v>9.575554940965958E-06</v>
       </c>
       <c r="E5">
-        <v>1.085921212506946E-05</v>
+        <v>9.59799945121631E-06</v>
       </c>
       <c r="F5">
-        <v>493024</v>
+        <v>1317952</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -1094,19 +1094,19 @@
         <v>18</v>
       </c>
       <c r="B6">
-        <v>1.085873736883514E-05</v>
+        <v>9.585577572579496E-06</v>
       </c>
       <c r="C6">
-        <v>1.085873736883514E-05</v>
+        <v>9.643459634389728E-06</v>
       </c>
       <c r="D6">
-        <v>1.048583089868771E-05</v>
+        <v>9.524166671326384E-06</v>
       </c>
       <c r="E6">
-        <v>1.055490520229796E-05</v>
+        <v>9.62725516728824E-06</v>
       </c>
       <c r="F6">
-        <v>19395952</v>
+        <v>7976128</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -1114,19 +1114,19 @@
         <v>19</v>
       </c>
       <c r="B7">
-        <v>1.05554399851826E-05</v>
+        <v>9.627784493204672E-06</v>
       </c>
       <c r="C7">
-        <v>1.067436005541822E-05</v>
+        <v>1.008573599392548E-05</v>
       </c>
       <c r="D7">
-        <v>1.054572840075707E-05</v>
+        <v>9.620426681067327E-06</v>
       </c>
       <c r="E7">
-        <v>1.063798572431551E-05</v>
+        <v>9.975031389330979E-06</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>2201216</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -1134,19 +1134,19 @@
         <v>20</v>
       </c>
       <c r="B8">
-        <v>1.063672334566945E-05</v>
+        <v>9.974512977350967E-06</v>
       </c>
       <c r="C8">
-        <v>1.066863387677586E-05</v>
+        <v>1.000213069346501E-05</v>
       </c>
       <c r="D8">
-        <v>1.055513621395221E-05</v>
+        <v>9.869355380942579E-06</v>
       </c>
       <c r="E8">
-        <v>1.062492356140865E-05</v>
+        <v>9.967792720999569E-06</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>416096</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -1154,19 +1154,19 @@
         <v>21</v>
       </c>
       <c r="B9">
-        <v>1.062655792338774E-05</v>
+        <v>9.965641766029876E-06</v>
       </c>
       <c r="C9">
-        <v>1.065310152625898E-05</v>
+        <v>1.010406504065031E-05</v>
       </c>
       <c r="D9">
-        <v>1.038251957652392E-05</v>
+        <v>9.963770025933629E-06</v>
       </c>
       <c r="E9">
-        <v>1.058497491612798E-05</v>
+        <v>1.001082455331925E-05</v>
       </c>
       <c r="F9">
-        <v>2384400</v>
+        <v>2236592</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -1174,19 +1174,19 @@
         <v>22</v>
       </c>
       <c r="B10">
-        <v>1.058450925484067E-05</v>
+        <v>1.000800875772256E-05</v>
       </c>
       <c r="C10">
-        <v>1.061779403244145E-05</v>
+        <v>1.007433274935465E-05</v>
       </c>
       <c r="D10">
-        <v>1.0499215022719E-05</v>
+        <v>9.748643606144469E-06</v>
       </c>
       <c r="E10">
-        <v>1.0499215022719E-05</v>
+        <v>9.842318831942976E-06</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>18375728</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -1194,22 +1194,22 @@
         <v>23</v>
       </c>
       <c r="B11">
-        <v>1.049985621648375E-05</v>
+        <v>9.842381587077398E-06</v>
       </c>
       <c r="C11">
-        <v>1.068213987309718E-05</v>
+        <v>9.862250408332329E-06</v>
       </c>
       <c r="D11">
-        <v>1.049985621648375E-05</v>
+        <v>9.793606295716016E-06</v>
       </c>
       <c r="E11">
-        <v>1.068213987309718E-05</v>
+        <v>9.826225323195104E-06</v>
       </c>
       <c r="F11">
-        <v>1282336</v>
+        <v>3061824</v>
       </c>
       <c r="L11">
-        <v>45.12599987312756</v>
+        <v>64.13616539956026</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -1217,22 +1217,22 @@
         <v>24</v>
       </c>
       <c r="B12">
-        <v>1.068377878254978E-05</v>
+        <v>9.826694622461218E-06</v>
       </c>
       <c r="C12">
-        <v>1.069936206476996E-05</v>
+        <v>9.88232932286337E-06</v>
       </c>
       <c r="D12">
-        <v>1.047616115101846E-05</v>
+        <v>9.703793693915941E-06</v>
       </c>
       <c r="E12">
-        <v>1.049065394909121E-05</v>
+        <v>9.704616786621044E-06</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>4618144</v>
       </c>
       <c r="L12">
-        <v>34.38698344449311</v>
+        <v>49.83395045014407</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -1240,22 +1240,22 @@
         <v>25</v>
       </c>
       <c r="B13">
-        <v>1.049362072080839E-05</v>
+        <v>9.703612704470288E-06</v>
       </c>
       <c r="C13">
-        <v>1.05031676866929E-05</v>
+        <v>9.749949640536215E-06</v>
       </c>
       <c r="D13">
-        <v>1.034518845699495E-05</v>
+        <v>9.550390132062604E-06</v>
       </c>
       <c r="E13">
-        <v>1.045845692715375E-05</v>
+        <v>9.580669029674029E-06</v>
       </c>
       <c r="F13">
-        <v>8487680</v>
+        <v>2269152</v>
       </c>
       <c r="L13">
-        <v>32.90569345587046</v>
+        <v>39.68625246879312</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -1263,22 +1263,22 @@
         <v>26</v>
       </c>
       <c r="B14">
-        <v>1.045832232193788E-05</v>
+        <v>9.594036782800686E-06</v>
       </c>
       <c r="C14">
-        <v>1.046886427502614E-05</v>
+        <v>9.678461537987459E-06</v>
       </c>
       <c r="D14">
-        <v>1.031881402013823E-05</v>
+        <v>9.511240932624789E-06</v>
       </c>
       <c r="E14">
-        <v>1.042301937559387E-05</v>
+        <v>9.656716429162771E-06</v>
       </c>
       <c r="F14">
-        <v>4491088</v>
+        <v>4766640</v>
       </c>
       <c r="L14">
-        <v>31.23940826673711</v>
+        <v>47.11886064776203</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1286,22 +1286,22 @@
         <v>27</v>
       </c>
       <c r="B15">
-        <v>1.04235004982911E-05</v>
+        <v>9.656222573539708E-06</v>
       </c>
       <c r="C15">
-        <v>1.052603238349548E-05</v>
+        <v>9.879090612230357E-06</v>
       </c>
       <c r="D15">
-        <v>1.041868108586641E-05</v>
+        <v>9.656222573539708E-06</v>
       </c>
       <c r="E15">
-        <v>1.048418835125631E-05</v>
+        <v>9.830217095441183E-06</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>1466992</v>
       </c>
       <c r="L15">
-        <v>37.39548422020475</v>
+        <v>59.82581127352683</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1309,516 +1309,522 @@
         <v>28</v>
       </c>
       <c r="B16">
-        <v>1.048410013027024E-05</v>
+        <v>9.83049176284112E-06</v>
       </c>
       <c r="C16">
-        <v>1.055733355315169E-05</v>
+        <v>9.83049176284112E-06</v>
       </c>
       <c r="D16">
-        <v>1.048212743626209E-05</v>
+        <v>9.721636160975322E-06</v>
       </c>
       <c r="E16">
-        <v>1.054399126587668E-05</v>
+        <v>9.756687177286947E-06</v>
       </c>
       <c r="F16">
-        <v>266160</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>43.00758062726516</v>
+        <v>53.67632583597889</v>
       </c>
       <c r="M16">
-        <v>40.88183236116767</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>55.47646547958367</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B17">
-        <v>1.054399581335019E-05</v>
+        <v>9.756722647580318E-06</v>
       </c>
       <c r="C17">
-        <v>1.055445045494707E-05</v>
+        <v>9.768030395207459E-06</v>
       </c>
       <c r="D17">
-        <v>1.039263861457584E-05</v>
+        <v>9.392089850734919E-06</v>
       </c>
       <c r="E17">
-        <v>1.046547004079912E-05</v>
+        <v>9.482619134359991E-06</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>12966560</v>
       </c>
       <c r="L17">
-        <v>37.97864407917862</v>
+        <v>37.50914791532556</v>
       </c>
       <c r="M17">
-        <v>37.27457676871661</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>41.39516784912128</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B18">
-        <v>1.046555735229049E-05</v>
+        <v>9.483529538556468E-06</v>
       </c>
       <c r="C18">
-        <v>1.056156452250434E-05</v>
+        <v>9.591411981091367E-06</v>
       </c>
       <c r="D18">
-        <v>1.046493798639858E-05</v>
+        <v>9.458675776841121E-06</v>
       </c>
       <c r="E18">
-        <v>1.055328084476059E-05</v>
+        <v>9.583322935213801E-06</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>45.93254984583212</v>
+        <v>44.42818990766546</v>
       </c>
       <c r="M18">
-        <v>43.2998449118336</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>46.74417477777921</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B19">
-        <v>1.055275970429648E-05</v>
+        <v>9.584437975718174E-06</v>
       </c>
       <c r="C19">
-        <v>1.05798062577378E-05</v>
+        <v>9.745730494614691E-06</v>
       </c>
       <c r="D19">
-        <v>1.051467916113324E-05</v>
+        <v>9.545421562506816E-06</v>
       </c>
       <c r="E19">
-        <v>1.053007235896075E-05</v>
+        <v>9.7393749456387E-06</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>44.2453811790301</v>
+        <v>53.4192695152919</v>
       </c>
       <c r="M19">
-        <v>42.14748541742951</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>53.7836961652118</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B20">
-        <v>1.052956213243306E-05</v>
+        <v>9.737105756357778E-06</v>
       </c>
       <c r="C20">
-        <v>1.054834592650877E-05</v>
+        <v>9.742369002196938E-06</v>
       </c>
       <c r="D20">
-        <v>1.04428909253329E-05</v>
+        <v>9.605214472685477E-06</v>
       </c>
       <c r="E20">
-        <v>1.046563556883484E-05</v>
+        <v>9.622527613828424E-06</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>39.69156229338782</v>
+        <v>47.0120650590737</v>
       </c>
       <c r="M20">
-        <v>39.04083413714778</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>48.60316080033915</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B21">
-        <v>1.046239140123362E-05</v>
+        <v>9.623627192922868E-06</v>
       </c>
       <c r="C21">
-        <v>1.050179071171442E-05</v>
+        <v>9.63410366239259E-06</v>
       </c>
       <c r="D21">
-        <v>1.038419031829108E-05</v>
+        <v>9.554475582262968E-06</v>
       </c>
       <c r="E21">
-        <v>1.042297026287997E-05</v>
+        <v>9.605756531527732E-06</v>
       </c>
       <c r="F21">
-        <v>1162656</v>
+        <v>0</v>
       </c>
       <c r="H21">
-        <v>1.05974098914885E-05</v>
+        <v>9.703073556011076E-06</v>
       </c>
       <c r="L21">
-        <v>36.8652600497308</v>
+        <v>46.1188744461661</v>
       </c>
       <c r="M21">
-        <v>37.09135246549666</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>47.89014828428984</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B22">
-        <v>1.042304938891903E-05</v>
+        <v>9.604985280020628E-06</v>
       </c>
       <c r="C22">
-        <v>1.052364495990332E-05</v>
+        <v>9.646787475503515E-06</v>
       </c>
       <c r="D22">
-        <v>1.041415634972509E-05</v>
+        <v>9.554715688864237E-06</v>
       </c>
       <c r="E22">
-        <v>1.050890296028228E-05</v>
+        <v>9.581090125720948E-06</v>
       </c>
       <c r="F22">
-        <v>859792</v>
+        <v>1985696</v>
       </c>
       <c r="G22">
-        <v>1.059319527571677E-05</v>
+        <v>9.697264821235357E-06</v>
       </c>
       <c r="H22">
-        <v>1.05780885405693E-05</v>
+        <v>9.706827495392644E-06</v>
       </c>
       <c r="L22">
-        <v>45.63655095234819</v>
+        <v>44.71325294237721</v>
       </c>
       <c r="M22">
-        <v>43.23912018620042</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>46.80264028804098</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B23">
-        <v>1.05086528492393E-05</v>
+        <v>9.581063750374597E-06</v>
       </c>
       <c r="C23">
-        <v>1.057464851328405E-05</v>
+        <v>9.672566193330567E-06</v>
       </c>
       <c r="D23">
-        <v>1.049140519171488E-05</v>
+        <v>9.579701327311341E-06</v>
       </c>
       <c r="E23">
-        <v>1.054170206771232E-05</v>
+        <v>9.634412890591191E-06</v>
       </c>
       <c r="F23">
-        <v>614264</v>
+        <v>262576</v>
       </c>
       <c r="G23">
-        <v>1.058851407498909E-05</v>
+        <v>9.691551009358614E-06</v>
       </c>
       <c r="H23">
-        <v>1.055559500855452E-05</v>
+        <v>9.710595077194738E-06</v>
       </c>
       <c r="L23">
-        <v>48.69705872472517</v>
+        <v>48.5284440757923</v>
       </c>
       <c r="M23">
-        <v>45.43111948296295</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>49.47376804347204</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B24">
-        <v>1.054150288837263E-05</v>
+        <v>9.635253263695631E-06</v>
       </c>
       <c r="C24">
-        <v>1.058738689607708E-05</v>
+        <v>9.644712918088771E-06</v>
       </c>
       <c r="D24">
-        <v>1.053443429555045E-05</v>
+        <v>9.477334970142692E-06</v>
       </c>
       <c r="E24">
-        <v>1.054252697940683E-05</v>
+        <v>9.49297464103438E-06</v>
       </c>
       <c r="F24">
-        <v>896576</v>
+        <v>5024616</v>
       </c>
       <c r="G24">
-        <v>1.058433342993616E-05</v>
+        <v>9.673498612238229E-06</v>
       </c>
       <c r="H24">
-        <v>1.054371136888221E-05</v>
+        <v>9.705921638669678E-06</v>
       </c>
       <c r="L24">
-        <v>48.77864845092981</v>
+        <v>40.24178876441182</v>
       </c>
       <c r="M24">
-        <v>45.48813754220929</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>43.26781553651408</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B25">
-        <v>1.054170297720702E-05</v>
+        <v>9.492560820945071E-06</v>
       </c>
       <c r="C25">
-        <v>1.055536722560646E-05</v>
+        <v>9.553227755532134E-06</v>
       </c>
       <c r="D25">
-        <v>1.049191996571608E-05</v>
+        <v>9.383275937580038E-06</v>
       </c>
       <c r="E25">
-        <v>1.051243270921987E-05</v>
+        <v>9.397562280355489E-06</v>
       </c>
       <c r="F25">
-        <v>0</v>
+        <v>2158560</v>
       </c>
       <c r="G25">
-        <v>1.057779700078013E-05</v>
+        <v>9.64841349115798E-06</v>
       </c>
       <c r="H25">
-        <v>1.052637239808973E-05</v>
+        <v>9.695899780126638E-06</v>
       </c>
       <c r="L25">
-        <v>45.7898843668735</v>
+        <v>35.62511230176175</v>
       </c>
       <c r="M25">
-        <v>43.69441861676376</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>39.65417591207534</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
       <c r="A26" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B26">
-        <v>1.051274921337608E-05</v>
+        <v>9.39694382395828E-06</v>
       </c>
       <c r="C26">
-        <v>1.051274921337608E-05</v>
+        <v>9.423201845493168E-06</v>
       </c>
       <c r="D26">
-        <v>1.030101520882454E-05</v>
+        <v>9.30052647163393E-06</v>
       </c>
       <c r="E26">
-        <v>1.033912576531293E-05</v>
+        <v>9.369309736939613E-06</v>
       </c>
       <c r="F26">
-        <v>5277120</v>
+        <v>5302008</v>
       </c>
       <c r="G26">
-        <v>1.055609961573766E-05</v>
+        <v>9.623040422592673E-06</v>
       </c>
       <c r="H26">
-        <v>1.051558342624048E-05</v>
+        <v>9.683002508609206E-06</v>
       </c>
       <c r="L26">
-        <v>32.77824022189019</v>
+        <v>34.31374103211041</v>
       </c>
       <c r="M26">
-        <v>35.10852265841193</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>38.62546998945263</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
       <c r="A27" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B27">
-        <v>1.034143497236073E-05</v>
+        <v>9.37100139708491E-06</v>
       </c>
       <c r="C27">
-        <v>1.042857093125349E-05</v>
+        <v>9.378377399116287E-06</v>
       </c>
       <c r="D27">
-        <v>1.03312113424181E-05</v>
+        <v>8.990326932689641E-06</v>
       </c>
       <c r="E27">
-        <v>1.033425542118494E-05</v>
+        <v>9.015415344038049E-06</v>
       </c>
       <c r="F27">
-        <v>886432</v>
+        <v>20232264</v>
       </c>
       <c r="G27">
-        <v>1.053593196168741E-05</v>
+        <v>9.567801779087708E-06</v>
       </c>
       <c r="H27">
-        <v>1.050039691108395E-05</v>
+        <v>9.63502170634456E-06</v>
       </c>
       <c r="L27">
-        <v>32.48638982455539</v>
+        <v>22.59376571858621</v>
       </c>
       <c r="M27">
-        <v>34.90097132003928</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+        <v>28.61256803087747</v>
+      </c>
+      <c r="N27" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14">
       <c r="A28" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B28">
-        <v>1.033097669278504E-05</v>
+        <v>9.017924639920238E-06</v>
       </c>
       <c r="C28">
-        <v>1.035482637234964E-05</v>
+        <v>9.047649655258285E-06</v>
       </c>
       <c r="D28">
-        <v>1.026429526973516E-05</v>
+        <v>8.573813829571009E-06</v>
       </c>
       <c r="E28">
-        <v>1.035372406477109E-05</v>
+        <v>8.734048606129363E-06</v>
       </c>
       <c r="F28">
-        <v>4052176</v>
+        <v>39333048</v>
       </c>
       <c r="G28">
-        <v>1.051936760742229E-05</v>
+        <v>9.492006036091494E-06</v>
       </c>
       <c r="H28">
-        <v>1.048683693625208E-05</v>
+        <v>9.573334500601049E-06</v>
       </c>
       <c r="L28">
-        <v>35.08561652879172</v>
+        <v>17.30660879362168</v>
       </c>
       <c r="M28">
-        <v>36.51657219985256</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>23.41535331690684</v>
+      </c>
+      <c r="N28" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14">
       <c r="A29" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B29">
-        <v>1.035363220580621E-05</v>
+        <v>8.734802577237133E-06</v>
       </c>
       <c r="C29">
-        <v>1.044340297085E-05</v>
+        <v>9.107445293921046E-06</v>
       </c>
       <c r="D29">
-        <v>1.035238528857008E-05</v>
+        <v>8.711175723874476E-06</v>
       </c>
       <c r="E29">
-        <v>1.044340297085E-05</v>
+        <v>9.020434845297132E-06</v>
       </c>
       <c r="F29">
-        <v>1398672</v>
+        <v>16383248</v>
       </c>
       <c r="G29">
-        <v>1.051246173137026E-05</v>
+        <v>9.449135927837461E-06</v>
       </c>
       <c r="H29">
-        <v>1.047975833898818E-05</v>
+        <v>9.523815015199943E-06</v>
       </c>
       <c r="L29">
-        <v>45.88248487231073</v>
+        <v>34.78219239500648</v>
       </c>
       <c r="M29">
-        <v>43.47540386811838</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>36.13172178910718</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14">
       <c r="A30" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B30">
-        <v>1.04419168565073E-05</v>
+        <v>9.021741789183579E-06</v>
       </c>
       <c r="C30">
-        <v>1.049493403115775E-05</v>
+        <v>9.106796824198682E-06</v>
       </c>
       <c r="D30">
-        <v>1.042639996740036E-05</v>
+        <v>8.967948815552518E-06</v>
       </c>
       <c r="E30">
-        <v>1.049431284627644E-05</v>
+        <v>9.106796824198682E-06</v>
       </c>
       <c r="F30">
-        <v>1651128</v>
+        <v>4740448</v>
       </c>
       <c r="G30">
-        <v>1.051081183272537E-05</v>
+        <v>9.418014191143026E-06</v>
       </c>
       <c r="H30">
-        <v>1.047951323016605E-05</v>
+        <v>9.487038914812728E-06</v>
       </c>
       <c r="L30">
-        <v>51.07904601045718</v>
+        <v>39.14513172294057</v>
       </c>
       <c r="M30">
-        <v>47.02549334524409</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>39.39950105367947</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14">
       <c r="A31" s="1" t="s">
         <v>43</v>
       </c>
       <c r="B31">
-        <v>1.049402180797188E-05</v>
+        <v>9.108340236707591E-06</v>
       </c>
       <c r="C31">
-        <v>1.065382366505219E-05</v>
+        <v>9.25510630622739E-06</v>
       </c>
       <c r="D31">
-        <v>1.04886503322632E-05</v>
+        <v>9.108340236707591E-06</v>
       </c>
       <c r="E31">
-        <v>1.06399793367018E-05</v>
+        <v>9.179987500829156E-06</v>
       </c>
       <c r="F31">
-        <v>8849288</v>
+        <v>18096208</v>
       </c>
       <c r="G31">
-        <v>1.052255433308686E-05</v>
+        <v>9.396375401114492E-06</v>
       </c>
       <c r="H31">
-        <v>1.047740520334628E-05</v>
+        <v>9.454727023694432E-06</v>
       </c>
       <c r="I31">
-        <v>1.055528543171628E-05</v>
+        <v>9.553116797178518E-06</v>
       </c>
       <c r="L31">
-        <v>62.62986962084054</v>
+        <v>42.79385842001508</v>
       </c>
       <c r="M31">
-        <v>55.61520118896394</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>42.10309052406726</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14">
       <c r="A32" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B32">
-        <v>1.063942363543902E-05</v>
+        <v>9.180325832858216E-06</v>
       </c>
       <c r="C32">
-        <v>1.068700203177286E-05</v>
+        <v>9.569058420311194E-06</v>
       </c>
       <c r="D32">
-        <v>1.061819966707844E-05</v>
+        <v>9.14558313525049E-06</v>
       </c>
       <c r="E32">
-        <v>1.068468100129394E-05</v>
+        <v>9.568173481966367E-06</v>
       </c>
       <c r="F32">
-        <v>4700104</v>
+        <v>21243280</v>
       </c>
       <c r="G32">
-        <v>1.053729312110569E-05</v>
+        <v>9.411993408464662E-06</v>
       </c>
       <c r="H32">
-        <v>1.048710655595642E-05</v>
+        <v>9.447904858461698E-06</v>
       </c>
       <c r="I32">
-        <v>1.05482637991372E-05</v>
+        <v>9.555188868641078E-06</v>
       </c>
       <c r="L32">
-        <v>65.4464806976325</v>
+        <v>57.86703119045573</v>
       </c>
       <c r="M32">
-        <v>57.87268169215155</v>
+        <v>53.86038253150834</v>
       </c>
     </row>
     <row r="33" spans="1:15">
@@ -1826,37 +1832,34 @@
         <v>45</v>
       </c>
       <c r="B33">
-        <v>1.068436904461123E-05</v>
+        <v>9.570804650138598E-06</v>
       </c>
       <c r="C33">
-        <v>1.082765629689675E-05</v>
+        <v>9.584609870216809E-06</v>
       </c>
       <c r="D33">
-        <v>1.067110861185938E-05</v>
+        <v>9.469128599448595E-06</v>
       </c>
       <c r="E33">
-        <v>1.080551191989798E-05</v>
+        <v>9.578411663824228E-06</v>
       </c>
       <c r="F33">
-        <v>17365160</v>
+        <v>2809280</v>
       </c>
       <c r="G33">
-        <v>1.056167664826862E-05</v>
+        <v>9.427122340770078E-06</v>
       </c>
       <c r="H33">
-        <v>1.050445930559363E-05</v>
+        <v>9.447791990169208E-06</v>
       </c>
       <c r="I33">
-        <v>1.054206177286687E-05</v>
+        <v>9.555833882283575E-06</v>
       </c>
       <c r="L33">
-        <v>71.88935893389029</v>
+        <v>58.19387289874959</v>
       </c>
       <c r="M33">
-        <v>63.30555024182557</v>
-      </c>
-      <c r="O33" t="s">
-        <v>195</v>
+        <v>54.12498616685048</v>
       </c>
     </row>
     <row r="34" spans="1:15">
@@ -1864,37 +1867,34 @@
         <v>46</v>
       </c>
       <c r="B34">
-        <v>1.080443053069757E-05</v>
+        <v>9.578516255714931E-06</v>
       </c>
       <c r="C34">
-        <v>1.083290044334717E-05</v>
+        <v>9.584082363289779E-06</v>
       </c>
       <c r="D34">
-        <v>1.072372378985165E-05</v>
+        <v>9.36434753384674E-06</v>
       </c>
       <c r="E34">
-        <v>1.079852245311486E-05</v>
+        <v>9.40814697969472E-06</v>
       </c>
       <c r="F34">
-        <v>6242752</v>
+        <v>1284192</v>
       </c>
       <c r="G34">
-        <v>1.058320808507283E-05</v>
+        <v>9.425397307945045E-06</v>
       </c>
       <c r="H34">
-        <v>1.052323445946968E-05</v>
+        <v>9.435363517695805E-06</v>
       </c>
       <c r="I34">
-        <v>1.05426725288756E-05</v>
+        <v>9.54989066788888E-06</v>
       </c>
       <c r="L34">
-        <v>71.02750692509262</v>
+        <v>50.81838834853372</v>
       </c>
       <c r="M34">
-        <v>62.80102515284953</v>
-      </c>
-      <c r="O34" t="s">
-        <v>195</v>
+        <v>49.08365599557896</v>
       </c>
     </row>
     <row r="35" spans="1:15">
@@ -1902,37 +1902,34 @@
         <v>47</v>
       </c>
       <c r="B35">
-        <v>1.0795469279401E-05</v>
+        <v>9.408538062416484E-06</v>
       </c>
       <c r="C35">
-        <v>1.091558533516945E-05</v>
+        <v>9.551760740578176E-06</v>
       </c>
       <c r="D35">
-        <v>1.076275930245174E-05</v>
+        <v>9.408538062416484E-06</v>
       </c>
       <c r="E35">
-        <v>1.079689627658809E-05</v>
+        <v>9.50922640186036E-06</v>
       </c>
       <c r="F35">
-        <v>15149624</v>
+        <v>6048</v>
       </c>
       <c r="G35">
-        <v>1.060263428430149E-05</v>
+        <v>9.433018134664619E-06</v>
       </c>
       <c r="H35">
-        <v>1.053886985573627E-05</v>
+        <v>9.419313983016764E-06</v>
       </c>
       <c r="I35">
-        <v>1.054059533392622E-05</v>
+        <v>9.546931566243682E-06</v>
       </c>
       <c r="L35">
-        <v>70.80532426173134</v>
+        <v>54.6565116331767</v>
       </c>
       <c r="M35">
-        <v>62.67586972912148</v>
-      </c>
-      <c r="O35" t="s">
-        <v>195</v>
+        <v>51.94524070357063</v>
       </c>
     </row>
     <row r="36" spans="1:15">
@@ -1940,34 +1937,34 @@
         <v>48</v>
       </c>
       <c r="B36">
-        <v>1.079634330380941E-05</v>
+        <v>9.508647963230032E-06</v>
       </c>
       <c r="C36">
-        <v>1.083930783352116E-05</v>
+        <v>9.528836926619988E-06</v>
       </c>
       <c r="D36">
-        <v>1.058521502272924E-05</v>
+        <v>9.315911484009121E-06</v>
       </c>
       <c r="E36">
-        <v>1.064886237145402E-05</v>
+        <v>9.38857647270197E-06</v>
       </c>
       <c r="F36">
-        <v>29102544</v>
+        <v>2583312</v>
       </c>
       <c r="G36">
-        <v>1.060683683767899E-05</v>
+        <v>9.428977983577106E-06</v>
       </c>
       <c r="H36">
-        <v>1.054411341101513E-05</v>
+        <v>9.400908447787515E-06</v>
       </c>
       <c r="I36">
-        <v>1.054372723956476E-05</v>
+        <v>9.538975609757471E-06</v>
       </c>
       <c r="L36">
-        <v>53.62603132028173</v>
+        <v>49.47216616133147</v>
       </c>
       <c r="M36">
-        <v>52.43212805488117</v>
+        <v>48.4453799576583</v>
       </c>
     </row>
     <row r="37" spans="1:15">
@@ -1975,34 +1972,34 @@
         <v>49</v>
       </c>
       <c r="B37">
-        <v>1.064949901774526E-05</v>
+        <v>9.39148412726354E-06</v>
       </c>
       <c r="C37">
-        <v>1.065998276317259E-05</v>
+        <v>9.42394763114862E-06</v>
       </c>
       <c r="D37">
-        <v>1.053650157700758E-05</v>
+        <v>9.169388249574696E-06</v>
       </c>
       <c r="E37">
-        <v>1.054937911248999E-05</v>
+        <v>9.27294331631856E-06</v>
       </c>
       <c r="F37">
-        <v>7699776</v>
+        <v>9575792</v>
       </c>
       <c r="G37">
-        <v>1.060161340811635E-05</v>
+        <v>9.414793013826328E-06</v>
       </c>
       <c r="H37">
-        <v>1.054830886459968E-05</v>
+        <v>9.390424656885443E-06</v>
       </c>
       <c r="I37">
-        <v>1.054077368583724E-05</v>
+        <v>9.515572673990392E-06</v>
       </c>
       <c r="L37">
-        <v>45.31390411307351</v>
+        <v>44.88196499982672</v>
       </c>
       <c r="M37">
-        <v>46.88617094494755</v>
+        <v>45.29545897730804</v>
       </c>
     </row>
     <row r="38" spans="1:15">
@@ -2010,34 +2007,34 @@
         <v>50</v>
       </c>
       <c r="B38">
-        <v>1.055039047059836E-05</v>
+        <v>9.271564522350673E-06</v>
       </c>
       <c r="C38">
-        <v>1.059221449395409E-05</v>
+        <v>9.970573046302889E-06</v>
       </c>
       <c r="D38">
-        <v>1.049876664183102E-05</v>
+        <v>9.25505537452409E-06</v>
       </c>
       <c r="E38">
-        <v>1.055878601619042E-05</v>
+        <v>9.705546290206256E-06</v>
       </c>
       <c r="F38">
-        <v>2382208</v>
+        <v>65672480</v>
       </c>
       <c r="G38">
-        <v>1.059772000885036E-05</v>
+        <v>9.441225129860866E-06</v>
       </c>
       <c r="H38">
-        <v>1.054858412317117E-05</v>
+        <v>9.396535824635066E-06</v>
       </c>
       <c r="I38">
-        <v>1.053856910099664E-05</v>
+        <v>9.506831126297281E-06</v>
       </c>
       <c r="L38">
-        <v>46.20097865510114</v>
+        <v>60.36123689466235</v>
       </c>
       <c r="M38">
-        <v>47.45216932907274</v>
+        <v>56.65121442693293</v>
       </c>
     </row>
     <row r="39" spans="1:15">
@@ -2045,34 +2042,34 @@
         <v>51</v>
       </c>
       <c r="B39">
-        <v>1.055780649039662E-05</v>
+        <v>9.709588084660936E-06</v>
       </c>
       <c r="C39">
-        <v>1.06448533188086E-05</v>
+        <v>9.776232218428049E-06</v>
       </c>
       <c r="D39">
-        <v>1.055780649039662E-05</v>
+        <v>9.518138540443031E-06</v>
       </c>
       <c r="E39">
-        <v>1.059409351000795E-05</v>
+        <v>9.636866707296576E-06</v>
       </c>
       <c r="F39">
-        <v>0</v>
+        <v>53873248</v>
       </c>
       <c r="G39">
-        <v>1.059739032713741E-05</v>
+        <v>9.459010727809566E-06</v>
       </c>
       <c r="H39">
-        <v>1.055178518072353E-05</v>
+        <v>9.391410412717959E-06</v>
       </c>
       <c r="I39">
-        <v>1.053887305412597E-05</v>
+        <v>9.494365864763191E-06</v>
       </c>
       <c r="L39">
-        <v>49.6496990314789</v>
+        <v>57.47819726670097</v>
       </c>
       <c r="M39">
-        <v>49.62213189485599</v>
+        <v>54.70953077345985</v>
       </c>
     </row>
     <row r="40" spans="1:15">
@@ -2080,34 +2077,34 @@
         <v>52</v>
       </c>
       <c r="B40">
-        <v>1.059417627402581E-05</v>
+        <v>9.643327757657971E-06</v>
       </c>
       <c r="C40">
-        <v>1.063705076376209E-05</v>
+        <v>9.833439435169566E-06</v>
       </c>
       <c r="D40">
-        <v>1.056833025359083E-05</v>
+        <v>9.631873581383845E-06</v>
       </c>
       <c r="E40">
-        <v>1.057415465766098E-05</v>
+        <v>9.663684068073051E-06</v>
       </c>
       <c r="F40">
-        <v>8022272</v>
+        <v>514976</v>
       </c>
       <c r="G40">
-        <v>1.059527799354864E-05</v>
+        <v>9.477617395106247E-06</v>
       </c>
       <c r="H40">
-        <v>1.055721113516483E-05</v>
+        <v>9.393468235430192E-06</v>
       </c>
       <c r="I40">
-        <v>1.054137104195737E-05</v>
+        <v>9.488411372634194E-06</v>
       </c>
       <c r="L40">
-        <v>47.70680236265895</v>
+        <v>58.35202786809876</v>
       </c>
       <c r="M40">
-        <v>48.40645359345118</v>
+        <v>55.35300996070117</v>
       </c>
     </row>
     <row r="41" spans="1:15">
@@ -2115,34 +2112,34 @@
         <v>53</v>
       </c>
       <c r="B41">
-        <v>1.058015277521918E-05</v>
+        <v>9.664045137469657E-06</v>
       </c>
       <c r="C41">
-        <v>1.065042488335166E-05</v>
+        <v>9.681923074822407E-06</v>
       </c>
       <c r="D41">
-        <v>1.035488912748406E-05</v>
+        <v>9.444172064831946E-06</v>
       </c>
       <c r="E41">
-        <v>1.035488912748406E-05</v>
+        <v>9.457891792408191E-06</v>
       </c>
       <c r="F41">
-        <v>16798272</v>
+        <v>3563360</v>
       </c>
       <c r="G41">
-        <v>1.057342446027004E-05</v>
+        <v>9.475824158497333E-06</v>
       </c>
       <c r="H41">
-        <v>1.055380707839504E-05</v>
+        <v>9.386074998474214E-06</v>
       </c>
       <c r="I41">
-        <v>1.053046268377026E-05</v>
+        <v>9.47613358827463E-06</v>
       </c>
       <c r="L41">
-        <v>32.14477433280756</v>
+        <v>49.55959798785381</v>
       </c>
       <c r="M41">
-        <v>37.52049466924393</v>
+        <v>49.53664089076809</v>
       </c>
     </row>
     <row r="42" spans="1:15">
@@ -2150,37 +2147,34 @@
         <v>54</v>
       </c>
       <c r="B42">
-        <v>1.035443438013317E-05</v>
+        <v>9.455498911847826E-06</v>
       </c>
       <c r="C42">
-        <v>1.035443438013317E-05</v>
+        <v>9.562460036249831E-06</v>
       </c>
       <c r="D42">
-        <v>9.075042726180982E-06</v>
+        <v>9.365927326143719E-06</v>
       </c>
       <c r="E42">
-        <v>9.67511732596904E-06</v>
+        <v>9.507091817795301E-06</v>
       </c>
       <c r="F42">
-        <v>139121088</v>
+        <v>9184</v>
       </c>
       <c r="G42">
-        <v>1.049176017533359E-05</v>
+        <v>9.478666672978966E-06</v>
       </c>
       <c r="H42">
-        <v>1.051211779667938E-05</v>
+        <v>9.382375083077932E-06</v>
       </c>
       <c r="I42">
-        <v>1.050327812966619E-05</v>
+        <v>9.469549422647105E-06</v>
       </c>
       <c r="L42">
-        <v>15.03702071118109</v>
+        <v>51.5241658303031</v>
       </c>
       <c r="M42">
-        <v>21.43013404460016</v>
-      </c>
-      <c r="N42" t="s">
-        <v>195</v>
+        <v>50.86591494650762</v>
       </c>
     </row>
     <row r="43" spans="1:15">
@@ -2188,37 +2182,34 @@
         <v>55</v>
       </c>
       <c r="B43">
-        <v>9.682125892140904E-06</v>
+        <v>9.509166375210045E-06</v>
       </c>
       <c r="C43">
-        <v>9.789257092052139E-06</v>
+        <v>9.509166375210045E-06</v>
       </c>
       <c r="D43">
-        <v>9.438585948373657E-06</v>
+        <v>9.18440036912216E-06</v>
       </c>
       <c r="E43">
-        <v>9.506011338089593E-06</v>
+        <v>9.421849426871631E-06</v>
       </c>
       <c r="F43">
-        <v>19127104</v>
+        <v>1873312</v>
       </c>
       <c r="G43">
-        <v>1.040214664467505E-05</v>
+        <v>9.473501468787391E-06</v>
       </c>
       <c r="H43">
-        <v>1.046033326019824E-05</v>
+        <v>9.371746909891953E-06</v>
       </c>
       <c r="I43">
-        <v>1.047152994336405E-05</v>
+        <v>9.464255435887026E-06</v>
       </c>
       <c r="L43">
-        <v>13.08765701367361</v>
+        <v>47.88866661901975</v>
       </c>
       <c r="M43">
-        <v>19.22176792378184</v>
-      </c>
-      <c r="N43" t="s">
-        <v>195</v>
+        <v>48.48302983570186</v>
       </c>
     </row>
     <row r="44" spans="1:15">
@@ -2226,37 +2217,34 @@
         <v>56</v>
       </c>
       <c r="B44">
-        <v>9.506756214250345E-06</v>
+        <v>9.448250239074696E-06</v>
       </c>
       <c r="C44">
-        <v>9.616029274184257E-06</v>
+        <v>9.538235644868109E-06</v>
       </c>
       <c r="D44">
-        <v>9.501442946202587E-06</v>
+        <v>9.381324161950031E-06</v>
       </c>
       <c r="E44">
-        <v>9.559061254549306E-06</v>
+        <v>9.525128007226158E-06</v>
       </c>
       <c r="F44">
-        <v>3629504</v>
+        <v>292576</v>
       </c>
       <c r="G44">
-        <v>1.032550251829998E-05</v>
+        <v>9.478194790463641E-06</v>
       </c>
       <c r="H44">
-        <v>1.041115997395536E-05</v>
+        <v>9.373354578201542E-06</v>
       </c>
       <c r="I44">
-        <v>1.044273133932923E-05</v>
+        <v>9.459869155155805E-06</v>
       </c>
       <c r="L44">
-        <v>16.89009469098178</v>
+        <v>52.46073490961763</v>
       </c>
       <c r="M44">
-        <v>21.93938678991006</v>
-      </c>
-      <c r="N44" t="s">
-        <v>195</v>
+        <v>51.45058991754587</v>
       </c>
     </row>
     <row r="45" spans="1:15">
@@ -2264,37 +2252,34 @@
         <v>57</v>
       </c>
       <c r="B45">
-        <v>9.560245416651014E-06</v>
+        <v>9.524594133836216E-06</v>
       </c>
       <c r="C45">
-        <v>9.617019713914488E-06</v>
+        <v>1.014429381029913E-05</v>
       </c>
       <c r="D45">
-        <v>9.488565410720184E-06</v>
+        <v>9.379431503475644E-06</v>
       </c>
       <c r="E45">
-        <v>9.586443411535583E-06</v>
+        <v>9.972195584850851E-06</v>
       </c>
       <c r="F45">
-        <v>7786112</v>
+        <v>31062496</v>
       </c>
       <c r="G45">
-        <v>1.025831532677594E-05</v>
+        <v>9.52310395358975E-06</v>
       </c>
       <c r="H45">
-        <v>1.036486050907115E-05</v>
+        <v>9.402086243426311E-06</v>
       </c>
       <c r="I45">
-        <v>1.041280650800521E-05</v>
+        <v>9.46460177146946E-06</v>
       </c>
       <c r="L45">
-        <v>18.94917627276033</v>
+        <v>66.69202314929341</v>
       </c>
       <c r="M45">
-        <v>23.37238986037364</v>
-      </c>
-      <c r="N45" t="s">
-        <v>195</v>
+        <v>61.72789326083588</v>
       </c>
     </row>
     <row r="46" spans="1:15">
@@ -2302,37 +2287,34 @@
         <v>58</v>
       </c>
       <c r="B46">
-        <v>9.582779966876842E-06</v>
+        <v>9.975506145565303E-06</v>
       </c>
       <c r="C46">
-        <v>9.685658369562589E-06</v>
+        <v>1.01449959402089E-05</v>
       </c>
       <c r="D46">
-        <v>9.575554940965958E-06</v>
+        <v>9.880539437290279E-06</v>
       </c>
       <c r="E46">
-        <v>9.59799945121631E-06</v>
+        <v>1.010627420328092E-05</v>
       </c>
       <c r="F46">
-        <v>1317952</v>
+        <v>20356544</v>
       </c>
       <c r="G46">
-        <v>1.019828661081597E-05</v>
+        <v>9.576119430834401E-06</v>
       </c>
       <c r="H46">
-        <v>1.032780419336632E-05</v>
+        <v>9.438934466743375E-06</v>
       </c>
       <c r="I46">
-        <v>1.038127344751653E-05</v>
+        <v>9.476254672335926E-06</v>
       </c>
       <c r="L46">
-        <v>19.89148526817803</v>
+        <v>69.74758241330896</v>
       </c>
       <c r="M46">
-        <v>24.00643189430724</v>
-      </c>
-      <c r="N46" t="s">
-        <v>195</v>
+        <v>64.17710816970505</v>
       </c>
     </row>
     <row r="47" spans="1:15">
@@ -2340,37 +2322,34 @@
         <v>59</v>
       </c>
       <c r="B47">
-        <v>9.585577572579496E-06</v>
+        <v>1.011352924251696E-05</v>
       </c>
       <c r="C47">
-        <v>9.643459634389728E-06</v>
+        <v>1.015359521261416E-05</v>
       </c>
       <c r="D47">
-        <v>9.524166671326384E-06</v>
+        <v>9.927208338922355E-06</v>
       </c>
       <c r="E47">
-        <v>9.62725516728824E-06</v>
+        <v>1.008700292004505E-05</v>
       </c>
       <c r="F47">
-        <v>7976128</v>
+        <v>15119824</v>
       </c>
       <c r="G47">
-        <v>1.014637466140436E-05</v>
+        <v>9.622563384399005E-06</v>
       </c>
       <c r="H47">
-        <v>1.029245418067148E-05</v>
+        <v>9.492513845543726E-06</v>
       </c>
       <c r="I47">
-        <v>1.035333295173283E-05</v>
+        <v>9.496400798525428E-06</v>
       </c>
       <c r="L47">
-        <v>22.45904914412926</v>
+        <v>68.72809840965454</v>
       </c>
       <c r="M47">
-        <v>25.68294764056987</v>
-      </c>
-      <c r="N47" t="s">
-        <v>195</v>
+        <v>63.54763143292347</v>
       </c>
     </row>
     <row r="48" spans="1:15">
@@ -2378,1726 +2357,1720 @@
         <v>60</v>
       </c>
       <c r="B48">
-        <v>9.627784493204672E-06</v>
+        <v>1.008554590953281E-05</v>
       </c>
       <c r="C48">
-        <v>1.008573599392548E-05</v>
+        <v>1.037201036524493E-05</v>
       </c>
       <c r="D48">
-        <v>9.620426681067327E-06</v>
+        <v>1.005767171591288E-05</v>
       </c>
       <c r="E48">
-        <v>9.975031389330979E-06</v>
+        <v>1.036600951920264E-05</v>
       </c>
       <c r="F48">
-        <v>2201216</v>
+        <v>20762208</v>
       </c>
       <c r="G48">
-        <v>1.013079800030678E-05</v>
+        <v>9.690149396653882E-06</v>
       </c>
       <c r="H48">
-        <v>1.027351954689948E-05</v>
+        <v>9.57411189119739E-06</v>
       </c>
       <c r="I48">
-        <v>1.033405796988518E-05</v>
+        <v>9.522490351325057E-06</v>
       </c>
       <c r="L48">
-        <v>45.72362303552443</v>
+        <v>74.74144372884534</v>
       </c>
       <c r="M48">
-        <v>42.04963576170418</v>
-      </c>
-    </row>
-    <row r="49" spans="1:14">
+        <v>68.38279857517256</v>
+      </c>
+      <c r="O48" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13">
       <c r="A49" s="1" t="s">
         <v>61</v>
       </c>
       <c r="B49">
-        <v>9.974512977350967E-06</v>
+        <v>1.036615140037611E-05</v>
       </c>
       <c r="C49">
-        <v>1.000213069346501E-05</v>
+        <v>1.049119146045996E-05</v>
       </c>
       <c r="D49">
-        <v>9.869355380942579E-06</v>
+        <v>1.006835918815341E-05</v>
       </c>
       <c r="E49">
-        <v>9.967792720999569E-06</v>
+        <v>1.011709264275851E-05</v>
       </c>
       <c r="F49">
-        <v>416096</v>
+        <v>40888128</v>
       </c>
       <c r="G49">
-        <v>1.011597933855158E-05</v>
+        <v>9.72896241902703E-06</v>
       </c>
       <c r="H49">
-        <v>1.024973903440696E-05</v>
+        <v>9.628944781070459E-06</v>
       </c>
       <c r="I49">
-        <v>1.031531531528647E-05</v>
+        <v>9.53508094122905E-06</v>
       </c>
       <c r="L49">
-        <v>45.4046342048075</v>
+        <v>62.6500662978974</v>
       </c>
       <c r="M49">
-        <v>41.84307898815788</v>
-      </c>
-    </row>
-    <row r="50" spans="1:14">
+        <v>60.65308842584609</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13">
       <c r="A50" s="1" t="s">
         <v>62</v>
       </c>
       <c r="B50">
-        <v>9.965641766029876E-06</v>
+        <v>1.012802295008441E-05</v>
       </c>
       <c r="C50">
-        <v>1.010406504065031E-05</v>
+        <v>1.024893481371692E-05</v>
       </c>
       <c r="D50">
-        <v>9.963770025933629E-06</v>
+        <v>9.9849939942942E-06</v>
       </c>
       <c r="E50">
-        <v>1.001082455331925E-05</v>
+        <v>1.024644279823406E-05</v>
       </c>
       <c r="F50">
-        <v>2236592</v>
+        <v>17735936</v>
       </c>
       <c r="G50">
-        <v>1.010641981262137E-05</v>
+        <v>9.776006089864032E-06</v>
       </c>
       <c r="H50">
-        <v>1.02255646197591E-05</v>
+        <v>9.685927079772227E-06</v>
       </c>
       <c r="I50">
-        <v>1.030015494810262E-05</v>
+        <v>9.55587811404257E-06</v>
       </c>
       <c r="L50">
-        <v>47.83834991609246</v>
+        <v>65.87724841765788</v>
       </c>
       <c r="M50">
-        <v>43.61623567546501</v>
-      </c>
-    </row>
-    <row r="51" spans="1:14">
+        <v>62.99400390346246</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13">
       <c r="A51" s="1" t="s">
         <v>63</v>
       </c>
       <c r="B51">
-        <v>1.000800875772256E-05</v>
+        <v>1.024414177663857E-05</v>
       </c>
       <c r="C51">
-        <v>1.007433274935465E-05</v>
+        <v>1.028147380566224E-05</v>
       </c>
       <c r="D51">
-        <v>9.748643606144469E-06</v>
+        <v>1.004983278107829E-05</v>
       </c>
       <c r="E51">
-        <v>9.842318831942976E-06</v>
+        <v>1.015955604088958E-05</v>
       </c>
       <c r="F51">
-        <v>18375728</v>
+        <v>0</v>
       </c>
       <c r="G51">
-        <v>1.00824106325597E-05</v>
+        <v>9.810874267229991E-06</v>
       </c>
       <c r="H51">
-        <v>1.018568159452116E-05</v>
+        <v>9.734905506775249E-06</v>
       </c>
       <c r="I51">
-        <v>1.028079990040472E-05</v>
+        <v>9.574338097687966E-06</v>
       </c>
       <c r="L51">
-        <v>39.98600426654541</v>
+        <v>61.83950427571973</v>
       </c>
       <c r="M51">
-        <v>38.6471886032923</v>
-      </c>
-    </row>
-    <row r="52" spans="1:14">
+        <v>60.39476787638387</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13">
       <c r="A52" s="1" t="s">
         <v>64</v>
       </c>
       <c r="B52">
-        <v>9.842381587077398E-06</v>
+        <v>1.015823363559321E-05</v>
       </c>
       <c r="C52">
-        <v>9.862250408332329E-06</v>
+        <v>1.018484908854589E-05</v>
       </c>
       <c r="D52">
-        <v>9.793606295716016E-06</v>
+        <v>1.000638894765871E-05</v>
       </c>
       <c r="E52">
-        <v>9.826225323195104E-06</v>
+        <v>1.016998248815071E-05</v>
       </c>
       <c r="F52">
-        <v>3061824</v>
+        <v>15168</v>
       </c>
       <c r="G52">
-        <v>1.00591210589811E-05</v>
+        <v>9.843520469131874E-06</v>
       </c>
       <c r="H52">
-        <v>1.014275881061621E-05</v>
+        <v>9.764995957084465E-06</v>
       </c>
       <c r="I52">
-        <v>1.025804397916848E-05</v>
+        <v>9.593967843102291E-06</v>
       </c>
       <c r="L52">
-        <v>39.2930139419498</v>
+        <v>62.15266975149351</v>
       </c>
       <c r="M52">
-        <v>38.19957402505633</v>
-      </c>
-    </row>
-    <row r="53" spans="1:14">
+        <v>60.60483441527424</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13">
       <c r="A53" s="1" t="s">
         <v>65</v>
       </c>
       <c r="B53">
-        <v>9.826694622461218E-06</v>
+        <v>1.016366422845749E-05</v>
       </c>
       <c r="C53">
-        <v>9.88232932286337E-06</v>
+        <v>1.02387721199193E-05</v>
       </c>
       <c r="D53">
-        <v>9.703793693915941E-06</v>
+        <v>1.009370134852361E-05</v>
       </c>
       <c r="E53">
-        <v>9.704616786621044E-06</v>
+        <v>1.010786036204081E-05</v>
       </c>
       <c r="F53">
-        <v>4618144</v>
+        <v>0</v>
       </c>
       <c r="G53">
-        <v>1.002689339785746E-05</v>
+        <v>9.867551368487233E-06</v>
       </c>
       <c r="H53">
-        <v>1.008771405395237E-05</v>
+        <v>9.791468391995295E-06</v>
       </c>
       <c r="I53">
-        <v>1.023014113646544E-05</v>
+        <v>9.609749425483944E-06</v>
       </c>
       <c r="L53">
-        <v>34.24741422090249</v>
+        <v>58.91206121963157</v>
       </c>
       <c r="M53">
-        <v>34.9093457463864</v>
-      </c>
-    </row>
-    <row r="54" spans="1:14">
+        <v>58.61016066566954</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13">
       <c r="A54" s="1" t="s">
         <v>66</v>
       </c>
       <c r="B54">
-        <v>9.703612704470288E-06</v>
+        <v>1.010896176012466E-05</v>
       </c>
       <c r="C54">
-        <v>9.749949640536215E-06</v>
+        <v>1.022211654344574E-05</v>
       </c>
       <c r="D54">
-        <v>9.550390132062604E-06</v>
+        <v>1.004549085337203E-05</v>
       </c>
       <c r="E54">
-        <v>9.580669029674029E-06</v>
+        <v>1.018810326058883E-05</v>
       </c>
       <c r="F54">
-        <v>2269152</v>
+        <v>0</v>
       </c>
       <c r="G54">
-        <v>9.986327546204415E-06</v>
+        <v>9.896692449587378E-06</v>
       </c>
       <c r="H54">
-        <v>1.002682138278033E-05</v>
+        <v>9.830466206040001E-06</v>
       </c>
       <c r="I54">
-        <v>1.019807920480768E-05</v>
+        <v>9.632920379469094E-06</v>
       </c>
       <c r="L54">
-        <v>29.85201581157222</v>
+        <v>61.80590960507075</v>
       </c>
       <c r="M54">
-        <v>31.89400839195649</v>
-      </c>
-      <c r="N54" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="55" spans="1:14">
+        <v>60.42217451589129</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13">
       <c r="A55" s="1" t="s">
         <v>67</v>
       </c>
       <c r="B55">
-        <v>9.594036782800686E-06</v>
+        <v>1.018709554045927E-05</v>
       </c>
       <c r="C55">
-        <v>9.678461537987459E-06</v>
+        <v>1.028257156576728E-05</v>
       </c>
       <c r="D55">
-        <v>9.511240932624789E-06</v>
+        <v>9.916640919982456E-06</v>
       </c>
       <c r="E55">
-        <v>9.656716429162771E-06</v>
+        <v>9.916640919982456E-06</v>
       </c>
       <c r="F55">
-        <v>4766640</v>
+        <v>0</v>
       </c>
       <c r="G55">
-        <v>9.95636289920063E-06</v>
+        <v>9.898505946896021E-06</v>
       </c>
       <c r="H55">
-        <v>9.969812390409061E-06</v>
+        <v>9.850836931946105E-06</v>
       </c>
       <c r="I55">
-        <v>1.016955532880578E-05</v>
+        <v>9.650223000789993E-06</v>
       </c>
       <c r="L55">
-        <v>35.56050045578326</v>
+        <v>48.74088259824598</v>
       </c>
       <c r="M55">
-        <v>35.57110676297348</v>
-      </c>
-    </row>
-    <row r="56" spans="1:14">
+        <v>52.11062957899085</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13">
       <c r="A56" s="1" t="s">
         <v>68</v>
       </c>
       <c r="B56">
-        <v>9.656222573539708E-06</v>
+        <v>9.910546395985875E-06</v>
       </c>
       <c r="C56">
-        <v>9.879090612230357E-06</v>
+        <v>9.984323696698992E-06</v>
       </c>
       <c r="D56">
-        <v>9.656222573539708E-06</v>
+        <v>9.571434929966928E-06</v>
       </c>
       <c r="E56">
-        <v>9.830217095441183E-06</v>
+        <v>9.792319360713009E-06</v>
       </c>
       <c r="F56">
-        <v>1466992</v>
+        <v>9079440</v>
       </c>
       <c r="G56">
-        <v>9.944895098858864E-06</v>
+        <v>9.888852620879384E-06</v>
       </c>
       <c r="H56">
-        <v>9.92888012660842E-06</v>
+        <v>9.871024076346657E-06</v>
       </c>
       <c r="I56">
-        <v>1.015259170647672E-05</v>
+        <v>9.664323321582439E-06</v>
       </c>
       <c r="L56">
-        <v>46.6944102018034</v>
+        <v>43.95384773500268</v>
       </c>
       <c r="M56">
-        <v>43.11689610617977</v>
-      </c>
-    </row>
-    <row r="57" spans="1:14">
+        <v>48.79988449435286</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13">
       <c r="A57" s="1" t="s">
         <v>69</v>
       </c>
       <c r="B57">
-        <v>9.83049176284112E-06</v>
+        <v>9.792604032554664E-06</v>
       </c>
       <c r="C57">
-        <v>9.83049176284112E-06</v>
+        <v>9.864103049039841E-06</v>
       </c>
       <c r="D57">
-        <v>9.721636160975322E-06</v>
+        <v>9.41348207561532E-06</v>
       </c>
       <c r="E57">
-        <v>9.756687177286947E-06</v>
+        <v>9.62422836892074E-06</v>
       </c>
       <c r="F57">
-        <v>0</v>
+        <v>17829664</v>
       </c>
       <c r="G57">
-        <v>9.92778528780687E-06</v>
+        <v>9.864795870701325E-06</v>
       </c>
       <c r="H57">
-        <v>9.889245529848267E-06</v>
+        <v>9.888588328976766E-06</v>
       </c>
       <c r="I57">
-        <v>1.013333943168012E-05</v>
+        <v>9.684617089078528E-06</v>
       </c>
       <c r="L57">
-        <v>43.14057772065475</v>
+        <v>38.24099649227989</v>
       </c>
       <c r="M57">
-        <v>40.92911446723456</v>
-      </c>
-    </row>
-    <row r="58" spans="1:14">
+        <v>44.66773497336603</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13">
       <c r="A58" s="1" t="s">
         <v>70</v>
       </c>
       <c r="B58">
-        <v>9.756722647580318E-06</v>
+        <v>9.621982826502062E-06</v>
       </c>
       <c r="C58">
-        <v>9.768030395207459E-06</v>
+        <v>9.665577636042144E-06</v>
       </c>
       <c r="D58">
-        <v>9.392089850734919E-06</v>
+        <v>9.464567483519204E-06</v>
       </c>
       <c r="E58">
-        <v>9.482619134359991E-06</v>
+        <v>9.660144314693753E-06</v>
       </c>
       <c r="F58">
-        <v>12966560</v>
+        <v>3052704</v>
       </c>
       <c r="G58">
-        <v>9.887315637493517E-06</v>
+        <v>9.846191183791544E-06</v>
       </c>
       <c r="H58">
-        <v>9.835437185756746E-06</v>
+        <v>9.886318230201141E-06</v>
       </c>
       <c r="I58">
-        <v>1.010430260066641E-05</v>
+        <v>9.715486946030676E-06</v>
       </c>
       <c r="L58">
-        <v>32.70360541923793</v>
+        <v>40.11206940935774</v>
       </c>
       <c r="M58">
-        <v>34.00348949393701</v>
-      </c>
-    </row>
-    <row r="59" spans="1:14">
+        <v>45.72524061173946</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13">
       <c r="A59" s="1" t="s">
         <v>71</v>
       </c>
       <c r="B59">
-        <v>9.483529538556468E-06</v>
+        <v>9.66033803706523E-06</v>
       </c>
       <c r="C59">
-        <v>9.591411981091367E-06</v>
+        <v>9.850855349213816E-06</v>
       </c>
       <c r="D59">
-        <v>9.458675776841121E-06</v>
+        <v>9.66033803706523E-06</v>
       </c>
       <c r="E59">
-        <v>9.583322935213801E-06</v>
+        <v>9.814021723286714E-06</v>
       </c>
       <c r="F59">
-        <v>0</v>
+        <v>348672</v>
       </c>
       <c r="G59">
-        <v>9.85967993728627E-06</v>
+        <v>9.843266687382014E-06</v>
       </c>
       <c r="H59">
-        <v>9.784898657017038E-06</v>
+        <v>9.895175981000649E-06</v>
       </c>
       <c r="I59">
-        <v>1.007563326614521E-05</v>
+        <v>9.741939841963661E-06</v>
       </c>
       <c r="L59">
-        <v>38.82182523443026</v>
+        <v>47.74296139916444</v>
       </c>
       <c r="M59">
-        <v>38.14513239789202</v>
-      </c>
-    </row>
-    <row r="60" spans="1:14">
+        <v>50.12342196267102</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13">
       <c r="A60" s="1" t="s">
         <v>72</v>
       </c>
       <c r="B60">
-        <v>9.584437975718174E-06</v>
+        <v>9.813782526180148E-06</v>
       </c>
       <c r="C60">
-        <v>9.745730494614691E-06</v>
+        <v>9.857097211352084E-06</v>
       </c>
       <c r="D60">
-        <v>9.545421562506816E-06</v>
+        <v>9.761247383721638E-06</v>
       </c>
       <c r="E60">
-        <v>9.7393749456387E-06</v>
+        <v>9.796888662094716E-06</v>
       </c>
       <c r="F60">
-        <v>0</v>
+        <v>1599504</v>
       </c>
       <c r="G60">
-        <v>9.848743119863765E-06</v>
+        <v>9.839050503264987E-06</v>
       </c>
       <c r="H60">
-        <v>9.743159671415924E-06</v>
+        <v>9.901836210701732E-06</v>
       </c>
       <c r="I60">
-        <v>1.005046866945728E-05</v>
+        <v>9.764942903226863E-06</v>
       </c>
       <c r="L60">
-        <v>47.19157579865236</v>
+        <v>46.99292710397577</v>
       </c>
       <c r="M60">
-        <v>44.00892587068775</v>
-      </c>
-    </row>
-    <row r="61" spans="1:14">
+        <v>49.64107319488139</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13">
       <c r="A61" s="1" t="s">
         <v>73</v>
       </c>
       <c r="B61">
-        <v>9.737105756357778E-06</v>
+        <v>9.802080967347138E-06</v>
       </c>
       <c r="C61">
-        <v>9.742369002196938E-06</v>
+        <v>9.867937478702515E-06</v>
       </c>
       <c r="D61">
-        <v>9.605214472685477E-06</v>
+        <v>9.768991731107237E-06</v>
       </c>
       <c r="E61">
-        <v>9.622527613828424E-06</v>
+        <v>9.84631151368376E-06</v>
       </c>
       <c r="F61">
         <v>0</v>
       </c>
       <c r="G61">
-        <v>9.828178073860551E-06</v>
+        <v>9.839710595121238E-06</v>
       </c>
       <c r="H61">
-        <v>9.706541595733142E-06</v>
+        <v>9.92125719676551E-06</v>
       </c>
       <c r="I61">
-        <v>1.001655361202817E-05</v>
+        <v>9.78715370365535E-06</v>
       </c>
       <c r="L61">
-        <v>42.3150269843135</v>
+        <v>49.56424431257179</v>
       </c>
       <c r="M61">
-        <v>40.88364864986513</v>
-      </c>
-    </row>
-    <row r="62" spans="1:14">
+        <v>51.10285149620885</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13">
       <c r="A62" s="1" t="s">
         <v>74</v>
       </c>
       <c r="B62">
-        <v>9.623627192922868E-06</v>
+        <v>9.84631151368376E-06</v>
       </c>
       <c r="C62">
-        <v>9.63410366239259E-06</v>
+        <v>9.992510968004352E-06</v>
       </c>
       <c r="D62">
-        <v>9.554475582262968E-06</v>
+        <v>9.815525118028743E-06</v>
       </c>
       <c r="E62">
-        <v>9.605756531527732E-06</v>
+        <v>9.988791134674102E-06</v>
       </c>
       <c r="F62">
-        <v>0</v>
+        <v>3428336</v>
       </c>
       <c r="G62">
-        <v>9.807957933648477E-06</v>
+        <v>9.853263371444225E-06</v>
       </c>
       <c r="H62">
-        <v>9.703073556011076E-06</v>
+        <v>9.945342162609449E-06</v>
       </c>
       <c r="I62">
-        <v>9.980589463035964E-06</v>
+        <v>9.80117429207894E-06</v>
       </c>
       <c r="L62">
-        <v>41.62056121911972</v>
+        <v>56.42042559745687</v>
       </c>
       <c r="M62">
-        <v>40.43975061730514</v>
-      </c>
-    </row>
-    <row r="63" spans="1:14">
+        <v>55.14511334838517</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13">
       <c r="A63" s="1" t="s">
         <v>75</v>
       </c>
       <c r="B63">
-        <v>9.604985280020628E-06</v>
+        <v>9.987962585000789E-06</v>
       </c>
       <c r="C63">
-        <v>9.646787475503515E-06</v>
+        <v>9.98852829070529E-06</v>
       </c>
       <c r="D63">
-        <v>9.554715688864237E-06</v>
+        <v>9.89078853308456E-06</v>
       </c>
       <c r="E63">
-        <v>9.581090125720948E-06</v>
+        <v>9.89078853308456E-06</v>
       </c>
       <c r="F63">
-        <v>1985696</v>
+        <v>0</v>
       </c>
       <c r="G63">
-        <v>9.787333587473247E-06</v>
+        <v>9.856674749775165E-06</v>
       </c>
       <c r="H63">
-        <v>9.706827495392644E-06</v>
+        <v>9.968789117920097E-06</v>
       </c>
       <c r="I63">
-        <v>9.939775403230063E-06</v>
+        <v>9.811586854387619E-06</v>
       </c>
       <c r="L63">
-        <v>40.52022509062175</v>
+        <v>51.05035603815239</v>
       </c>
       <c r="M63">
-        <v>39.75604954455463</v>
-      </c>
-    </row>
-    <row r="64" spans="1:14">
+        <v>51.96307582506095</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13">
       <c r="A64" s="1" t="s">
         <v>76</v>
       </c>
       <c r="B64">
-        <v>9.581063750374597E-06</v>
+        <v>9.888897693599574E-06</v>
       </c>
       <c r="C64">
-        <v>9.672566193330567E-06</v>
+        <v>9.897383279167116E-06</v>
       </c>
       <c r="D64">
-        <v>9.579701327311341E-06</v>
+        <v>9.812438293010928E-06</v>
       </c>
       <c r="E64">
-        <v>9.634412890591191E-06</v>
+        <v>9.861879334494006E-06</v>
       </c>
       <c r="F64">
-        <v>262576</v>
+        <v>0</v>
       </c>
       <c r="G64">
-        <v>9.773431705938514E-06</v>
+        <v>9.857147893840514E-06</v>
       </c>
       <c r="H64">
-        <v>9.710595077194738E-06</v>
+        <v>9.985626684283489E-06</v>
       </c>
       <c r="I64">
-        <v>9.900971751145941E-06</v>
+        <v>9.826711266214262E-06</v>
       </c>
       <c r="L64">
-        <v>44.11344727997667</v>
+        <v>49.48725208053369</v>
       </c>
       <c r="M64">
-        <v>42.03742585943818</v>
-      </c>
-    </row>
-    <row r="65" spans="1:14">
+        <v>51.02769736391975</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13">
       <c r="A65" s="1" t="s">
         <v>77</v>
       </c>
       <c r="B65">
-        <v>9.635253263695631E-06</v>
+        <v>9.863537343335338E-06</v>
       </c>
       <c r="C65">
-        <v>9.644712918088771E-06</v>
+        <v>9.896286428556778E-06</v>
       </c>
       <c r="D65">
-        <v>9.477334970142692E-06</v>
+        <v>9.78896514425287E-06</v>
       </c>
       <c r="E65">
-        <v>9.49297464103438E-06</v>
+        <v>9.896286428556778E-06</v>
       </c>
       <c r="F65">
-        <v>5024616</v>
+        <v>4066600</v>
       </c>
       <c r="G65">
-        <v>9.747935609129047E-06</v>
+        <v>9.860705942451084E-06</v>
       </c>
       <c r="H65">
-        <v>9.705921638669678E-06</v>
+        <v>9.981831226468785E-06</v>
       </c>
       <c r="I65">
-        <v>9.857507696627485E-06</v>
+        <v>9.839613267104141E-06</v>
       </c>
       <c r="L65">
-        <v>37.37575113882149</v>
+        <v>51.47657373936702</v>
       </c>
       <c r="M65">
-        <v>37.93396222348159</v>
-      </c>
-    </row>
-    <row r="66" spans="1:14">
+        <v>52.13211511576051</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13">
       <c r="A66" s="1" t="s">
         <v>78</v>
       </c>
       <c r="B66">
-        <v>9.492560820945071E-06</v>
+        <v>9.897357813315466E-06</v>
       </c>
       <c r="C66">
-        <v>9.553227755532134E-06</v>
+        <v>1.002467251964845E-05</v>
       </c>
       <c r="D66">
-        <v>9.383275937580038E-06</v>
+        <v>9.878934179141652E-06</v>
       </c>
       <c r="E66">
-        <v>9.397562280355489E-06</v>
+        <v>9.88330975815188E-06</v>
       </c>
       <c r="F66">
-        <v>2158560</v>
+        <v>2478976</v>
       </c>
       <c r="G66">
-        <v>9.71608348833145E-06</v>
+        <v>9.862760834787519E-06</v>
       </c>
       <c r="H66">
-        <v>9.695899780126638E-06</v>
+        <v>9.970683004212333E-06</v>
       </c>
       <c r="I66">
-        <v>9.815797693590866E-06</v>
+        <v>9.856104376619139E-06</v>
       </c>
       <c r="L66">
-        <v>33.49343894766822</v>
+        <v>50.63054633358892</v>
       </c>
       <c r="M66">
-        <v>35.42201673584525</v>
-      </c>
-    </row>
-    <row r="67" spans="1:14">
+        <v>51.6589330792215</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13">
       <c r="A67" s="1" t="s">
         <v>79</v>
       </c>
       <c r="B67">
-        <v>9.39694382395828E-06</v>
+        <v>9.882472113531549E-06</v>
       </c>
       <c r="C67">
-        <v>9.423201845493168E-06</v>
+        <v>9.927352948579936E-06</v>
       </c>
       <c r="D67">
-        <v>9.30052647163393E-06</v>
+        <v>9.827491339819971E-06</v>
       </c>
       <c r="E67">
-        <v>9.369309736939613E-06</v>
+        <v>9.905296792567242E-06</v>
       </c>
       <c r="F67">
-        <v>5302008</v>
+        <v>869288</v>
       </c>
       <c r="G67">
-        <v>9.684558601841282E-06</v>
+        <v>9.86662774004022E-06</v>
       </c>
       <c r="H67">
-        <v>9.683002508609206E-06</v>
+        <v>9.961597697838442E-06</v>
       </c>
       <c r="I67">
-        <v>9.776462047739187E-06</v>
+        <v>9.877182825827428E-06</v>
       </c>
       <c r="L67">
-        <v>32.37324756639043</v>
+        <v>52.13020449582955</v>
       </c>
       <c r="M67">
-        <v>34.68949985986387</v>
-      </c>
-    </row>
-    <row r="68" spans="1:14">
+        <v>52.44651068448923</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13">
       <c r="A68" s="1" t="s">
         <v>80</v>
       </c>
       <c r="B68">
-        <v>9.37100139708491E-06</v>
+        <v>9.904844773700461E-06</v>
       </c>
       <c r="C68">
-        <v>9.378377399116287E-06</v>
+        <v>9.923493962560316E-06</v>
       </c>
       <c r="D68">
-        <v>8.990326932689641E-06</v>
+        <v>9.696343113319015E-06</v>
       </c>
       <c r="E68">
-        <v>9.015415344038049E-06</v>
+        <v>9.696343113319015E-06</v>
       </c>
       <c r="F68">
-        <v>20232264</v>
+        <v>0</v>
       </c>
       <c r="G68">
-        <v>9.623727396586443E-06</v>
+        <v>9.851147319429201E-06</v>
       </c>
       <c r="H68">
-        <v>9.63502170634456E-06</v>
+        <v>9.928114377544261E-06</v>
       </c>
       <c r="I68">
-        <v>9.725016358667441E-06</v>
+        <v>9.87687605326452E-06</v>
       </c>
       <c r="L68">
-        <v>22.00309878098465</v>
+        <v>39.35051584999695</v>
       </c>
       <c r="M68">
-        <v>27.12316536816187</v>
-      </c>
-      <c r="N68" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="69" spans="1:14">
+        <v>44.9512469263578</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13">
       <c r="A69" s="1" t="s">
         <v>81</v>
       </c>
       <c r="B69">
-        <v>9.017924639920238E-06</v>
+        <v>9.69590837485157E-06</v>
       </c>
       <c r="C69">
-        <v>9.047649655258285E-06</v>
+        <v>9.772354133019689E-06</v>
       </c>
       <c r="D69">
-        <v>8.573813829571009E-06</v>
+        <v>9.55842187977396E-06</v>
       </c>
       <c r="E69">
-        <v>8.734048606129363E-06</v>
+        <v>9.564360880176537E-06</v>
       </c>
       <c r="F69">
-        <v>39333048</v>
+        <v>7883344</v>
       </c>
       <c r="G69">
-        <v>9.542847506544891E-06</v>
+        <v>9.825075824951686E-06</v>
       </c>
       <c r="H69">
-        <v>9.573334500601049E-06</v>
+        <v>9.900477789415162E-06</v>
       </c>
       <c r="I69">
-        <v>9.663014861871488E-06</v>
+        <v>9.874459192360518E-06</v>
       </c>
       <c r="L69">
-        <v>17.10284409995571</v>
+        <v>33.5126101991529</v>
       </c>
       <c r="M69">
-        <v>22.85490688951155</v>
-      </c>
-      <c r="N69" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="70" spans="1:14">
+        <v>40.96860191722879</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13">
       <c r="A70" s="1" t="s">
         <v>82</v>
       </c>
       <c r="B70">
-        <v>8.734802577237133E-06</v>
+        <v>9.565841537551025E-06</v>
       </c>
       <c r="C70">
-        <v>9.107445293921046E-06</v>
+        <v>9.73800979409134E-06</v>
       </c>
       <c r="D70">
-        <v>8.711175723874476E-06</v>
+        <v>9.565841537551025E-06</v>
       </c>
       <c r="E70">
-        <v>9.020434845297132E-06</v>
+        <v>9.719338777358644E-06</v>
       </c>
       <c r="F70">
-        <v>16383248</v>
+        <v>2938960</v>
       </c>
       <c r="G70">
-        <v>9.495355446431458E-06</v>
+        <v>9.815463366079591E-06</v>
       </c>
       <c r="H70">
-        <v>9.523815015199943E-06</v>
+        <v>9.874122588371392E-06</v>
       </c>
       <c r="I70">
-        <v>9.611224201459361E-06</v>
+        <v>9.876314349336705E-06</v>
       </c>
       <c r="L70">
-        <v>33.94730941044762</v>
+        <v>44.40764302960857</v>
       </c>
       <c r="M70">
-        <v>34.20428410399586</v>
-      </c>
-    </row>
-    <row r="71" spans="1:14">
+        <v>46.91606725139125</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13">
       <c r="A71" s="1" t="s">
         <v>83</v>
       </c>
       <c r="B71">
-        <v>9.021741789183579E-06</v>
+        <v>9.719326953927521E-06</v>
       </c>
       <c r="C71">
-        <v>9.106796824198682E-06</v>
+        <v>9.752102414495312E-06</v>
       </c>
       <c r="D71">
-        <v>8.967948815552518E-06</v>
+        <v>9.6666835815995E-06</v>
       </c>
       <c r="E71">
-        <v>9.106796824198682E-06</v>
+        <v>9.680598850536626E-06</v>
       </c>
       <c r="F71">
-        <v>4740448</v>
+        <v>302608</v>
       </c>
       <c r="G71">
-        <v>9.460031935319387E-06</v>
+        <v>9.803202955575686E-06</v>
       </c>
       <c r="H71">
-        <v>9.487038914812728E-06</v>
+        <v>9.850174728853745E-06</v>
       </c>
       <c r="I71">
-        <v>9.56962112468318E-06</v>
+        <v>9.883737917940987E-06</v>
       </c>
       <c r="L71">
-        <v>38.20701639144318</v>
+        <v>42.45139989545824</v>
       </c>
       <c r="M71">
-        <v>37.20446611405704</v>
-      </c>
-    </row>
-    <row r="72" spans="1:14">
+        <v>45.67720759046157</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13">
       <c r="A72" s="1" t="s">
         <v>84</v>
       </c>
       <c r="B72">
-        <v>9.108340236707591E-06</v>
+        <v>9.680532457423396E-06</v>
       </c>
       <c r="C72">
-        <v>9.25510630622739E-06</v>
+        <v>9.73874830378918E-06</v>
       </c>
       <c r="D72">
-        <v>9.108340236707591E-06</v>
+        <v>9.637667972128838E-06</v>
       </c>
       <c r="E72">
-        <v>9.179987500829156E-06</v>
+        <v>9.694648724689614E-06</v>
       </c>
       <c r="F72">
-        <v>18096208</v>
+        <v>694664</v>
       </c>
       <c r="G72">
-        <v>9.43457335036573E-06</v>
+        <v>9.793334389131498E-06</v>
       </c>
       <c r="H72">
-        <v>9.454727023694432E-06</v>
+        <v>9.82640804068069E-06</v>
       </c>
       <c r="I72">
-        <v>9.553116797178518E-06</v>
+        <v>9.889989814837464E-06</v>
       </c>
       <c r="L72">
-        <v>41.78633108834347</v>
+        <v>43.46748382752595</v>
       </c>
       <c r="M72">
-        <v>39.71339678624299</v>
-      </c>
-    </row>
-    <row r="73" spans="1:14">
+        <v>46.23173732361261</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13">
       <c r="A73" s="1" t="s">
         <v>85</v>
       </c>
       <c r="B73">
-        <v>9.180325832858216E-06</v>
+        <v>9.693301763036288E-06</v>
       </c>
       <c r="C73">
-        <v>9.569058420311194E-06</v>
+        <v>9.713266081234906E-06</v>
       </c>
       <c r="D73">
-        <v>9.14558313525049E-06</v>
+        <v>9.502488865109626E-06</v>
       </c>
       <c r="E73">
-        <v>9.568173481966367E-06</v>
+        <v>9.519026207271963E-06</v>
       </c>
       <c r="F73">
-        <v>21243280</v>
+        <v>7456832</v>
       </c>
       <c r="G73">
-        <v>9.446718816874878E-06</v>
+        <v>9.768397281689722E-06</v>
       </c>
       <c r="H73">
-        <v>9.447904858461698E-06</v>
+        <v>9.796966332942248E-06</v>
       </c>
       <c r="I73">
-        <v>9.555188868641078E-06</v>
+        <v>9.893229040850808E-06</v>
       </c>
       <c r="L73">
-        <v>56.73836452959321</v>
+        <v>34.8216887821166</v>
       </c>
       <c r="M73">
-        <v>50.91494293649183</v>
-      </c>
-    </row>
-    <row r="74" spans="1:14">
+        <v>40.64631092436693</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13">
       <c r="A74" s="1" t="s">
         <v>86</v>
       </c>
       <c r="B74">
-        <v>9.570804650138598E-06</v>
+        <v>9.519661034573799E-06</v>
       </c>
       <c r="C74">
-        <v>9.584609870216809E-06</v>
+        <v>9.73568603512831E-06</v>
       </c>
       <c r="D74">
-        <v>9.469128599448595E-06</v>
+        <v>9.514328667137306E-06</v>
       </c>
       <c r="E74">
-        <v>9.578411663824228E-06</v>
+        <v>9.674100510892458E-06</v>
       </c>
       <c r="F74">
-        <v>2809280</v>
+        <v>2877080</v>
       </c>
       <c r="G74">
-        <v>9.458690893870273E-06</v>
+        <v>9.759824847980879E-06</v>
       </c>
       <c r="H74">
-        <v>9.447791990169208E-06</v>
+        <v>9.771266195457429E-06</v>
       </c>
       <c r="I74">
-        <v>9.555833882283575E-06</v>
+        <v>9.898194790973018E-06</v>
       </c>
       <c r="L74">
-        <v>57.06556697066316</v>
+        <v>45.57518238488093</v>
       </c>
       <c r="M74">
-        <v>51.17262737307846</v>
-      </c>
-    </row>
-    <row r="75" spans="1:14">
+        <v>46.76246456308777</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13">
       <c r="A75" s="1" t="s">
         <v>87</v>
       </c>
       <c r="B75">
-        <v>9.578516255714931E-06</v>
+        <v>9.674277862359304E-06</v>
       </c>
       <c r="C75">
-        <v>9.584082363289779E-06</v>
+        <v>9.699229849502444E-06</v>
       </c>
       <c r="D75">
-        <v>9.36434753384674E-06</v>
+        <v>9.528678674541879E-06</v>
       </c>
       <c r="E75">
-        <v>9.40814697969472E-06</v>
+        <v>9.560739272274075E-06</v>
       </c>
       <c r="F75">
-        <v>1284192</v>
+        <v>0</v>
       </c>
       <c r="G75">
-        <v>9.454095992581586E-06</v>
+        <v>9.741726159280261E-06</v>
       </c>
       <c r="H75">
-        <v>9.435363517695805E-06</v>
+        <v>9.75347111307201E-06</v>
       </c>
       <c r="I75">
-        <v>9.54989066788888E-06</v>
+        <v>9.884479580553791E-06</v>
       </c>
       <c r="L75">
-        <v>49.9915733098026</v>
+        <v>40.13021558938104</v>
       </c>
       <c r="M75">
-        <v>46.77480859923302</v>
-      </c>
-    </row>
-    <row r="76" spans="1:14">
+        <v>43.25363176383087</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13">
       <c r="A76" s="1" t="s">
         <v>88</v>
       </c>
       <c r="B76">
-        <v>9.408538062416484E-06</v>
+        <v>9.556700206303503E-06</v>
       </c>
       <c r="C76">
-        <v>9.551760740578176E-06</v>
+        <v>9.639826203056144E-06</v>
       </c>
       <c r="D76">
-        <v>9.408538062416484E-06</v>
+        <v>9.551361472404096E-06</v>
       </c>
       <c r="E76">
-        <v>9.50922640186036E-06</v>
+        <v>9.639826203056144E-06</v>
       </c>
       <c r="F76">
-        <v>6048</v>
+        <v>189688</v>
       </c>
       <c r="G76">
-        <v>9.459107847970565E-06</v>
+        <v>9.73246252689625E-06</v>
       </c>
       <c r="H76">
-        <v>9.419313983016764E-06</v>
+        <v>9.745846455189167E-06</v>
       </c>
       <c r="I76">
-        <v>9.546931566243682E-06</v>
+        <v>9.868931313879632E-06</v>
       </c>
       <c r="L76">
-        <v>53.81523909877668</v>
+        <v>45.26286439263125</v>
       </c>
       <c r="M76">
-        <v>49.54691682246773</v>
-      </c>
-    </row>
-    <row r="77" spans="1:14">
+        <v>46.2820082974501</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13">
       <c r="A77" s="1" t="s">
         <v>89</v>
       </c>
       <c r="B77">
-        <v>9.508647963230032E-06</v>
+        <v>9.639831660024356E-06</v>
       </c>
       <c r="C77">
-        <v>9.528836926619988E-06</v>
+        <v>9.656512702349572E-06</v>
       </c>
       <c r="D77">
-        <v>9.315911484009121E-06</v>
+        <v>9.5788091130089E-06</v>
       </c>
       <c r="E77">
-        <v>9.38857647270197E-06</v>
+        <v>9.601191777619532E-06</v>
       </c>
       <c r="F77">
-        <v>2583312</v>
+        <v>39544</v>
       </c>
       <c r="G77">
-        <v>9.452695904764329E-06</v>
+        <v>9.720528822416548E-06</v>
       </c>
       <c r="H77">
-        <v>9.400908447787515E-06</v>
+        <v>9.744694625624107E-06</v>
       </c>
       <c r="I77">
-        <v>9.538975609757471E-06</v>
+        <v>9.852737609132115E-06</v>
       </c>
       <c r="L77">
-        <v>48.80437805299838</v>
+        <v>43.22627299343088</v>
       </c>
       <c r="M77">
-        <v>46.43795734369125</v>
-      </c>
-    </row>
-    <row r="78" spans="1:14">
+        <v>45.01810618111413</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13">
       <c r="A78" s="1" t="s">
         <v>90</v>
       </c>
       <c r="B78">
-        <v>9.39148412726354E-06</v>
+        <v>9.601059900887776E-06</v>
       </c>
       <c r="C78">
-        <v>9.42394763114862E-06</v>
+        <v>9.72053658188088E-06</v>
       </c>
       <c r="D78">
-        <v>9.169388249574696E-06</v>
+        <v>9.590059562469833E-06</v>
       </c>
       <c r="E78">
-        <v>9.27294331631856E-06</v>
+        <v>9.634224625187926E-06</v>
       </c>
       <c r="F78">
-        <v>9575792</v>
+        <v>1639056</v>
       </c>
       <c r="G78">
-        <v>9.436354760360168E-06</v>
+        <v>9.712682986304854E-06</v>
       </c>
       <c r="H78">
-        <v>9.390424656885443E-06</v>
+        <v>9.743398641148815E-06</v>
       </c>
       <c r="I78">
-        <v>9.515572673990392E-06</v>
+        <v>9.828344779331626E-06</v>
       </c>
       <c r="L78">
-        <v>44.35166372553491</v>
+        <v>45.58149866456347</v>
       </c>
       <c r="M78">
-        <v>43.6133513288582</v>
-      </c>
-    </row>
-    <row r="79" spans="1:14">
+        <v>46.36673283148639</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13">
       <c r="A79" s="1" t="s">
         <v>91</v>
       </c>
       <c r="B79">
-        <v>9.271564522350673E-06</v>
+        <v>9.634778507461306E-06</v>
       </c>
       <c r="C79">
-        <v>9.970573046302889E-06</v>
+        <v>9.698346730147024E-06</v>
       </c>
       <c r="D79">
-        <v>9.25505537452409E-06</v>
+        <v>9.458343811274972E-06</v>
       </c>
       <c r="E79">
-        <v>9.705546290206256E-06</v>
+        <v>9.656042493588757E-06</v>
       </c>
       <c r="F79">
-        <v>65672480</v>
+        <v>3910616</v>
       </c>
       <c r="G79">
-        <v>9.460826717618902E-06</v>
+        <v>9.707533850603389E-06</v>
       </c>
       <c r="H79">
-        <v>9.396535824635066E-06</v>
+        <v>9.735499679663917E-06</v>
       </c>
       <c r="I79">
-        <v>9.506831126297281E-06</v>
+        <v>9.812976441025966E-06</v>
       </c>
       <c r="L79">
-        <v>59.79152245132728</v>
+        <v>47.20879091802009</v>
       </c>
       <c r="M79">
-        <v>54.71178679711871</v>
-      </c>
-    </row>
-    <row r="80" spans="1:14">
+        <v>47.28643127155686</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13">
       <c r="A80" s="1" t="s">
         <v>92</v>
       </c>
       <c r="B80">
-        <v>9.709588084660936E-06</v>
+        <v>9.655671419750432E-06</v>
       </c>
       <c r="C80">
-        <v>9.776232218428049E-06</v>
+        <v>9.672782653069589E-06</v>
       </c>
       <c r="D80">
-        <v>9.518138540443031E-06</v>
+        <v>9.565079380990936E-06</v>
       </c>
       <c r="E80">
-        <v>9.636866707296576E-06</v>
+        <v>9.606374987924935E-06</v>
       </c>
       <c r="F80">
-        <v>53873248</v>
+        <v>1855352</v>
       </c>
       <c r="G80">
-        <v>9.476830353044145E-06</v>
+        <v>9.698337590359893E-06</v>
       </c>
       <c r="H80">
-        <v>9.391410412717959E-06</v>
+        <v>9.725973995955426E-06</v>
       </c>
       <c r="I80">
-        <v>9.494365864763191E-06</v>
+        <v>9.791640847348996E-06</v>
       </c>
       <c r="L80">
-        <v>56.96848599812927</v>
+        <v>43.85058785004811</v>
       </c>
       <c r="M80">
-        <v>52.93057754399822</v>
-      </c>
-    </row>
-    <row r="81" spans="1:15">
+        <v>45.37873893754531</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14">
       <c r="A81" s="1" t="s">
         <v>93</v>
       </c>
       <c r="B81">
-        <v>9.643327757657971E-06</v>
+        <v>9.606795174477156E-06</v>
       </c>
       <c r="C81">
-        <v>9.833439435169566E-06</v>
+        <v>9.720614798425233E-06</v>
       </c>
       <c r="D81">
-        <v>9.631873581383845E-06</v>
+        <v>9.606795174477156E-06</v>
       </c>
       <c r="E81">
-        <v>9.663684068073051E-06</v>
+        <v>9.662228876550216E-06</v>
       </c>
       <c r="F81">
-        <v>514976</v>
+        <v>1584104</v>
       </c>
       <c r="G81">
-        <v>9.493817054410409E-06</v>
+        <v>9.695054980013558E-06</v>
       </c>
       <c r="H81">
-        <v>9.393468235430192E-06</v>
+        <v>9.71676986409875E-06</v>
       </c>
       <c r="I81">
-        <v>9.488411372634194E-06</v>
+        <v>9.77506327520435E-06</v>
       </c>
       <c r="L81">
-        <v>57.84284360212713</v>
+        <v>48.48653451434484</v>
       </c>
       <c r="M81">
-        <v>53.56626079824201</v>
-      </c>
-    </row>
-    <row r="82" spans="1:15">
+        <v>47.92312193475098</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14">
       <c r="A82" s="1" t="s">
         <v>94</v>
       </c>
       <c r="B82">
-        <v>9.664045137469657E-06</v>
+        <v>9.662091542850249E-06</v>
       </c>
       <c r="C82">
-        <v>9.681923074822407E-06</v>
+        <v>9.71478220890276E-06</v>
       </c>
       <c r="D82">
-        <v>9.444172064831946E-06</v>
+        <v>9.64894934440963E-06</v>
       </c>
       <c r="E82">
-        <v>9.457891792408191E-06</v>
+        <v>9.673597560322378E-06</v>
       </c>
       <c r="F82">
-        <v>3563360</v>
+        <v>736808</v>
       </c>
       <c r="G82">
-        <v>9.490551121501116E-06</v>
+        <v>9.693104305496178E-06</v>
       </c>
       <c r="H82">
-        <v>9.386074998474214E-06</v>
+        <v>9.701010185381163E-06</v>
       </c>
       <c r="I82">
-        <v>9.47613358827463E-06</v>
+        <v>9.758517110943406E-06</v>
       </c>
       <c r="L82">
-        <v>49.21054935488932</v>
+        <v>49.44238310877884</v>
       </c>
       <c r="M82">
-        <v>48.18803716831096</v>
-      </c>
-    </row>
-    <row r="83" spans="1:15">
+        <v>48.44949677948824</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14">
       <c r="A83" s="1" t="s">
         <v>95</v>
       </c>
       <c r="B83">
-        <v>9.455498911847826E-06</v>
+        <v>9.673682143329644E-06</v>
       </c>
       <c r="C83">
-        <v>9.562460036249831E-06</v>
+        <v>9.673682143329644E-06</v>
       </c>
       <c r="D83">
-        <v>9.365927326143719E-06</v>
+        <v>9.530880561214872E-06</v>
       </c>
       <c r="E83">
-        <v>9.507091817795301E-06</v>
+        <v>9.53198286879342E-06</v>
       </c>
       <c r="F83">
-        <v>9184</v>
+        <v>1402176</v>
       </c>
       <c r="G83">
-        <v>9.492054821164223E-06</v>
+        <v>9.678456902159564E-06</v>
       </c>
       <c r="H83">
-        <v>9.382375083077932E-06</v>
+        <v>9.683069902166607E-06</v>
       </c>
       <c r="I83">
-        <v>9.469549422647105E-06</v>
+        <v>9.739321194501827E-06</v>
       </c>
       <c r="L83">
-        <v>51.17051094351508</v>
+        <v>39.2391356908433</v>
       </c>
       <c r="M83">
-        <v>49.49365011699338</v>
-      </c>
-    </row>
-    <row r="84" spans="1:15">
+        <v>42.66454068202606</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14">
       <c r="A84" s="1" t="s">
         <v>96</v>
       </c>
       <c r="B84">
-        <v>9.509166375210045E-06</v>
+        <v>9.532231160847005E-06</v>
       </c>
       <c r="C84">
-        <v>9.509166375210045E-06</v>
+        <v>9.570085239829496E-06</v>
       </c>
       <c r="D84">
-        <v>9.18440036912216E-06</v>
+        <v>9.521927495370621E-06</v>
       </c>
       <c r="E84">
-        <v>9.421849426871631E-06</v>
+        <v>9.550181857775897E-06</v>
       </c>
       <c r="F84">
-        <v>1873312</v>
+        <v>1373576</v>
       </c>
       <c r="G84">
-        <v>9.485672512592169E-06</v>
+        <v>9.666795534488322E-06</v>
       </c>
       <c r="H84">
-        <v>9.371746909891953E-06</v>
+        <v>9.667485028330702E-06</v>
       </c>
       <c r="I84">
-        <v>9.464255435887026E-06</v>
+        <v>9.718057147741396E-06</v>
       </c>
       <c r="L84">
-        <v>47.59086202645193</v>
+        <v>40.99943558388011</v>
       </c>
       <c r="M84">
-        <v>47.27108275556509</v>
-      </c>
-    </row>
-    <row r="85" spans="1:15">
+        <v>43.59659189930456</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14">
       <c r="A85" s="1" t="s">
         <v>97</v>
       </c>
       <c r="B85">
-        <v>9.448250239074696E-06</v>
+        <v>9.550242793920916E-06</v>
       </c>
       <c r="C85">
-        <v>9.538235644868109E-06</v>
+        <v>9.57516112976009E-06</v>
       </c>
       <c r="D85">
-        <v>9.381324161950031E-06</v>
+        <v>9.466233677812852E-06</v>
       </c>
       <c r="E85">
-        <v>9.525128007226158E-06</v>
+        <v>9.466233677812852E-06</v>
       </c>
       <c r="F85">
-        <v>292576</v>
+        <v>3195064</v>
       </c>
       <c r="G85">
-        <v>9.489259375740712E-06</v>
+        <v>9.648562638426915E-06</v>
       </c>
       <c r="H85">
-        <v>9.373354578201542E-06</v>
+        <v>9.645982390793505E-06</v>
       </c>
       <c r="I85">
-        <v>9.459869155155805E-06</v>
+        <v>9.703043573002408E-06</v>
       </c>
       <c r="L85">
-        <v>52.1531355838347</v>
+        <v>35.64109512127812</v>
       </c>
       <c r="M85">
-        <v>50.18961608984311</v>
-      </c>
-    </row>
-    <row r="86" spans="1:15">
+        <v>40.33904414306946</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14">
       <c r="A86" s="1" t="s">
         <v>98</v>
       </c>
       <c r="B86">
-        <v>9.524594133836216E-06</v>
+        <v>9.466057235840708E-06</v>
       </c>
       <c r="C86">
-        <v>1.014429381029913E-05</v>
+        <v>9.534528544463685E-06</v>
       </c>
       <c r="D86">
-        <v>9.379431503475644E-06</v>
+        <v>9.405643140780739E-06</v>
       </c>
       <c r="E86">
-        <v>9.972195584850851E-06</v>
+        <v>9.52426216827007E-06</v>
       </c>
       <c r="F86">
-        <v>31062496</v>
+        <v>4182096</v>
       </c>
       <c r="G86">
-        <v>9.533162667477997E-06</v>
+        <v>9.637262595685383E-06</v>
       </c>
       <c r="H86">
-        <v>9.402086243426311E-06</v>
+        <v>9.628030011299415E-06</v>
       </c>
       <c r="I86">
-        <v>9.46460177146946E-06</v>
+        <v>9.694108333254311E-06</v>
       </c>
       <c r="L86">
-        <v>66.39792055855818</v>
+        <v>41.5786362122108</v>
       </c>
       <c r="M86">
-        <v>60.40591730549314</v>
-      </c>
-    </row>
-    <row r="87" spans="1:15">
+        <v>43.48269541896005</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14">
       <c r="A87" s="1" t="s">
         <v>99</v>
       </c>
       <c r="B87">
-        <v>9.975506145565303E-06</v>
+        <v>9.524484084977304E-06</v>
       </c>
       <c r="C87">
-        <v>1.01449959402089E-05</v>
+        <v>9.536817742628044E-06</v>
       </c>
       <c r="D87">
-        <v>9.880539437290279E-06</v>
+        <v>9.442846931051465E-06</v>
       </c>
       <c r="E87">
-        <v>1.010627420328092E-05</v>
+        <v>9.514431440038608E-06</v>
       </c>
       <c r="F87">
-        <v>20356544</v>
+        <v>819576</v>
       </c>
       <c r="G87">
-        <v>9.585263716187351E-06</v>
+        <v>9.62609612699022E-06</v>
       </c>
       <c r="H87">
-        <v>9.438934466743375E-06</v>
+        <v>9.608486743672984E-06</v>
       </c>
       <c r="I87">
-        <v>9.476254672335926E-06</v>
+        <v>9.690448435624905E-06</v>
       </c>
       <c r="L87">
-        <v>69.46509106035064</v>
+        <v>40.86018830178869</v>
       </c>
       <c r="M87">
-        <v>62.86582395629115</v>
-      </c>
-    </row>
-    <row r="88" spans="1:15">
+        <v>43.06866271727129</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14">
       <c r="A88" s="1" t="s">
         <v>100</v>
       </c>
       <c r="B88">
-        <v>1.011352924251696E-05</v>
+        <v>9.515870260656811E-06</v>
       </c>
       <c r="C88">
-        <v>1.015359521261416E-05</v>
+        <v>9.527291695121676E-06</v>
       </c>
       <c r="D88">
-        <v>9.927208338922355E-06</v>
+        <v>9.437559128855357E-06</v>
       </c>
       <c r="E88">
-        <v>1.008700292004505E-05</v>
+        <v>9.466153642279096E-06</v>
       </c>
       <c r="F88">
-        <v>15119824</v>
+        <v>1041392</v>
       </c>
       <c r="G88">
-        <v>9.630876371083507E-06</v>
+        <v>9.611555901107392E-06</v>
       </c>
       <c r="H88">
-        <v>9.492513845543726E-06</v>
+        <v>9.596977270120987E-06</v>
       </c>
       <c r="I88">
-        <v>9.496400798525428E-06</v>
+        <v>9.683982079877751E-06</v>
       </c>
       <c r="L88">
-        <v>68.45472482566232</v>
+        <v>37.29943727076027</v>
       </c>
       <c r="M88">
-        <v>62.26702334185558</v>
-      </c>
-    </row>
-    <row r="89" spans="1:15">
+        <v>41.00381106751248</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14">
       <c r="A89" s="1" t="s">
         <v>101</v>
       </c>
       <c r="B89">
-        <v>1.008554590953281E-05</v>
+        <v>9.466153642279096E-06</v>
       </c>
       <c r="C89">
-        <v>1.037201036524493E-05</v>
+        <v>9.545805369270964E-06</v>
       </c>
       <c r="D89">
-        <v>1.005767171591288E-05</v>
+        <v>9.459869943384548E-06</v>
       </c>
       <c r="E89">
-        <v>1.036600951920264E-05</v>
+        <v>9.532892363495192E-06</v>
       </c>
       <c r="F89">
-        <v>20762208</v>
+        <v>0</v>
       </c>
       <c r="G89">
-        <v>9.697706657276154E-06</v>
+        <v>9.604404670415373E-06</v>
       </c>
       <c r="H89">
-        <v>9.57411189119739E-06</v>
+        <v>9.595403844286918E-06</v>
       </c>
       <c r="I89">
-        <v>9.522490351325057E-06</v>
+        <v>9.674611101218034E-06</v>
       </c>
       <c r="L89">
-        <v>74.49654277739778</v>
+        <v>44.78282702423942</v>
       </c>
       <c r="M89">
-        <v>67.14615320325642</v>
-      </c>
-      <c r="O89" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="90" spans="1:15">
+        <v>44.93410713240354</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14">
       <c r="A90" s="1" t="s">
         <v>102</v>
       </c>
       <c r="B90">
-        <v>1.036615140037611E-05</v>
+        <v>9.533498996461276E-06</v>
       </c>
       <c r="C90">
-        <v>1.049119146045996E-05</v>
+        <v>9.545932698529214E-06</v>
       </c>
       <c r="D90">
-        <v>1.006835918815341E-05</v>
+        <v>9.417605724593161E-06</v>
       </c>
       <c r="E90">
-        <v>1.011709264275851E-05</v>
+        <v>9.43227860261686E-06</v>
       </c>
       <c r="F90">
-        <v>40888128</v>
+        <v>837952</v>
       </c>
       <c r="G90">
-        <v>9.735832655956368E-06</v>
+        <v>9.588756846070052E-06</v>
       </c>
       <c r="H90">
-        <v>9.628944781070459E-06</v>
+        <v>9.58105083554983E-06</v>
       </c>
       <c r="I90">
-        <v>9.53508094122905E-06</v>
+        <v>9.662457432568772E-06</v>
       </c>
       <c r="L90">
-        <v>62.48493767887544</v>
+        <v>37.24383411954421</v>
       </c>
       <c r="M90">
-        <v>59.72605442863652</v>
-      </c>
-    </row>
-    <row r="91" spans="1:15">
+        <v>40.54840374368408</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14">
       <c r="A91" s="1" t="s">
         <v>103</v>
       </c>
       <c r="B91">
-        <v>1.012802295008441E-05</v>
+        <v>9.433520062884782E-06</v>
       </c>
       <c r="C91">
-        <v>1.024893481371692E-05</v>
+        <v>9.438216693524735E-06</v>
       </c>
       <c r="D91">
-        <v>9.9849939942942E-06</v>
+        <v>9.284697625844274E-06</v>
       </c>
       <c r="E91">
-        <v>1.024644279823406E-05</v>
+        <v>9.408944606548175E-06</v>
       </c>
       <c r="F91">
-        <v>17735936</v>
+        <v>4321304</v>
       </c>
       <c r="G91">
-        <v>9.782251759799794E-06</v>
+        <v>9.572410278840789E-06</v>
       </c>
       <c r="H91">
-        <v>9.685927079772227E-06</v>
+        <v>9.567468123350408E-06</v>
       </c>
       <c r="I91">
-        <v>9.55587811404257E-06</v>
+        <v>9.647878535664252E-06</v>
       </c>
       <c r="L91">
-        <v>65.71651821611813</v>
+        <v>35.6768223642018</v>
       </c>
       <c r="M91">
-        <v>62.0716330236073</v>
-      </c>
-    </row>
-    <row r="92" spans="1:15">
+        <v>39.58347882797736</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14">
       <c r="A92" s="1" t="s">
         <v>104</v>
       </c>
       <c r="B92">
-        <v>1.024414177663857E-05</v>
+        <v>9.404627235198861E-06</v>
       </c>
       <c r="C92">
-        <v>1.028147380566224E-05</v>
+        <v>9.409350241185166E-06</v>
       </c>
       <c r="D92">
-        <v>1.004983278107829E-05</v>
+        <v>9.016001058625989E-06</v>
       </c>
       <c r="E92">
-        <v>1.015955604088958E-05</v>
+        <v>9.016001058625989E-06</v>
       </c>
       <c r="F92">
-        <v>0</v>
+        <v>16629528</v>
       </c>
       <c r="G92">
-        <v>9.816552148989774E-06</v>
+        <v>9.521827622457624E-06</v>
       </c>
       <c r="H92">
-        <v>9.734905506775249E-06</v>
+        <v>9.533535740047226E-06</v>
       </c>
       <c r="I92">
-        <v>9.574338097687966E-06</v>
+        <v>9.615452199795982E-06</v>
       </c>
       <c r="L92">
-        <v>61.7001398697812</v>
+        <v>19.85246921938028</v>
       </c>
       <c r="M92">
-        <v>59.5622429683135</v>
-      </c>
-    </row>
-    <row r="93" spans="1:15">
+        <v>27.65050762888073</v>
+      </c>
+      <c r="N92" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14">
       <c r="A93" s="1" t="s">
         <v>105</v>
       </c>
       <c r="B93">
-        <v>1.015823363559321E-05</v>
+        <v>9.021443474921398E-06</v>
       </c>
       <c r="C93">
-        <v>1.018484908854589E-05</v>
+        <v>9.216655598720536E-06</v>
       </c>
       <c r="D93">
-        <v>1.000638894765871E-05</v>
+        <v>9.021443474921398E-06</v>
       </c>
       <c r="E93">
-        <v>1.016998248815071E-05</v>
+        <v>9.198627594741993E-06</v>
       </c>
       <c r="F93">
-        <v>15168</v>
+        <v>10794784</v>
       </c>
       <c r="G93">
-        <v>9.848682179822586E-06</v>
+        <v>9.492445801756203E-06</v>
       </c>
       <c r="H93">
-        <v>9.764995957084465E-06</v>
+        <v>9.517515809420728E-06</v>
       </c>
       <c r="I93">
-        <v>9.593967843102291E-06</v>
+        <v>9.592380168517896E-06</v>
       </c>
       <c r="L93">
-        <v>62.01355789768828</v>
+        <v>34.94061851460847</v>
       </c>
       <c r="M93">
-        <v>59.77241090058946</v>
-      </c>
-    </row>
-    <row r="94" spans="1:15">
+        <v>37.13590830224744</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14">
       <c r="A94" s="1" t="s">
         <v>106</v>
       </c>
       <c r="B94">
-        <v>1.016366422845749E-05</v>
+        <v>9.19930789677892E-06</v>
       </c>
       <c r="C94">
-        <v>1.02387721199193E-05</v>
+        <v>9.215242243953981E-06</v>
       </c>
       <c r="D94">
-        <v>1.009370134852361E-05</v>
+        <v>9.016902367875446E-06</v>
       </c>
       <c r="E94">
-        <v>1.010786036204081E-05</v>
+        <v>9.116761248151306E-06</v>
       </c>
       <c r="F94">
-        <v>0</v>
+        <v>8528256</v>
       </c>
       <c r="G94">
-        <v>9.872243832751515E-06</v>
+        <v>9.458292660519393E-06</v>
       </c>
       <c r="H94">
-        <v>9.791468391995295E-06</v>
+        <v>9.48964884628367E-06</v>
       </c>
       <c r="I94">
-        <v>9.609749425483944E-06</v>
+        <v>9.567542898973139E-06</v>
       </c>
       <c r="L94">
-        <v>58.7888932776133</v>
+        <v>31.91104877781186</v>
       </c>
       <c r="M94">
-        <v>57.84342936953617</v>
-      </c>
-    </row>
-    <row r="95" spans="1:15">
+        <v>34.92542086122516</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14">
       <c r="A95" s="1" t="s">
         <v>107</v>
       </c>
       <c r="B95">
-        <v>1.010896176012466E-05</v>
+        <v>9.118914931605104E-06</v>
       </c>
       <c r="C95">
-        <v>1.022211654344574E-05</v>
+        <v>9.235672223439906E-06</v>
       </c>
       <c r="D95">
-        <v>1.004549085337203E-05</v>
+        <v>9.118240996031091E-06</v>
       </c>
       <c r="E95">
-        <v>1.018810326058883E-05</v>
+        <v>9.221956133842468E-06</v>
       </c>
       <c r="F95">
-        <v>0</v>
+        <v>1764656</v>
       </c>
       <c r="G95">
-        <v>9.900958326191271E-06</v>
+        <v>9.436807521730581E-06</v>
       </c>
       <c r="H95">
-        <v>9.830466206040001E-06</v>
+        <v>9.47270968936209E-06</v>
       </c>
       <c r="I95">
-        <v>9.632920379469094E-06</v>
+        <v>9.545065222482662E-06</v>
       </c>
       <c r="L95">
-        <v>61.68416307300905</v>
+        <v>39.49481127961996</v>
       </c>
       <c r="M95">
-        <v>59.65462767955776</v>
-      </c>
-    </row>
-    <row r="96" spans="1:15">
+        <v>39.87768283792681</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14">
       <c r="A96" s="1" t="s">
         <v>108</v>
       </c>
       <c r="B96">
-        <v>1.018709554045927E-05</v>
+        <v>9.221918844559696E-06</v>
       </c>
       <c r="C96">
-        <v>1.028257156576728E-05</v>
+        <v>9.300328201788943E-06</v>
       </c>
       <c r="D96">
-        <v>9.916640919982456E-06</v>
+        <v>9.188398507831153E-06</v>
       </c>
       <c r="E96">
-        <v>9.916640919982456E-06</v>
+        <v>9.25282347452594E-06</v>
       </c>
       <c r="F96">
-        <v>0</v>
+        <v>1438304</v>
       </c>
       <c r="G96">
-        <v>9.902384016535924E-06</v>
+        <v>9.420081699257431E-06</v>
       </c>
       <c r="H96">
-        <v>9.850836931946105E-06</v>
+        <v>9.453359552935579E-06</v>
       </c>
       <c r="I96">
-        <v>9.650223000789993E-06</v>
+        <v>9.524049013028464E-06</v>
       </c>
       <c r="L96">
-        <v>48.67058239349653</v>
+        <v>41.6405478216289</v>
       </c>
       <c r="M96">
-        <v>51.58084834911419</v>
+        <v>41.28955980127488</v>
       </c>
     </row>
     <row r="97" spans="1:13">
@@ -4105,34 +4078,34 @@
         <v>109</v>
       </c>
       <c r="B97">
-        <v>9.910546395985875E-06</v>
+        <v>9.252506060875019E-06</v>
       </c>
       <c r="C97">
-        <v>9.984323696698992E-06</v>
+        <v>9.368145583721343E-06</v>
       </c>
       <c r="D97">
-        <v>9.571434929966928E-06</v>
+        <v>9.127956218435427E-06</v>
       </c>
       <c r="E97">
-        <v>9.792319360713009E-06</v>
+        <v>9.128535566560458E-06</v>
       </c>
       <c r="F97">
-        <v>9079440</v>
+        <v>12446928</v>
       </c>
       <c r="G97">
-        <v>9.892378138733841E-06</v>
+        <v>9.393577505375889E-06</v>
       </c>
       <c r="H97">
-        <v>9.871024076346657E-06</v>
+        <v>9.429726742382626E-06</v>
       </c>
       <c r="I97">
-        <v>9.664323321582439E-06</v>
+        <v>9.498156972161572E-06</v>
       </c>
       <c r="L97">
-        <v>43.89895328725209</v>
+        <v>35.87708938941012</v>
       </c>
       <c r="M97">
-        <v>48.3532467704604</v>
+        <v>37.47362301719777</v>
       </c>
     </row>
     <row r="98" spans="1:13">
@@ -4140,34 +4113,34 @@
         <v>110</v>
       </c>
       <c r="B98">
-        <v>9.792604032554664E-06</v>
+        <v>9.125365068030078E-06</v>
       </c>
       <c r="C98">
-        <v>9.864103049039841E-06</v>
+        <v>9.228794624505101E-06</v>
       </c>
       <c r="D98">
-        <v>9.41348207561532E-06</v>
+        <v>8.829350917949341E-06</v>
       </c>
       <c r="E98">
-        <v>9.62422836892074E-06</v>
+        <v>9.204583875543904E-06</v>
       </c>
       <c r="F98">
-        <v>17829664</v>
+        <v>9272176</v>
       </c>
       <c r="G98">
-        <v>9.868000886932649E-06</v>
+        <v>9.376396266300253E-06</v>
       </c>
       <c r="H98">
-        <v>9.888588328976766E-06</v>
+        <v>9.408244704900425E-06</v>
       </c>
       <c r="I98">
-        <v>9.684617089078528E-06</v>
+        <v>9.481764997569068E-06</v>
       </c>
       <c r="L98">
-        <v>38.20206744824225</v>
+        <v>41.4549788569438</v>
       </c>
       <c r="M98">
-        <v>44.3155793431381</v>
+        <v>41.06280709700999</v>
       </c>
     </row>
     <row r="99" spans="1:13">
@@ -4175,34 +4148,34 @@
         <v>111</v>
       </c>
       <c r="B99">
-        <v>9.621982826502062E-06</v>
+        <v>9.204790330841206E-06</v>
       </c>
       <c r="C99">
-        <v>9.665577636042144E-06</v>
+        <v>9.307972504757345E-06</v>
       </c>
       <c r="D99">
-        <v>9.464567483519204E-06</v>
+        <v>9.185568160319235E-06</v>
       </c>
       <c r="E99">
-        <v>9.660144314693753E-06</v>
+        <v>9.290924936067311E-06</v>
       </c>
       <c r="F99">
-        <v>3052704</v>
+        <v>0</v>
       </c>
       <c r="G99">
-        <v>9.84910483491093E-06</v>
+        <v>9.368626145369986E-06</v>
       </c>
       <c r="H99">
-        <v>9.886318230201141E-06</v>
+        <v>9.389988827024354E-06</v>
       </c>
       <c r="I99">
-        <v>9.715486946030676E-06</v>
+        <v>9.472650466098761E-06</v>
       </c>
       <c r="L99">
-        <v>40.07150980248107</v>
+        <v>47.30923257498274</v>
       </c>
       <c r="M99">
-        <v>45.36536468110251</v>
+        <v>44.92803861971628</v>
       </c>
     </row>
     <row r="100" spans="1:13">
@@ -4210,34 +4183,34 @@
         <v>112</v>
       </c>
       <c r="B100">
-        <v>9.66033803706523E-06</v>
+        <v>9.291558853874449E-06</v>
       </c>
       <c r="C100">
-        <v>9.850855349213816E-06</v>
+        <v>9.413480256625917E-06</v>
       </c>
       <c r="D100">
-        <v>9.66033803706523E-06</v>
+        <v>9.276991477236152E-06</v>
       </c>
       <c r="E100">
-        <v>9.814021723286714E-06</v>
+        <v>9.359275281894952E-06</v>
       </c>
       <c r="F100">
-        <v>348672</v>
+        <v>3306320</v>
       </c>
       <c r="G100">
-        <v>9.845915461126909E-06</v>
+        <v>9.367776066872256E-06</v>
       </c>
       <c r="H100">
-        <v>9.895175981000649E-06</v>
+        <v>9.377633841722854E-06</v>
       </c>
       <c r="I100">
-        <v>9.741939841963661E-06</v>
+        <v>9.460648349583305E-06</v>
       </c>
       <c r="L100">
-        <v>47.69756768228155</v>
+        <v>51.61789248138182</v>
       </c>
       <c r="M100">
-        <v>49.73740301690825</v>
+        <v>47.84410552729697</v>
       </c>
     </row>
     <row r="101" spans="1:13">
@@ -4245,34 +4218,34 @@
         <v>113</v>
       </c>
       <c r="B101">
-        <v>9.813782526180148E-06</v>
+        <v>9.360371223010588E-06</v>
       </c>
       <c r="C101">
-        <v>9.857097211352084E-06</v>
+        <v>9.502464308752678E-06</v>
       </c>
       <c r="D101">
-        <v>9.761247383721638E-06</v>
+        <v>9.354109351988882E-06</v>
       </c>
       <c r="E101">
-        <v>9.796888662094716E-06</v>
+        <v>9.424727977602744E-06</v>
       </c>
       <c r="F101">
-        <v>1599504</v>
+        <v>3667200</v>
       </c>
       <c r="G101">
-        <v>9.84145847939671E-06</v>
+        <v>9.372953513302299E-06</v>
       </c>
       <c r="H101">
-        <v>9.901836210701732E-06</v>
+        <v>9.36575879677548E-06</v>
       </c>
       <c r="I101">
-        <v>9.764942903226863E-06</v>
+        <v>9.452119320485508E-06</v>
       </c>
       <c r="L101">
-        <v>46.94921262408811</v>
+        <v>55.53499867199685</v>
       </c>
       <c r="M101">
-        <v>49.26469119542815</v>
+        <v>50.5446523079756</v>
       </c>
     </row>
     <row r="102" spans="1:13">
@@ -4280,34 +4253,34 @@
         <v>114</v>
       </c>
       <c r="B102">
-        <v>9.802080967347138E-06</v>
+        <v>9.424958079762291E-06</v>
       </c>
       <c r="C102">
-        <v>9.867937478702515E-06</v>
+        <v>9.488483556197023E-06</v>
       </c>
       <c r="D102">
-        <v>9.768991731107237E-06</v>
+        <v>9.365289770357776E-06</v>
       </c>
       <c r="E102">
-        <v>9.84631151368376E-06</v>
+        <v>9.432997103431262E-06</v>
       </c>
       <c r="F102">
-        <v>0</v>
+        <v>10041024</v>
       </c>
       <c r="G102">
-        <v>9.841899664331897E-06</v>
+        <v>9.378412021495841E-06</v>
       </c>
       <c r="H102">
-        <v>9.92125719676551E-06</v>
+        <v>9.353728773930926E-06</v>
       </c>
       <c r="I102">
-        <v>9.78715370365535E-06</v>
+        <v>9.443397599776896E-06</v>
       </c>
       <c r="L102">
-        <v>49.51949316471242</v>
+        <v>56.04084025796967</v>
       </c>
       <c r="M102">
-        <v>50.7196954327275</v>
+        <v>50.89061522186542</v>
       </c>
     </row>
     <row r="103" spans="1:13">
@@ -4315,34 +4288,34 @@
         <v>115</v>
       </c>
       <c r="B103">
-        <v>9.84631151368376E-06</v>
+        <v>9.433049854123963E-06</v>
       </c>
       <c r="C103">
-        <v>9.992510968004352E-06</v>
+        <v>9.456884072278626E-06</v>
       </c>
       <c r="D103">
-        <v>9.815525118028743E-06</v>
+        <v>9.355508154840209E-06</v>
       </c>
       <c r="E103">
-        <v>9.988791134674102E-06</v>
+        <v>9.389393198944164E-06</v>
       </c>
       <c r="F103">
-        <v>3428336</v>
+        <v>0</v>
       </c>
       <c r="G103">
-        <v>9.855253434363007E-06</v>
+        <v>9.379410310354779E-06</v>
       </c>
       <c r="H103">
-        <v>9.945342162609449E-06</v>
+        <v>9.346599290438462E-06</v>
       </c>
       <c r="I103">
-        <v>9.80117429207894E-06</v>
+        <v>9.439076499499303E-06</v>
       </c>
       <c r="L103">
-        <v>56.37448217904902</v>
+        <v>52.49795636418791</v>
       </c>
       <c r="M103">
-        <v>54.74867346932086</v>
+        <v>48.94621413464523</v>
       </c>
     </row>
     <row r="104" spans="1:13">
@@ -4350,34 +4323,34 @@
         <v>116</v>
       </c>
       <c r="B104">
-        <v>9.987962585000789E-06</v>
+        <v>9.389383194502445E-06</v>
       </c>
       <c r="C104">
-        <v>9.98852829070529E-06</v>
+        <v>9.434185813006479E-06</v>
       </c>
       <c r="D104">
-        <v>9.89078853308456E-06</v>
+        <v>9.336042239738164E-06</v>
       </c>
       <c r="E104">
-        <v>9.89078853308456E-06</v>
+        <v>9.434185813006479E-06</v>
       </c>
       <c r="F104">
         <v>0</v>
       </c>
       <c r="G104">
-        <v>9.858483897883146E-06</v>
+        <v>9.384389901504932E-06</v>
       </c>
       <c r="H104">
-        <v>9.968789117920097E-06</v>
+        <v>9.340799488199992E-06</v>
       </c>
       <c r="I104">
-        <v>9.811586854387619E-06</v>
+        <v>9.431079342903104E-06</v>
       </c>
       <c r="L104">
-        <v>51.01393350092714</v>
+        <v>55.73220721528168</v>
       </c>
       <c r="M104">
-        <v>51.62238452368955</v>
+        <v>51.01665259518977</v>
       </c>
     </row>
     <row r="105" spans="1:13">
@@ -4385,34 +4358,34 @@
         <v>117</v>
       </c>
       <c r="B105">
-        <v>9.888897693599574E-06</v>
+        <v>9.433901141164824E-06</v>
       </c>
       <c r="C105">
-        <v>9.897383279167116E-06</v>
+        <v>9.811832569539549E-06</v>
       </c>
       <c r="D105">
-        <v>9.812438293010928E-06</v>
+        <v>9.433901141164824E-06</v>
       </c>
       <c r="E105">
-        <v>9.861879334494006E-06</v>
+        <v>9.695077096694147E-06</v>
       </c>
       <c r="F105">
-        <v>0</v>
+        <v>33228840</v>
       </c>
       <c r="G105">
-        <v>9.858792573938679E-06</v>
+        <v>9.41263419197668E-06</v>
       </c>
       <c r="H105">
-        <v>9.985626684283489E-06</v>
+        <v>9.352241659144055E-06</v>
       </c>
       <c r="I105">
-        <v>9.826711266214262E-06</v>
+        <v>9.435557270383773E-06</v>
       </c>
       <c r="L105">
-        <v>49.45339753498179</v>
+        <v>69.38891058921519</v>
       </c>
       <c r="M105">
-        <v>50.70263582429286</v>
+        <v>60.94995683012934</v>
       </c>
     </row>
     <row r="106" spans="1:13">
@@ -4420,34 +4393,34 @@
         <v>118</v>
       </c>
       <c r="B106">
-        <v>9.863537343335338E-06</v>
+        <v>9.694906111690216E-06</v>
       </c>
       <c r="C106">
-        <v>9.896286428556778E-06</v>
+        <v>9.709676305647008E-06</v>
       </c>
       <c r="D106">
-        <v>9.78896514425287E-06</v>
+        <v>9.570377187628765E-06</v>
       </c>
       <c r="E106">
-        <v>9.896286428556778E-06</v>
+        <v>9.578518984199036E-06</v>
       </c>
       <c r="F106">
-        <v>4066600</v>
+        <v>10963312</v>
       </c>
       <c r="G106">
-        <v>9.862201106176687E-06</v>
+        <v>9.427714627633258E-06</v>
       </c>
       <c r="H106">
-        <v>9.981831226468785E-06</v>
+        <v>9.354954499940504E-06</v>
       </c>
       <c r="I106">
-        <v>9.839613267104141E-06</v>
+        <v>9.433513696421869E-06</v>
       </c>
       <c r="L106">
-        <v>51.44227385425744</v>
+        <v>60.07397536686717</v>
       </c>
       <c r="M106">
-        <v>51.80327576393989</v>
+        <v>55.5317650404917</v>
       </c>
     </row>
     <row r="107" spans="1:13">
@@ -4455,34 +4428,34 @@
         <v>119</v>
       </c>
       <c r="B107">
-        <v>9.897357813315466E-06</v>
+        <v>9.57622796704527E-06</v>
       </c>
       <c r="C107">
-        <v>1.002467251964845E-05</v>
+        <v>9.576235243002884E-06</v>
       </c>
       <c r="D107">
-        <v>9.878934179141652E-06</v>
+        <v>9.440735993848648E-06</v>
       </c>
       <c r="E107">
-        <v>9.88330975815188E-06</v>
+        <v>9.494179721514229E-06</v>
       </c>
       <c r="F107">
-        <v>2478976</v>
+        <v>3322544</v>
       </c>
       <c r="G107">
-        <v>9.864120074538068E-06</v>
+        <v>9.433756908895164E-06</v>
       </c>
       <c r="H107">
-        <v>9.970683004212333E-06</v>
+        <v>9.353941914014286E-06</v>
       </c>
       <c r="I107">
-        <v>9.856104376619139E-06</v>
+        <v>9.429946627885026E-06</v>
       </c>
       <c r="L107">
-        <v>50.59755317764849</v>
+        <v>54.15596298876063</v>
       </c>
       <c r="M107">
-        <v>51.33773444667477</v>
+        <v>51.93421750332597</v>
       </c>
     </row>
     <row r="108" spans="1:13">
@@ -4490,34 +4463,34 @@
         <v>120</v>
       </c>
       <c r="B108">
-        <v>9.882472113531549E-06</v>
+        <v>9.494762707618063E-06</v>
       </c>
       <c r="C108">
-        <v>9.927352948579936E-06</v>
+        <v>9.523782864562236E-06</v>
       </c>
       <c r="D108">
-        <v>9.827491339819971E-06</v>
+        <v>9.480660082772374E-06</v>
       </c>
       <c r="E108">
-        <v>9.905296792567242E-06</v>
+        <v>9.49471905187238E-06</v>
       </c>
       <c r="F108">
-        <v>869288</v>
+        <v>0</v>
       </c>
       <c r="G108">
-        <v>9.867863412540719E-06</v>
+        <v>9.439298921893091E-06</v>
       </c>
       <c r="H108">
-        <v>9.961597697838442E-06</v>
+        <v>9.35537018449395E-06</v>
       </c>
       <c r="I108">
-        <v>9.877182825827428E-06</v>
+        <v>9.425296442107841E-06</v>
       </c>
       <c r="L108">
-        <v>52.09693477486866</v>
+        <v>54.18842999631242</v>
       </c>
       <c r="M108">
-        <v>52.12282115589342</v>
+        <v>51.95565218885887</v>
       </c>
     </row>
     <row r="109" spans="1:13">
@@ -4525,34 +4498,34 @@
         <v>121</v>
       </c>
       <c r="B109">
-        <v>9.904844773700461E-06</v>
+        <v>9.496106031292584E-06</v>
       </c>
       <c r="C109">
-        <v>9.923493962560316E-06</v>
+        <v>9.554254575050436E-06</v>
       </c>
       <c r="D109">
-        <v>9.696343113319015E-06</v>
+        <v>9.451615369471256E-06</v>
       </c>
       <c r="E109">
-        <v>9.696343113319015E-06</v>
+        <v>9.457108717469964E-06</v>
       </c>
       <c r="F109">
-        <v>0</v>
+        <v>3654384</v>
       </c>
       <c r="G109">
-        <v>9.852270658066017E-06</v>
+        <v>9.440917994218262E-06</v>
       </c>
       <c r="H109">
-        <v>9.928114377544261E-06</v>
+        <v>9.351581002192689E-06</v>
       </c>
       <c r="I109">
-        <v>9.87687605326452E-06</v>
+        <v>9.418665316237214E-06</v>
       </c>
       <c r="L109">
-        <v>39.33361903899844</v>
+        <v>51.33617863828793</v>
       </c>
       <c r="M109">
-        <v>44.73610341375932</v>
+        <v>50.2720304026556</v>
       </c>
     </row>
     <row r="110" spans="1:13">
@@ -4560,34 +4533,34 @@
         <v>122</v>
       </c>
       <c r="B110">
-        <v>9.69590837485157E-06</v>
+        <v>9.456784027861431E-06</v>
       </c>
       <c r="C110">
-        <v>9.772354133019689E-06</v>
+        <v>9.456784027861431E-06</v>
       </c>
       <c r="D110">
-        <v>9.55842187977396E-06</v>
+        <v>9.392862011736725E-06</v>
       </c>
       <c r="E110">
-        <v>9.564360880176537E-06</v>
+        <v>9.420639798918272E-06</v>
       </c>
       <c r="F110">
-        <v>7883344</v>
+        <v>4620896</v>
       </c>
       <c r="G110">
-        <v>9.826097041894247E-06</v>
+        <v>9.439074521918263E-06</v>
       </c>
       <c r="H110">
-        <v>9.900477789415162E-06</v>
+        <v>9.350999062007758E-06</v>
       </c>
       <c r="I110">
-        <v>9.874459192360518E-06</v>
+        <v>9.412474143270326E-06</v>
       </c>
       <c r="L110">
-        <v>33.50141780240554</v>
+        <v>48.54860593282878</v>
       </c>
       <c r="M110">
-        <v>40.80274844574716</v>
+        <v>48.62657619160547</v>
       </c>
     </row>
     <row r="111" spans="1:13">
@@ -4595,34 +4568,34 @@
         <v>123</v>
       </c>
       <c r="B111">
-        <v>9.565841537551025E-06</v>
+        <v>9.421743015991524E-06</v>
       </c>
       <c r="C111">
-        <v>9.73800979409134E-06</v>
+        <v>9.430396858078892E-06</v>
       </c>
       <c r="D111">
-        <v>9.565841537551025E-06</v>
+        <v>9.341572877019644E-06</v>
       </c>
       <c r="E111">
-        <v>9.719338777358644E-06</v>
+        <v>9.341572877019644E-06</v>
       </c>
       <c r="F111">
-        <v>2938960</v>
+        <v>0</v>
       </c>
       <c r="G111">
-        <v>9.816391745118282E-06</v>
+        <v>9.430210736018387E-06</v>
       </c>
       <c r="H111">
-        <v>9.874122588371392E-06</v>
+        <v>9.347630475531333E-06</v>
       </c>
       <c r="I111">
-        <v>9.876314349336705E-06</v>
+        <v>9.401785609952639E-06</v>
       </c>
       <c r="L111">
-        <v>44.39329149345782</v>
+        <v>42.87070557678106</v>
       </c>
       <c r="M111">
-        <v>46.72598885361786</v>
+        <v>45.17428593754889</v>
       </c>
     </row>
     <row r="112" spans="1:13">
@@ -4630,2370 +4603,2376 @@
         <v>124</v>
       </c>
       <c r="B112">
-        <v>9.719326953927521E-06</v>
+        <v>9.339712960354518E-06</v>
       </c>
       <c r="C112">
-        <v>9.752102414495312E-06</v>
+        <v>9.362815035274252E-06</v>
       </c>
       <c r="D112">
-        <v>9.6666835815995E-06</v>
+        <v>9.176191269943956E-06</v>
       </c>
       <c r="E112">
-        <v>9.680598850536626E-06</v>
+        <v>9.225239409715869E-06</v>
       </c>
       <c r="F112">
-        <v>302608</v>
+        <v>2811152</v>
       </c>
       <c r="G112">
-        <v>9.804046936519951E-06</v>
+        <v>9.411576979081795E-06</v>
       </c>
       <c r="H112">
-        <v>9.850174728853745E-06</v>
+        <v>9.358092393085827E-06</v>
       </c>
       <c r="I112">
-        <v>9.883737917940987E-06</v>
+        <v>9.386840338265756E-06</v>
       </c>
       <c r="L112">
-        <v>42.43853722029424</v>
+        <v>35.9175751634555</v>
       </c>
       <c r="M112">
-        <v>45.50039465810791</v>
-      </c>
-    </row>
-    <row r="113" spans="1:13">
+        <v>40.60633030365444</v>
+      </c>
+    </row>
+    <row r="113" spans="1:14">
       <c r="A113" s="1" t="s">
         <v>125</v>
       </c>
       <c r="B113">
-        <v>9.680532457423396E-06</v>
+        <v>9.225585927197244E-06</v>
       </c>
       <c r="C113">
-        <v>9.73874830378918E-06</v>
+        <v>9.290879461332224E-06</v>
       </c>
       <c r="D113">
-        <v>9.637667972128838E-06</v>
+        <v>9.157997737929691E-06</v>
       </c>
       <c r="E113">
-        <v>9.694648724689614E-06</v>
+        <v>9.246029549103696E-06</v>
       </c>
       <c r="F113">
-        <v>694664</v>
+        <v>4049448</v>
       </c>
       <c r="G113">
-        <v>9.794101644535375E-06</v>
+        <v>9.396527212720149E-06</v>
       </c>
       <c r="H113">
-        <v>9.82640804068069E-06</v>
+        <v>9.360462490803911E-06</v>
       </c>
       <c r="I113">
-        <v>9.889989814837464E-06</v>
+        <v>9.377308560942766E-06</v>
       </c>
       <c r="L113">
-        <v>43.45441092286061</v>
+        <v>37.94119263377296</v>
       </c>
       <c r="M113">
-        <v>46.05304879044184</v>
-      </c>
-    </row>
-    <row r="114" spans="1:13">
+        <v>41.74013299020457</v>
+      </c>
+    </row>
+    <row r="114" spans="1:14">
       <c r="A114" s="1" t="s">
         <v>126</v>
       </c>
       <c r="B114">
-        <v>9.693301763036288E-06</v>
+        <v>9.246122317563277E-06</v>
       </c>
       <c r="C114">
-        <v>9.713266081234906E-06</v>
+        <v>9.247446541849058E-06</v>
       </c>
       <c r="D114">
-        <v>9.502488865109626E-06</v>
+        <v>9.061120181286242E-06</v>
       </c>
       <c r="E114">
-        <v>9.519026207271963E-06</v>
+        <v>9.147358468908353E-06</v>
       </c>
       <c r="F114">
-        <v>7456832</v>
+        <v>9838832</v>
       </c>
       <c r="G114">
-        <v>9.769094786602337E-06</v>
+        <v>9.373875508737256E-06</v>
       </c>
       <c r="H114">
-        <v>9.796966332942248E-06</v>
+        <v>9.361992351841763E-06</v>
       </c>
       <c r="I114">
-        <v>9.893229040850808E-06</v>
+        <v>9.36388111464718E-06</v>
       </c>
       <c r="L114">
-        <v>34.81419588793069</v>
+        <v>32.46703697047958</v>
       </c>
       <c r="M114">
-        <v>40.52159775015008</v>
-      </c>
-    </row>
-    <row r="115" spans="1:13">
+        <v>38.02960040889928</v>
+      </c>
+    </row>
+    <row r="115" spans="1:14">
       <c r="A115" s="1" t="s">
         <v>127</v>
       </c>
       <c r="B115">
-        <v>9.519661034573799E-06</v>
+        <v>9.146588126895949E-06</v>
       </c>
       <c r="C115">
-        <v>9.73568603512831E-06</v>
+        <v>9.19830836210167E-06</v>
       </c>
       <c r="D115">
-        <v>9.514328667137306E-06</v>
+        <v>8.987361070467159E-06</v>
       </c>
       <c r="E115">
-        <v>9.674100510892458E-06</v>
+        <v>9.101956493395846E-06</v>
       </c>
       <c r="F115">
-        <v>2877080</v>
+        <v>11486968</v>
       </c>
       <c r="G115">
-        <v>9.760458943355983E-06</v>
+        <v>9.349155598251673E-06</v>
       </c>
       <c r="H115">
-        <v>9.771266195457429E-06</v>
+        <v>9.355992369819433E-06</v>
       </c>
       <c r="I115">
-        <v>9.898194790973018E-06</v>
+        <v>9.351738541833281E-06</v>
       </c>
       <c r="L115">
-        <v>45.56582952311498</v>
+        <v>30.21069814688342</v>
       </c>
       <c r="M115">
-        <v>46.61858255331668</v>
-      </c>
-    </row>
-    <row r="116" spans="1:13">
+        <v>36.42505437802644</v>
+      </c>
+    </row>
+    <row r="116" spans="1:14">
       <c r="A116" s="1" t="s">
         <v>128</v>
       </c>
       <c r="B116">
-        <v>9.674277862359304E-06</v>
+        <v>9.103159754886292E-06</v>
       </c>
       <c r="C116">
-        <v>9.699229849502444E-06</v>
+        <v>9.135527761827689E-06</v>
       </c>
       <c r="D116">
-        <v>9.528678674541879E-06</v>
+        <v>8.905908543965779E-06</v>
       </c>
       <c r="E116">
-        <v>9.560739272274075E-06</v>
+        <v>8.983183761301916E-06</v>
       </c>
       <c r="F116">
-        <v>0</v>
+        <v>11219664</v>
       </c>
       <c r="G116">
-        <v>9.742302609621264E-06</v>
+        <v>9.31588543125624E-06</v>
       </c>
       <c r="H116">
-        <v>9.75347111307201E-06</v>
+        <v>9.342510384158232E-06</v>
       </c>
       <c r="I116">
-        <v>9.884479580553791E-06</v>
+        <v>9.333702594934342E-06</v>
       </c>
       <c r="L116">
-        <v>40.12336017551845</v>
+        <v>25.0809096127241</v>
       </c>
       <c r="M116">
-        <v>43.13745627828771</v>
-      </c>
-    </row>
-    <row r="117" spans="1:13">
+        <v>32.55533663559208</v>
+      </c>
+      <c r="N116" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="117" spans="1:14">
       <c r="A117" s="1" t="s">
         <v>129</v>
       </c>
       <c r="B117">
-        <v>9.556700206303503E-06</v>
+        <v>8.986798093246762E-06</v>
       </c>
       <c r="C117">
-        <v>9.639826203056144E-06</v>
+        <v>9.08170113689266E-06</v>
       </c>
       <c r="D117">
-        <v>9.551361472404096E-06</v>
+        <v>8.899090062186588E-06</v>
       </c>
       <c r="E117">
-        <v>9.639826203056144E-06</v>
+        <v>8.910105862014461E-06</v>
       </c>
       <c r="F117">
-        <v>189688</v>
+        <v>7929520</v>
       </c>
       <c r="G117">
-        <v>9.732986572660798E-06</v>
+        <v>9.278996379506987E-06</v>
       </c>
       <c r="H117">
-        <v>9.745846455189167E-06</v>
+        <v>9.331588898930931E-06</v>
       </c>
       <c r="I117">
-        <v>9.868931313879632E-06</v>
+        <v>9.313558409000204E-06</v>
       </c>
       <c r="L117">
-        <v>45.25540693035031</v>
+        <v>22.44310038410586</v>
       </c>
       <c r="M117">
-        <v>46.1581422029424</v>
-      </c>
-    </row>
-    <row r="118" spans="1:13">
+        <v>30.41436080333077</v>
+      </c>
+      <c r="N117" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="118" spans="1:14">
       <c r="A118" s="1" t="s">
         <v>130</v>
       </c>
       <c r="B118">
-        <v>9.639831660024356E-06</v>
+        <v>8.912128578231204E-06</v>
       </c>
       <c r="C118">
-        <v>9.656512702349572E-06</v>
+        <v>9.044132639246529E-06</v>
       </c>
       <c r="D118">
-        <v>9.5788091130089E-06</v>
+        <v>8.911732948035933E-06</v>
       </c>
       <c r="E118">
-        <v>9.601191777619532E-06</v>
+        <v>9.030186447489539E-06</v>
       </c>
       <c r="F118">
-        <v>39544</v>
+        <v>0</v>
       </c>
       <c r="G118">
-        <v>9.721005227657046E-06</v>
+        <v>9.256377294778129E-06</v>
       </c>
       <c r="H118">
-        <v>9.744694625624107E-06</v>
+        <v>9.322869027528214E-06</v>
       </c>
       <c r="I118">
-        <v>9.852737609132115E-06</v>
+        <v>9.299026169173885E-06</v>
       </c>
       <c r="L118">
-        <v>43.21960180354462</v>
+        <v>35.06727502391465</v>
       </c>
       <c r="M118">
-        <v>44.90323577023243</v>
-      </c>
-    </row>
-    <row r="119" spans="1:13">
+        <v>37.66824106324808</v>
+      </c>
+    </row>
+    <row r="119" spans="1:14">
       <c r="A119" s="1" t="s">
         <v>131</v>
       </c>
       <c r="B119">
-        <v>9.601059900887776E-06</v>
+        <v>9.030084584082942E-06</v>
       </c>
       <c r="C119">
-        <v>9.72053658188088E-06</v>
+        <v>9.047003914020024E-06</v>
       </c>
       <c r="D119">
-        <v>9.590059562469833E-06</v>
+        <v>8.861496098688804E-06</v>
       </c>
       <c r="E119">
-        <v>9.634224625187926E-06</v>
+        <v>8.864256415108684E-06</v>
       </c>
       <c r="F119">
-        <v>1639056</v>
+        <v>935664</v>
       </c>
       <c r="G119">
-        <v>9.713116081978035E-06</v>
+        <v>9.220729942080907E-06</v>
       </c>
       <c r="H119">
-        <v>9.743398641148815E-06</v>
+        <v>9.301535601480283E-06</v>
       </c>
       <c r="I119">
-        <v>9.828344779331626E-06</v>
+        <v>9.276738304227668E-06</v>
       </c>
       <c r="L119">
-        <v>45.57460445917652</v>
+        <v>27.98578339146663</v>
       </c>
       <c r="M119">
-        <v>46.24880905111023</v>
-      </c>
-    </row>
-    <row r="120" spans="1:13">
+        <v>32.60960753615005</v>
+      </c>
+      <c r="N119" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="120" spans="1:14">
       <c r="A120" s="1" t="s">
         <v>132</v>
       </c>
       <c r="B120">
-        <v>9.634778507461306E-06</v>
+        <v>8.865976269589737E-06</v>
       </c>
       <c r="C120">
-        <v>9.698346730147024E-06</v>
+        <v>8.904520655050874E-06</v>
       </c>
       <c r="D120">
-        <v>9.458343811274972E-06</v>
+        <v>8.490424988849554E-06</v>
       </c>
       <c r="E120">
-        <v>9.656042493588757E-06</v>
+        <v>8.544451702618971E-06</v>
       </c>
       <c r="F120">
-        <v>3910616</v>
+        <v>20052400</v>
       </c>
       <c r="G120">
-        <v>9.707927573942645E-06</v>
+        <v>9.159250102129822E-06</v>
       </c>
       <c r="H120">
-        <v>9.735499679663917E-06</v>
+        <v>9.260794422516483E-06</v>
       </c>
       <c r="I120">
-        <v>9.812976441025966E-06</v>
+        <v>9.247144074227739E-06</v>
       </c>
       <c r="L120">
-        <v>47.20176789002316</v>
+        <v>19.4634989335617</v>
       </c>
       <c r="M120">
-        <v>47.16659384758034</v>
-      </c>
-    </row>
-    <row r="121" spans="1:13">
+        <v>25.50131877964545</v>
+      </c>
+      <c r="N120" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="121" spans="1:14">
       <c r="A121" s="1" t="s">
         <v>133</v>
       </c>
       <c r="B121">
-        <v>9.655671419750432E-06</v>
+        <v>8.555829481338151E-06</v>
       </c>
       <c r="C121">
-        <v>9.672782653069589E-06</v>
+        <v>8.727832209842745E-06</v>
       </c>
       <c r="D121">
-        <v>9.565079380990936E-06</v>
+        <v>8.45955128170317E-06</v>
       </c>
       <c r="E121">
-        <v>9.606374987924935E-06</v>
+        <v>8.687280569574796E-06</v>
       </c>
       <c r="F121">
-        <v>1855352</v>
+        <v>2592752</v>
       </c>
       <c r="G121">
-        <v>9.698695520668307E-06</v>
+        <v>9.116343780988456E-06</v>
       </c>
       <c r="H121">
-        <v>9.725973995955426E-06</v>
+        <v>9.223922052115086E-06</v>
       </c>
       <c r="I121">
-        <v>9.791640847348996E-06</v>
+        <v>9.223088606328625E-06</v>
       </c>
       <c r="L121">
-        <v>43.84470635745347</v>
+        <v>30.15070619075684</v>
       </c>
       <c r="M121">
-        <v>45.2715349883118</v>
-      </c>
-    </row>
-    <row r="122" spans="1:13">
+        <v>32.57073763297605</v>
+      </c>
+    </row>
+    <row r="122" spans="1:14">
       <c r="A122" s="1" t="s">
         <v>134</v>
       </c>
       <c r="B122">
-        <v>9.606795174477156E-06</v>
+        <v>8.6962600107654E-06</v>
       </c>
       <c r="C122">
-        <v>9.720614798425233E-06</v>
+        <v>8.781041287875269E-06</v>
       </c>
       <c r="D122">
-        <v>9.606795174477156E-06</v>
+        <v>8.640802661830094E-06</v>
       </c>
       <c r="E122">
-        <v>9.662228876550216E-06</v>
+        <v>8.649574738228694E-06</v>
       </c>
       <c r="F122">
-        <v>1584104</v>
+        <v>823920</v>
       </c>
       <c r="G122">
-        <v>9.695380371203025E-06</v>
+        <v>9.073910231646659E-06</v>
       </c>
       <c r="H122">
-        <v>9.71676986409875E-06</v>
+        <v>9.184750933854956E-06</v>
       </c>
       <c r="I122">
-        <v>9.77506327520435E-06</v>
+        <v>9.210874395648716E-06</v>
       </c>
       <c r="L122">
-        <v>48.4803253701546</v>
+        <v>29.00749427767266</v>
       </c>
       <c r="M122">
-        <v>47.81094802450706</v>
-      </c>
-    </row>
-    <row r="123" spans="1:13">
+        <v>31.71512196689745</v>
+      </c>
+      <c r="N122" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="123" spans="1:14">
       <c r="A123" s="1" t="s">
         <v>135</v>
       </c>
       <c r="B123">
-        <v>9.662091542850249E-06</v>
+        <v>8.646873538964428E-06</v>
       </c>
       <c r="C123">
-        <v>9.71478220890276E-06</v>
+        <v>8.824611541058403E-06</v>
       </c>
       <c r="D123">
-        <v>9.64894934440963E-06</v>
+        <v>8.631664968561381E-06</v>
       </c>
       <c r="E123">
-        <v>9.673597560322378E-06</v>
+        <v>8.823699317872524E-06</v>
       </c>
       <c r="F123">
-        <v>736808</v>
+        <v>0</v>
       </c>
       <c r="G123">
-        <v>9.693400115668422E-06</v>
+        <v>9.051163784939919E-06</v>
       </c>
       <c r="H123">
-        <v>9.701010185381163E-06</v>
+        <v>9.156466239801375E-06</v>
       </c>
       <c r="I123">
-        <v>9.758517110943406E-06</v>
+        <v>9.198376786419733E-06</v>
       </c>
       <c r="L123">
-        <v>49.43612460711211</v>
+        <v>40.69056762452498</v>
       </c>
       <c r="M123">
-        <v>48.33641577225436</v>
-      </c>
-    </row>
-    <row r="124" spans="1:13">
+        <v>39.60529040625413</v>
+      </c>
+    </row>
+    <row r="124" spans="1:14">
       <c r="A124" s="1" t="s">
         <v>136</v>
       </c>
       <c r="B124">
-        <v>9.673682143329644E-06</v>
+        <v>8.824122232908849E-06</v>
       </c>
       <c r="C124">
-        <v>9.673682143329644E-06</v>
+        <v>8.905563845473807E-06</v>
       </c>
       <c r="D124">
-        <v>9.530880561214872E-06</v>
+        <v>8.762563084019348E-06</v>
       </c>
       <c r="E124">
-        <v>9.53198286879342E-06</v>
+        <v>8.776766662776936E-06</v>
       </c>
       <c r="F124">
-        <v>1402176</v>
+        <v>426704</v>
       </c>
       <c r="G124">
-        <v>9.678725820497968E-06</v>
+        <v>9.026218592016012E-06</v>
       </c>
       <c r="H124">
-        <v>9.683069902166607E-06</v>
+        <v>9.123595282289898E-06</v>
       </c>
       <c r="I124">
-        <v>9.739321194501827E-06</v>
+        <v>9.187043633573922E-06</v>
       </c>
       <c r="L124">
-        <v>39.23556262341637</v>
+        <v>38.75656337566586</v>
       </c>
       <c r="M124">
-        <v>42.58463419213385</v>
-      </c>
-    </row>
-    <row r="125" spans="1:13">
+        <v>38.32004095375564</v>
+      </c>
+    </row>
+    <row r="125" spans="1:14">
       <c r="A125" s="1" t="s">
         <v>137</v>
       </c>
       <c r="B125">
-        <v>9.532231160847005E-06</v>
+        <v>8.777259608905297E-06</v>
       </c>
       <c r="C125">
-        <v>9.570085239829496E-06</v>
+        <v>8.937697202782147E-06</v>
       </c>
       <c r="D125">
-        <v>9.521927495370621E-06</v>
+        <v>8.777259608905297E-06</v>
       </c>
       <c r="E125">
-        <v>9.550181857775897E-06</v>
+        <v>8.906918083084747E-06</v>
       </c>
       <c r="F125">
-        <v>1373576</v>
+        <v>1985056</v>
       </c>
       <c r="G125">
-        <v>9.667040005705052E-06</v>
+        <v>9.015373091204079E-06</v>
       </c>
       <c r="H125">
-        <v>9.667485028330702E-06</v>
+        <v>9.084187331609428E-06</v>
       </c>
       <c r="I125">
-        <v>9.718057147741396E-06</v>
+        <v>9.176542365215331E-06</v>
       </c>
       <c r="L125">
-        <v>40.99573247556604</v>
+        <v>46.66518469888588</v>
       </c>
       <c r="M125">
-        <v>43.51485452560611</v>
-      </c>
-    </row>
-    <row r="126" spans="1:13">
+        <v>43.76962867829299</v>
+      </c>
+    </row>
+    <row r="126" spans="1:14">
       <c r="A126" s="1" t="s">
         <v>138</v>
       </c>
       <c r="B126">
-        <v>9.550242793920916E-06</v>
+        <v>8.907400115276687E-06</v>
       </c>
       <c r="C126">
-        <v>9.57516112976009E-06</v>
+        <v>8.98567395779537E-06</v>
       </c>
       <c r="D126">
-        <v>9.466233677812852E-06</v>
+        <v>8.907400115276687E-06</v>
       </c>
       <c r="E126">
-        <v>9.466233677812852E-06</v>
+        <v>8.938915925682522E-06</v>
       </c>
       <c r="F126">
-        <v>3195064</v>
+        <v>0</v>
       </c>
       <c r="G126">
-        <v>9.64878488498758E-06</v>
+        <v>9.008422439793027E-06</v>
       </c>
       <c r="H126">
-        <v>9.645982390793505E-06</v>
+        <v>9.052207178683603E-06</v>
       </c>
       <c r="I126">
-        <v>9.703043573002408E-06</v>
+        <v>9.166078780253883E-06</v>
       </c>
       <c r="L126">
-        <v>35.63849392962027</v>
+        <v>48.50441262773229</v>
       </c>
       <c r="M126">
-        <v>40.27350526741427</v>
-      </c>
-    </row>
-    <row r="127" spans="1:13">
+        <v>45.054929472166</v>
+      </c>
+    </row>
+    <row r="127" spans="1:14">
       <c r="A127" s="1" t="s">
         <v>139</v>
       </c>
       <c r="B127">
-        <v>9.466057235840708E-06</v>
+        <v>8.93905325938249E-06</v>
       </c>
       <c r="C127">
-        <v>9.534528544463685E-06</v>
+        <v>8.9544482761994E-06</v>
       </c>
       <c r="D127">
-        <v>9.405643140780739E-06</v>
+        <v>8.855368832882959E-06</v>
       </c>
       <c r="E127">
-        <v>9.52426216827007E-06</v>
+        <v>8.907815754355397E-06</v>
       </c>
       <c r="F127">
-        <v>4182096</v>
+        <v>186872</v>
       </c>
       <c r="G127">
-        <v>9.63746463801326E-06</v>
+        <v>8.999276377480516E-06</v>
       </c>
       <c r="H127">
-        <v>9.628030011299415E-06</v>
+        <v>9.02288898032566E-06</v>
       </c>
       <c r="I127">
-        <v>9.694108333254311E-06</v>
+        <v>9.158721453180381E-06</v>
       </c>
       <c r="L127">
-        <v>41.57565334006775</v>
+        <v>46.74192546500268</v>
       </c>
       <c r="M127">
-        <v>43.41135580623839</v>
-      </c>
-    </row>
-    <row r="128" spans="1:13">
+        <v>44.00215691171366</v>
+      </c>
+    </row>
+    <row r="128" spans="1:14">
       <c r="A128" s="1" t="s">
         <v>140</v>
       </c>
       <c r="B128">
-        <v>9.524484084977304E-06</v>
+        <v>8.908567906473763E-06</v>
       </c>
       <c r="C128">
-        <v>9.536817742628044E-06</v>
+        <v>8.917082595871761E-06</v>
       </c>
       <c r="D128">
-        <v>9.442846931051465E-06</v>
+        <v>8.782953045738395E-06</v>
       </c>
       <c r="E128">
-        <v>9.514431440038608E-06</v>
+        <v>8.79848357726587E-06</v>
       </c>
       <c r="F128">
-        <v>819576</v>
+        <v>4490048</v>
       </c>
       <c r="G128">
-        <v>9.626279801833745E-06</v>
+        <v>8.981022486551911E-06</v>
       </c>
       <c r="H128">
-        <v>9.608486743672984E-06</v>
+        <v>8.988077206595335E-06</v>
       </c>
       <c r="I128">
-        <v>9.690448435624905E-06</v>
+        <v>9.145184776571114E-06</v>
       </c>
       <c r="L128">
-        <v>40.85733088470805</v>
+        <v>40.86874020297618</v>
       </c>
       <c r="M128">
-        <v>42.99920631676058</v>
-      </c>
-    </row>
-    <row r="129" spans="1:14">
+        <v>40.42595198937386</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13">
       <c r="A129" s="1" t="s">
         <v>141</v>
       </c>
       <c r="B129">
-        <v>9.515870260656811E-06</v>
+        <v>8.797916962066665E-06</v>
       </c>
       <c r="C129">
-        <v>9.527291695121676E-06</v>
+        <v>8.91565559868468E-06</v>
       </c>
       <c r="D129">
-        <v>9.437559128855357E-06</v>
+        <v>8.754815098654944E-06</v>
       </c>
       <c r="E129">
-        <v>9.466153642279096E-06</v>
+        <v>8.895984137780033E-06</v>
       </c>
       <c r="F129">
-        <v>1041392</v>
+        <v>334272</v>
       </c>
       <c r="G129">
-        <v>9.611722878237868E-06</v>
+        <v>8.97329172757265E-06</v>
       </c>
       <c r="H129">
-        <v>9.596977270120987E-06</v>
+        <v>8.960020977610839E-06</v>
       </c>
       <c r="I129">
-        <v>9.683982079877751E-06</v>
+        <v>9.132020083294872E-06</v>
       </c>
       <c r="L129">
-        <v>37.29716326947748</v>
+        <v>47.48837727702391</v>
       </c>
       <c r="M129">
-        <v>40.94340194372477</v>
-      </c>
-    </row>
-    <row r="130" spans="1:14">
+        <v>44.73924576817018</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13">
       <c r="A130" s="1" t="s">
         <v>142</v>
       </c>
       <c r="B130">
-        <v>9.466153642279096E-06</v>
+        <v>8.896378858480603E-06</v>
       </c>
       <c r="C130">
-        <v>9.545805369270964E-06</v>
+        <v>8.910777978599072E-06</v>
       </c>
       <c r="D130">
-        <v>9.459869943384548E-06</v>
+        <v>8.82731364981737E-06</v>
       </c>
       <c r="E130">
-        <v>9.532892363495192E-06</v>
+        <v>8.851227903505787E-06</v>
       </c>
       <c r="F130">
         <v>0</v>
       </c>
       <c r="G130">
-        <v>9.604556467806716E-06</v>
+        <v>8.962195016293844E-06</v>
       </c>
       <c r="H130">
-        <v>9.595403844286918E-06</v>
+        <v>8.931550382840214E-06</v>
       </c>
       <c r="I130">
-        <v>9.674611101218034E-06</v>
+        <v>9.115085170681898E-06</v>
       </c>
       <c r="L130">
-        <v>44.78020543488524</v>
+        <v>44.89303318073679</v>
       </c>
       <c r="M130">
-        <v>44.86753622352284</v>
-      </c>
-    </row>
-    <row r="131" spans="1:14">
+        <v>43.19328223811605</v>
+      </c>
+    </row>
+    <row r="131" spans="1:13">
       <c r="A131" s="1" t="s">
         <v>143</v>
       </c>
       <c r="B131">
-        <v>9.533498996461276E-06</v>
+        <v>8.849886398820672E-06</v>
       </c>
       <c r="C131">
-        <v>9.545932698529214E-06</v>
+        <v>8.861032256390899E-06</v>
       </c>
       <c r="D131">
-        <v>9.417605724593161E-06</v>
+        <v>8.782200893620029E-06</v>
       </c>
       <c r="E131">
-        <v>9.43227860261686E-06</v>
+        <v>8.860815796651877E-06</v>
       </c>
       <c r="F131">
-        <v>837952</v>
+        <v>0</v>
       </c>
       <c r="G131">
-        <v>9.588894843698545E-06</v>
+        <v>8.952978723599119E-06</v>
       </c>
       <c r="H131">
-        <v>9.58105083554983E-06</v>
+        <v>8.907512528821826E-06</v>
       </c>
       <c r="I131">
-        <v>9.662457432568772E-06</v>
+        <v>9.096288097983537E-06</v>
       </c>
       <c r="L131">
-        <v>37.24217243450725</v>
+        <v>45.60942958742527</v>
       </c>
       <c r="M131">
-        <v>40.49856436078341</v>
-      </c>
-    </row>
-    <row r="132" spans="1:14">
+        <v>43.64256128403761</v>
+      </c>
+    </row>
+    <row r="132" spans="1:13">
       <c r="A132" s="1" t="s">
         <v>144</v>
       </c>
       <c r="B132">
-        <v>9.433520062884782E-06</v>
+        <v>8.861887181410566E-06</v>
       </c>
       <c r="C132">
-        <v>9.438216693524735E-06</v>
+        <v>8.915042599255685E-06</v>
       </c>
       <c r="D132">
-        <v>9.284697625844274E-06</v>
+        <v>8.826566045172513E-06</v>
       </c>
       <c r="E132">
-        <v>9.408944606548175E-06</v>
+        <v>8.88213162397733E-06</v>
       </c>
       <c r="F132">
-        <v>4321304</v>
+        <v>304464</v>
       </c>
       <c r="G132">
-        <v>9.572535731230329E-06</v>
+        <v>8.946538078178956E-06</v>
       </c>
       <c r="H132">
-        <v>9.567468123350408E-06</v>
+        <v>8.8903571395349E-06</v>
       </c>
       <c r="I132">
-        <v>9.647878535664252E-06</v>
+        <v>9.077925915335072E-06</v>
       </c>
       <c r="L132">
-        <v>35.67533384744562</v>
+        <v>47.32222635188437</v>
       </c>
       <c r="M132">
-        <v>39.53702420700184</v>
-      </c>
-    </row>
-    <row r="133" spans="1:14">
+        <v>44.68989395099307</v>
+      </c>
+    </row>
+    <row r="133" spans="1:13">
       <c r="A133" s="1" t="s">
         <v>145</v>
       </c>
       <c r="B133">
-        <v>9.404627235198861E-06</v>
+        <v>8.881447683961596E-06</v>
       </c>
       <c r="C133">
-        <v>9.409350241185166E-06</v>
+        <v>8.900316061044578E-06</v>
       </c>
       <c r="D133">
-        <v>9.016001058625989E-06</v>
+        <v>8.763066034589428E-06</v>
       </c>
       <c r="E133">
-        <v>9.016001058625989E-06</v>
+        <v>8.771700777288061E-06</v>
       </c>
       <c r="F133">
-        <v>16629528</v>
+        <v>388952</v>
       </c>
       <c r="G133">
-        <v>9.52194167008448E-06</v>
+        <v>8.930643778097965E-06</v>
       </c>
       <c r="H133">
-        <v>9.533535740047226E-06</v>
+        <v>8.866640700944118E-06</v>
       </c>
       <c r="I133">
-        <v>9.615452199795982E-06</v>
+        <v>9.057336167946536E-06</v>
       </c>
       <c r="L133">
-        <v>19.85222116303131</v>
+        <v>39.98374178070797</v>
       </c>
       <c r="M133">
-        <v>27.63706558691929</v>
-      </c>
-      <c r="N133" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="134" spans="1:14">
+        <v>40.49161411154853</v>
+      </c>
+    </row>
+    <row r="134" spans="1:13">
       <c r="A134" s="1" t="s">
         <v>146</v>
       </c>
       <c r="B134">
-        <v>9.021443474921398E-06</v>
+        <v>8.771396096562967E-06</v>
       </c>
       <c r="C134">
-        <v>9.216655598720536E-06</v>
+        <v>8.878066182660405E-06</v>
       </c>
       <c r="D134">
-        <v>9.021443474921398E-06</v>
+        <v>8.737079042475671E-06</v>
       </c>
       <c r="E134">
-        <v>9.198627594741993E-06</v>
+        <v>8.871922545949928E-06</v>
       </c>
       <c r="F134">
-        <v>10794784</v>
+        <v>361840</v>
       </c>
       <c r="G134">
-        <v>9.492549481416979E-06</v>
+        <v>8.925305484266325E-06</v>
       </c>
       <c r="H134">
-        <v>9.517515809420728E-06</v>
+        <v>8.852868904796197E-06</v>
       </c>
       <c r="I134">
-        <v>9.592380168517896E-06</v>
+        <v>9.038594059044651E-06</v>
       </c>
       <c r="L134">
-        <v>34.93996804399044</v>
+        <v>48.18728956066033</v>
       </c>
       <c r="M134">
-        <v>37.11107945547882</v>
-      </c>
-    </row>
-    <row r="135" spans="1:14">
+        <v>45.49595766356853</v>
+      </c>
+    </row>
+    <row r="135" spans="1:13">
       <c r="A135" s="1" t="s">
         <v>147</v>
       </c>
       <c r="B135">
-        <v>9.19930789677892E-06</v>
+        <v>8.872171747498214E-06</v>
       </c>
       <c r="C135">
-        <v>9.215242243953981E-06</v>
+        <v>8.875437742972281E-06</v>
       </c>
       <c r="D135">
-        <v>9.016902367875446E-06</v>
+        <v>8.837433597363997E-06</v>
       </c>
       <c r="E135">
-        <v>9.116761248151306E-06</v>
+        <v>8.858466571837198E-06</v>
       </c>
       <c r="F135">
-        <v>8528256</v>
+        <v>0</v>
       </c>
       <c r="G135">
-        <v>9.458386914756463E-06</v>
+        <v>8.91922921950004E-06</v>
       </c>
       <c r="H135">
-        <v>9.48964884628367E-06</v>
+        <v>8.840694408718264E-06</v>
       </c>
       <c r="I135">
-        <v>9.567542898973139E-06</v>
+        <v>9.010707041549418E-06</v>
       </c>
       <c r="L135">
-        <v>31.91053706431177</v>
+        <v>47.21253402536239</v>
       </c>
       <c r="M135">
-        <v>34.90494959567701</v>
-      </c>
-    </row>
-    <row r="136" spans="1:14">
+        <v>44.9494066885873</v>
+      </c>
+    </row>
+    <row r="136" spans="1:13">
       <c r="A136" s="1" t="s">
         <v>148</v>
       </c>
       <c r="B136">
-        <v>9.118914931605104E-06</v>
+        <v>8.86028374225134E-06</v>
       </c>
       <c r="C136">
-        <v>9.235672223439906E-06</v>
+        <v>8.8989936557482E-06</v>
       </c>
       <c r="D136">
-        <v>9.118240996031091E-06</v>
+        <v>8.798797352937981E-06</v>
       </c>
       <c r="E136">
-        <v>9.221956133842468E-06</v>
+        <v>8.890203389455564E-06</v>
       </c>
       <c r="F136">
-        <v>1764656</v>
+        <v>4190208</v>
       </c>
       <c r="G136">
-        <v>9.436893207400644E-06</v>
+        <v>8.916590507677816E-06</v>
       </c>
       <c r="H136">
-        <v>9.47270968936209E-06</v>
+        <v>8.836045390125946E-06</v>
       </c>
       <c r="I136">
-        <v>9.545065222482662E-06</v>
+        <v>8.987763188391303E-06</v>
       </c>
       <c r="L136">
-        <v>39.49417335717003</v>
+        <v>49.90151987869498</v>
       </c>
       <c r="M136">
-        <v>39.85280252328498</v>
-      </c>
-    </row>
-    <row r="137" spans="1:14">
+        <v>46.57944996278422</v>
+      </c>
+    </row>
+    <row r="137" spans="1:13">
       <c r="A137" s="1" t="s">
         <v>149</v>
       </c>
       <c r="B137">
-        <v>9.221918844559696E-06</v>
+        <v>8.890241588233039E-06</v>
       </c>
       <c r="C137">
-        <v>9.300328201788943E-06</v>
+        <v>8.902984518499579E-06</v>
       </c>
       <c r="D137">
-        <v>9.188398507831153E-06</v>
+        <v>8.838695066515356E-06</v>
       </c>
       <c r="E137">
-        <v>9.25282347452594E-06</v>
+        <v>8.842172974254936E-06</v>
       </c>
       <c r="F137">
-        <v>1438304</v>
+        <v>1008528</v>
       </c>
       <c r="G137">
-        <v>9.420159595321125E-06</v>
+        <v>8.909825277366645E-06</v>
       </c>
       <c r="H137">
-        <v>9.453359552935579E-06</v>
+        <v>8.83264874573797E-06</v>
       </c>
       <c r="I137">
-        <v>9.524049013028464E-06</v>
+        <v>8.966029630149327E-06</v>
       </c>
       <c r="L137">
-        <v>41.63988252499381</v>
+        <v>45.91901974886328</v>
       </c>
       <c r="M137">
-        <v>41.2636023395258</v>
-      </c>
-    </row>
-    <row r="138" spans="1:14">
+        <v>44.43507515048651</v>
+      </c>
+    </row>
+    <row r="138" spans="1:13">
       <c r="A138" s="1" t="s">
         <v>150</v>
       </c>
       <c r="B138">
-        <v>9.252506060875019E-06</v>
+        <v>8.841961061989423E-06</v>
       </c>
       <c r="C138">
-        <v>9.368145583721343E-06</v>
+        <v>9.042837518791202E-06</v>
       </c>
       <c r="D138">
-        <v>9.127956218435427E-06</v>
+        <v>8.836052984406706E-06</v>
       </c>
       <c r="E138">
-        <v>9.128535566560458E-06</v>
+        <v>9.042837518791202E-06</v>
       </c>
       <c r="F138">
-        <v>12446928</v>
+        <v>5179544</v>
       </c>
       <c r="G138">
-        <v>9.393648319979246E-06</v>
+        <v>8.921917299314332E-06</v>
       </c>
       <c r="H138">
-        <v>9.429726742382626E-06</v>
+        <v>8.833281299303053E-06</v>
       </c>
       <c r="I138">
-        <v>9.498156972161572E-06</v>
+        <v>8.950966912379953E-06</v>
       </c>
       <c r="L138">
-        <v>35.87663187906422</v>
+        <v>60.67128239860323</v>
       </c>
       <c r="M138">
-        <v>37.45413610626078</v>
-      </c>
-    </row>
-    <row r="139" spans="1:14">
+        <v>53.96943671169907</v>
+      </c>
+    </row>
+    <row r="139" spans="1:13">
       <c r="A139" s="1" t="s">
         <v>151</v>
       </c>
       <c r="B139">
-        <v>9.125365068030078E-06</v>
+        <v>9.043250429385807E-06</v>
       </c>
       <c r="C139">
-        <v>9.228794624505101E-06</v>
+        <v>9.059530384547544E-06</v>
       </c>
       <c r="D139">
-        <v>8.829350917949341E-06</v>
+        <v>8.969050213636365E-06</v>
       </c>
       <c r="E139">
-        <v>9.204583875543904E-06</v>
+        <v>9.059530384547544E-06</v>
       </c>
       <c r="F139">
-        <v>9272176</v>
+        <v>2644008</v>
       </c>
       <c r="G139">
-        <v>9.376460643212396E-06</v>
+        <v>8.934427579790077E-06</v>
       </c>
       <c r="H139">
-        <v>9.408244704900425E-06</v>
+        <v>8.843044997774997E-06</v>
       </c>
       <c r="I139">
-        <v>9.481764997569068E-06</v>
+        <v>8.937714301282541E-06</v>
       </c>
       <c r="L139">
-        <v>41.45445890495272</v>
+        <v>61.65029633286765</v>
       </c>
       <c r="M139">
-        <v>41.04082535604557</v>
-      </c>
-    </row>
-    <row r="140" spans="1:14">
+        <v>54.66631486565116</v>
+      </c>
+    </row>
+    <row r="140" spans="1:13">
       <c r="A140" s="1" t="s">
         <v>152</v>
       </c>
       <c r="B140">
-        <v>9.204790330841206E-06</v>
+        <v>9.059575859282631E-06</v>
       </c>
       <c r="C140">
-        <v>9.307972504757345E-06</v>
+        <v>9.125580618274398E-06</v>
       </c>
       <c r="D140">
-        <v>9.185568160319235E-06</v>
+        <v>9.053920621227007E-06</v>
       </c>
       <c r="E140">
-        <v>9.290924936067311E-06</v>
+        <v>9.061828677658925E-06</v>
       </c>
       <c r="F140">
-        <v>0</v>
+        <v>3357960</v>
       </c>
       <c r="G140">
-        <v>9.368684669835571E-06</v>
+        <v>8.946009497778153E-06</v>
       </c>
       <c r="H140">
-        <v>9.389988827024354E-06</v>
+        <v>8.868913846526994E-06</v>
       </c>
       <c r="I140">
-        <v>9.472650466098761E-06</v>
+        <v>8.925753930573894E-06</v>
       </c>
       <c r="L140">
-        <v>47.30866804077501</v>
+        <v>61.79759432832279</v>
       </c>
       <c r="M140">
-        <v>44.90386188596268</v>
-      </c>
-    </row>
-    <row r="141" spans="1:14">
+        <v>54.76785014981975</v>
+      </c>
+    </row>
+    <row r="141" spans="1:13">
       <c r="A141" s="1" t="s">
         <v>153</v>
       </c>
       <c r="B141">
-        <v>9.291558853874449E-06</v>
+        <v>9.062131539394612E-06</v>
       </c>
       <c r="C141">
-        <v>9.413480256625917E-06</v>
+        <v>9.062131539394612E-06</v>
       </c>
       <c r="D141">
-        <v>9.276991477236152E-06</v>
+        <v>8.990685273602139E-06</v>
       </c>
       <c r="E141">
-        <v>9.359275281894952E-06</v>
+        <v>9.045627848536242E-06</v>
       </c>
       <c r="F141">
-        <v>3306320</v>
+        <v>2644216</v>
       </c>
       <c r="G141">
-        <v>9.367829270931879E-06</v>
+        <v>8.955065711483433E-06</v>
       </c>
       <c r="H141">
-        <v>9.377633841722854E-06</v>
+        <v>8.886831210475066E-06</v>
       </c>
       <c r="I141">
-        <v>9.460648349583305E-06</v>
+        <v>8.915889096291114E-06</v>
       </c>
       <c r="L141">
-        <v>51.61730884444477</v>
+        <v>59.97092506703228</v>
       </c>
       <c r="M141">
-        <v>47.81861034431054</v>
-      </c>
-    </row>
-    <row r="142" spans="1:14">
+        <v>53.85222829070042</v>
+      </c>
+    </row>
+    <row r="142" spans="1:13">
       <c r="A142" s="1" t="s">
         <v>154</v>
       </c>
       <c r="B142">
-        <v>9.360371223010588E-06</v>
+        <v>9.045847946254073E-06</v>
       </c>
       <c r="C142">
-        <v>9.502464308752678E-06</v>
+        <v>9.114275599131361E-06</v>
       </c>
       <c r="D142">
-        <v>9.354109351988882E-06</v>
+        <v>9.040477380040102E-06</v>
       </c>
       <c r="E142">
-        <v>9.424727977602744E-06</v>
+        <v>9.087862054002471E-06</v>
       </c>
       <c r="F142">
-        <v>3667200</v>
+        <v>616088</v>
       </c>
       <c r="G142">
-        <v>9.373001880629229E-06</v>
+        <v>8.967138106257889E-06</v>
       </c>
       <c r="H142">
-        <v>9.36575879677548E-06</v>
+        <v>8.908745576263754E-06</v>
       </c>
       <c r="I142">
-        <v>9.452119320485508E-06</v>
+        <v>8.911309851100669E-06</v>
       </c>
       <c r="L142">
-        <v>55.53440775611379</v>
+        <v>63.16421187837717</v>
       </c>
       <c r="M142">
-        <v>50.51819505968083</v>
-      </c>
-    </row>
-    <row r="143" spans="1:14">
+        <v>55.9210973441263</v>
+      </c>
+    </row>
+    <row r="143" spans="1:13">
       <c r="A143" s="1" t="s">
         <v>155</v>
       </c>
       <c r="B143">
-        <v>9.424958079762291E-06</v>
+        <v>9.088175829674585E-06</v>
       </c>
       <c r="C143">
-        <v>9.488483556197023E-06</v>
+        <v>9.09603841137141E-06</v>
       </c>
       <c r="D143">
-        <v>9.365289770357776E-06</v>
+        <v>8.994557902042288E-06</v>
       </c>
       <c r="E143">
-        <v>9.432997103431262E-06</v>
+        <v>9.010482244775631E-06</v>
       </c>
       <c r="F143">
-        <v>10041024</v>
+        <v>798272</v>
       </c>
       <c r="G143">
-        <v>9.37845599179305E-06</v>
+        <v>8.971078482486775E-06</v>
       </c>
       <c r="H143">
-        <v>9.353728773930926E-06</v>
+        <v>8.91808472260891E-06</v>
       </c>
       <c r="I143">
-        <v>9.443397599776896E-06</v>
+        <v>8.903458274289733E-06</v>
       </c>
       <c r="L143">
-        <v>56.04024910256719</v>
+        <v>54.24479796352244</v>
       </c>
       <c r="M143">
-        <v>50.86405271976347</v>
-      </c>
-    </row>
-    <row r="144" spans="1:14">
+        <v>51.37650594145732</v>
+      </c>
+    </row>
+    <row r="144" spans="1:13">
       <c r="A144" s="1" t="s">
         <v>156</v>
       </c>
       <c r="B144">
-        <v>9.433049854123963E-06</v>
+        <v>9.010510439111384E-06</v>
       </c>
       <c r="C144">
-        <v>9.456884072278626E-06</v>
+        <v>9.036616575031076E-06</v>
       </c>
       <c r="D144">
-        <v>9.355508154840209E-06</v>
+        <v>8.990148671728093E-06</v>
       </c>
       <c r="E144">
-        <v>9.389393198944164E-06</v>
+        <v>9.028104614117184E-06</v>
       </c>
       <c r="F144">
-        <v>0</v>
+        <v>415680</v>
       </c>
       <c r="G144">
-        <v>9.379450283352242E-06</v>
+        <v>8.976262676271358E-06</v>
       </c>
       <c r="H144">
-        <v>9.346599290438462E-06</v>
+        <v>8.930651620175923E-06</v>
       </c>
       <c r="I144">
-        <v>9.439076499499303E-06</v>
+        <v>8.899483145796693E-06</v>
       </c>
       <c r="L144">
-        <v>52.4974482583569</v>
+        <v>55.84236896928333</v>
       </c>
       <c r="M144">
-        <v>48.92223432006607</v>
-      </c>
-    </row>
-    <row r="145" spans="1:14">
+        <v>52.32670727273139</v>
+      </c>
+    </row>
+    <row r="145" spans="1:13">
       <c r="A145" s="1" t="s">
         <v>157</v>
       </c>
       <c r="B145">
-        <v>9.389383194502445E-06</v>
+        <v>9.028550266521052E-06</v>
       </c>
       <c r="C145">
-        <v>9.434185813006479E-06</v>
+        <v>9.075606612896079E-06</v>
       </c>
       <c r="D145">
-        <v>9.336042239738164E-06</v>
+        <v>9.027868145494722E-06</v>
       </c>
       <c r="E145">
-        <v>9.434185813006479E-06</v>
+        <v>9.066905477084219E-06</v>
       </c>
       <c r="F145">
         <v>0</v>
       </c>
       <c r="G145">
-        <v>9.384426240593536E-06</v>
+        <v>8.984502930890709E-06</v>
       </c>
       <c r="H145">
-        <v>9.340799488199992E-06</v>
+        <v>8.938650989875895E-06</v>
       </c>
       <c r="I145">
-        <v>9.431079342903104E-06</v>
+        <v>8.898314778586306E-06</v>
       </c>
       <c r="L145">
-        <v>55.73169484499228</v>
+        <v>59.35741206990487</v>
       </c>
       <c r="M145">
-        <v>50.9920418921954</v>
-      </c>
-    </row>
-    <row r="146" spans="1:14">
+        <v>54.43793294665434</v>
+      </c>
+    </row>
+    <row r="146" spans="1:13">
       <c r="A146" s="1" t="s">
         <v>158</v>
       </c>
       <c r="B146">
-        <v>9.433901141164824E-06</v>
+        <v>9.066909115063028E-06</v>
       </c>
       <c r="C146">
-        <v>9.811832569539549E-06</v>
+        <v>9.199316991725937E-06</v>
       </c>
       <c r="D146">
-        <v>9.433901141164824E-06</v>
+        <v>9.060753654921427E-06</v>
       </c>
       <c r="E146">
-        <v>9.695077096694147E-06</v>
+        <v>9.158272405329626E-06</v>
       </c>
       <c r="F146">
-        <v>33228840</v>
+        <v>1619180</v>
       </c>
       <c r="G146">
-        <v>9.412667227511774E-06</v>
+        <v>9.000300155839701E-06</v>
       </c>
       <c r="H146">
-        <v>9.352241659144055E-06</v>
+        <v>8.94961881385825E-06</v>
       </c>
       <c r="I146">
-        <v>9.435557270383773E-06</v>
+        <v>8.904151066720563E-06</v>
       </c>
       <c r="L146">
-        <v>69.38844282069373</v>
+        <v>66.43535569620865</v>
       </c>
       <c r="M146">
-        <v>60.92420325451477</v>
-      </c>
-    </row>
-    <row r="147" spans="1:14">
+        <v>59.03808402086295</v>
+      </c>
+    </row>
+    <row r="147" spans="1:13">
       <c r="A147" s="1" t="s">
         <v>159</v>
       </c>
       <c r="B147">
-        <v>9.694906111690216E-06</v>
+        <v>9.156233318208253E-06</v>
       </c>
       <c r="C147">
-        <v>9.709676305647008E-06</v>
+        <v>9.195105121762026E-06</v>
       </c>
       <c r="D147">
-        <v>9.570377187628765E-06</v>
+        <v>9.13231178856222E-06</v>
       </c>
       <c r="E147">
-        <v>9.578518984199036E-06</v>
+        <v>9.13231178856222E-06</v>
       </c>
       <c r="F147">
-        <v>10963312</v>
+        <v>33720</v>
       </c>
       <c r="G147">
-        <v>9.427744659937889E-06</v>
+        <v>9.012301213359928E-06</v>
       </c>
       <c r="H147">
-        <v>9.354954499940504E-06</v>
+        <v>8.960843615568592E-06</v>
       </c>
       <c r="I147">
-        <v>9.433513696421869E-06</v>
+        <v>8.911557930938822E-06</v>
       </c>
       <c r="L147">
-        <v>60.0736373945478</v>
+        <v>62.93206456806048</v>
       </c>
       <c r="M147">
-        <v>55.51134643320384</v>
-      </c>
-    </row>
-    <row r="148" spans="1:14">
+        <v>57.26880051789265</v>
+      </c>
+    </row>
+    <row r="148" spans="1:13">
       <c r="A148" s="1" t="s">
         <v>160</v>
       </c>
       <c r="B148">
-        <v>9.57622796704527E-06</v>
+        <v>9.130669241130818E-06</v>
       </c>
       <c r="C148">
-        <v>9.576235243002884E-06</v>
+        <v>9.20875754673034E-06</v>
       </c>
       <c r="D148">
-        <v>9.440735993848648E-06</v>
+        <v>9.130107173405122E-06</v>
       </c>
       <c r="E148">
-        <v>9.494179721514229E-06</v>
+        <v>9.186417628370693E-06</v>
       </c>
       <c r="F148">
-        <v>3322544</v>
+        <v>755840</v>
       </c>
       <c r="G148">
-        <v>9.433784210990283E-06</v>
+        <v>9.028129978360906E-06</v>
       </c>
       <c r="H148">
-        <v>9.353941914014286E-06</v>
+        <v>8.980240318123835E-06</v>
       </c>
       <c r="I148">
-        <v>9.429946627885026E-06</v>
+        <v>8.916765636968194E-06</v>
       </c>
       <c r="L148">
-        <v>54.15569668535366</v>
+        <v>67.01084071836625</v>
       </c>
       <c r="M148">
-        <v>51.91701304890316</v>
-      </c>
-    </row>
-    <row r="149" spans="1:14">
+        <v>59.96190032826563</v>
+      </c>
+    </row>
+    <row r="149" spans="1:13">
       <c r="A149" s="1" t="s">
         <v>161</v>
       </c>
       <c r="B149">
-        <v>9.494762707618063E-06</v>
+        <v>9.186446732201148E-06</v>
       </c>
       <c r="C149">
-        <v>9.523782864562236E-06</v>
+        <v>9.244076863978989E-06</v>
       </c>
       <c r="D149">
-        <v>9.480660082772374E-06</v>
+        <v>9.157369277090766E-06</v>
       </c>
       <c r="E149">
-        <v>9.49471905187238E-06</v>
+        <v>9.172934369416907E-06</v>
       </c>
       <c r="F149">
-        <v>0</v>
+        <v>4027324</v>
       </c>
       <c r="G149">
-        <v>9.439323741979565E-06</v>
+        <v>9.041294013911452E-06</v>
       </c>
       <c r="H149">
-        <v>9.35537018449395E-06</v>
+        <v>8.994087829705679E-06</v>
       </c>
       <c r="I149">
-        <v>9.425296442107841E-06</v>
+        <v>8.9270549021118E-06</v>
       </c>
       <c r="L149">
-        <v>54.18816367112179</v>
+        <v>65.00551496188737</v>
       </c>
       <c r="M149">
-        <v>51.93844413452285</v>
-      </c>
-    </row>
-    <row r="150" spans="1:14">
+        <v>58.96458153528906</v>
+      </c>
+    </row>
+    <row r="150" spans="1:13">
       <c r="A150" s="1" t="s">
         <v>162</v>
       </c>
       <c r="B150">
-        <v>9.496106031292584E-06</v>
+        <v>9.17148372536758E-06</v>
       </c>
       <c r="C150">
-        <v>9.554254575050436E-06</v>
+        <v>9.214813871949444E-06</v>
       </c>
       <c r="D150">
-        <v>9.451615369471256E-06</v>
+        <v>9.138740097114351E-06</v>
       </c>
       <c r="E150">
-        <v>9.457108717469964E-06</v>
+        <v>9.151237463811412E-06</v>
       </c>
       <c r="F150">
-        <v>3654384</v>
+        <v>3732616</v>
       </c>
       <c r="G150">
-        <v>9.440940557933237E-06</v>
+        <v>9.051288872993267E-06</v>
       </c>
       <c r="H150">
-        <v>9.351581002192689E-06</v>
+        <v>9.00908830772096E-06</v>
       </c>
       <c r="I150">
-        <v>9.418665316237214E-06</v>
+        <v>8.947281094151549E-06</v>
       </c>
       <c r="L150">
-        <v>51.33594384048561</v>
+        <v>61.66484949516452</v>
       </c>
       <c r="M150">
-        <v>50.25623609746917</v>
-      </c>
-    </row>
-    <row r="151" spans="1:14">
+        <v>57.31263274248236</v>
+      </c>
+    </row>
+    <row r="151" spans="1:13">
       <c r="A151" s="1" t="s">
         <v>163</v>
       </c>
       <c r="B151">
-        <v>9.456784027861431E-06</v>
+        <v>9.151243830274323E-06</v>
       </c>
       <c r="C151">
-        <v>9.456784027861431E-06</v>
+        <v>9.156051419267897E-06</v>
       </c>
       <c r="D151">
-        <v>9.392862011736725E-06</v>
+        <v>9.066015991265886E-06</v>
       </c>
       <c r="E151">
-        <v>9.420639798918272E-06</v>
+        <v>9.085400051844772E-06</v>
       </c>
       <c r="F151">
-        <v>4620896</v>
+        <v>8190848</v>
       </c>
       <c r="G151">
-        <v>9.439095034386421E-06</v>
+        <v>9.054389889252494E-06</v>
       </c>
       <c r="H151">
-        <v>9.350999062007758E-06</v>
+        <v>9.020317520480605E-06</v>
       </c>
       <c r="I151">
-        <v>9.412474143270326E-06</v>
+        <v>8.960551743560549E-06</v>
       </c>
       <c r="J151">
-        <v>9.866366429681269E-06</v>
+        <v>9.434357877277459E-06</v>
       </c>
       <c r="L151">
-        <v>48.54840006755317</v>
+        <v>52.46140899829442</v>
       </c>
       <c r="M151">
-        <v>48.61210820499305</v>
-      </c>
-    </row>
-    <row r="152" spans="1:14">
+        <v>52.50566550511266</v>
+      </c>
+    </row>
+    <row r="152" spans="1:13">
       <c r="A152" s="1" t="s">
         <v>164</v>
       </c>
       <c r="B152">
-        <v>9.421743015991524E-06</v>
+        <v>9.08601487026317E-06</v>
       </c>
       <c r="C152">
-        <v>9.430396858078892E-06</v>
+        <v>9.118282832787372E-06</v>
       </c>
       <c r="D152">
-        <v>9.341572877019644E-06</v>
+        <v>8.951024028647225E-06</v>
       </c>
       <c r="E152">
-        <v>9.341572877019644E-06</v>
+        <v>8.963266736827791E-06</v>
       </c>
       <c r="F152">
-        <v>0</v>
+        <v>3249208</v>
       </c>
       <c r="G152">
-        <v>9.430229383716714E-06</v>
+        <v>9.046105966304793E-06</v>
       </c>
       <c r="H152">
-        <v>9.347630475531333E-06</v>
+        <v>9.024374276123127E-06</v>
       </c>
       <c r="I152">
-        <v>9.401785609952639E-06</v>
+        <v>8.971008143513852E-06</v>
       </c>
       <c r="J152">
-        <v>9.859415521698997E-06</v>
+        <v>9.42811825952316E-06</v>
       </c>
       <c r="L152">
-        <v>42.87055289540791</v>
+        <v>40.001765648283</v>
       </c>
       <c r="M152">
-        <v>45.16242273288088</v>
-      </c>
-    </row>
-    <row r="153" spans="1:14">
+        <v>44.97047322742571</v>
+      </c>
+    </row>
+    <row r="153" spans="1:13">
       <c r="A153" s="1" t="s">
         <v>165</v>
       </c>
       <c r="B153">
-        <v>9.339712960354518E-06</v>
+        <v>8.964173503045458E-06</v>
       </c>
       <c r="C153">
-        <v>9.362815035274252E-06</v>
+        <v>9.018853234010749E-06</v>
       </c>
       <c r="D153">
-        <v>9.176191269943956E-06</v>
+        <v>8.926196642278228E-06</v>
       </c>
       <c r="E153">
-        <v>9.225239409715869E-06</v>
+        <v>9.005053470900748E-06</v>
       </c>
       <c r="F153">
-        <v>2811152</v>
+        <v>3296544</v>
       </c>
       <c r="G153">
-        <v>9.411593931534818E-06</v>
+        <v>9.042373921268061E-06</v>
       </c>
       <c r="H153">
-        <v>9.358092393085827E-06</v>
+        <v>9.036041910803762E-06</v>
       </c>
       <c r="I153">
-        <v>9.386840338265756E-06</v>
+        <v>8.977053281948126E-06</v>
       </c>
       <c r="J153">
-        <v>9.851015838096572E-06</v>
+        <v>9.422514752389089E-06</v>
       </c>
       <c r="L153">
-        <v>35.91747710884903</v>
+        <v>45.02716523524877</v>
       </c>
       <c r="M153">
-        <v>40.59754320686443</v>
-      </c>
-    </row>
-    <row r="154" spans="1:14">
+        <v>47.7341977967705</v>
+      </c>
+    </row>
+    <row r="154" spans="1:13">
       <c r="A154" s="1" t="s">
         <v>166</v>
       </c>
       <c r="B154">
-        <v>9.225585927197244E-06</v>
+        <v>9.005576430354267E-06</v>
       </c>
       <c r="C154">
-        <v>9.290879461332224E-06</v>
+        <v>9.081652933673467E-06</v>
       </c>
       <c r="D154">
-        <v>9.157997737929691E-06</v>
+        <v>8.9836885308614E-06</v>
       </c>
       <c r="E154">
-        <v>9.246029549103696E-06</v>
+        <v>9.062941899173891E-06</v>
       </c>
       <c r="F154">
-        <v>4049448</v>
+        <v>1152664</v>
       </c>
       <c r="G154">
-        <v>9.39654262404108E-06</v>
+        <v>9.044243737441319E-06</v>
       </c>
       <c r="H154">
-        <v>9.360462490803911E-06</v>
+        <v>9.045592878464959E-06</v>
       </c>
       <c r="I154">
-        <v>9.377308560942766E-06</v>
+        <v>8.986592456494691E-06</v>
       </c>
       <c r="J154">
-        <v>9.843002774666202E-06</v>
+        <v>9.417752198041868E-06</v>
       </c>
       <c r="L154">
-        <v>37.94108925857047</v>
+        <v>51.37463777363664</v>
       </c>
       <c r="M154">
-        <v>41.73105656914498</v>
-      </c>
-    </row>
-    <row r="155" spans="1:14">
+        <v>51.37733675547952</v>
+      </c>
+    </row>
+    <row r="155" spans="1:13">
       <c r="A155" s="1" t="s">
         <v>167</v>
       </c>
       <c r="B155">
-        <v>9.246122317563277E-06</v>
+        <v>9.063721336133312E-06</v>
       </c>
       <c r="C155">
-        <v>9.247446541849058E-06</v>
+        <v>9.064280675374904E-06</v>
       </c>
       <c r="D155">
-        <v>9.061120181286242E-06</v>
+        <v>8.986131433630362E-06</v>
       </c>
       <c r="E155">
-        <v>9.147358468908353E-06</v>
+        <v>8.992055882117711E-06</v>
       </c>
       <c r="F155">
-        <v>9838832</v>
+        <v>42800</v>
       </c>
       <c r="G155">
-        <v>9.373889519029013E-06</v>
+        <v>9.039499386957354E-06</v>
       </c>
       <c r="H155">
-        <v>9.361992351841763E-06</v>
+        <v>9.052272343978984E-06</v>
       </c>
       <c r="I155">
-        <v>9.36388111464718E-06</v>
+        <v>8.989430383129122E-06</v>
       </c>
       <c r="J155">
-        <v>9.833788942801861E-06</v>
+        <v>9.412113836241549E-06</v>
       </c>
       <c r="L155">
-        <v>32.46696799416132</v>
+        <v>44.32421598075382</v>
       </c>
       <c r="M155">
-        <v>38.02269324084914</v>
-      </c>
-    </row>
-    <row r="156" spans="1:14">
+        <v>47.0522756397947</v>
+      </c>
+    </row>
+    <row r="156" spans="1:13">
       <c r="A156" s="1" t="s">
         <v>168</v>
       </c>
       <c r="B156">
-        <v>9.146588126895949E-06</v>
+        <v>8.991924914880656E-06</v>
       </c>
       <c r="C156">
-        <v>9.19830836210167E-06</v>
+        <v>9.087800208362751E-06</v>
       </c>
       <c r="D156">
-        <v>8.987361070467159E-06</v>
+        <v>8.964170774561353E-06</v>
       </c>
       <c r="E156">
-        <v>9.101956493395846E-06</v>
+        <v>9.025261533679441E-06</v>
       </c>
       <c r="F156">
-        <v>11486968</v>
+        <v>3688104</v>
       </c>
       <c r="G156">
-        <v>9.349168334880543E-06</v>
+        <v>9.038205036659362E-06</v>
       </c>
       <c r="H156">
-        <v>9.355992369819433E-06</v>
+        <v>9.059025251190178E-06</v>
       </c>
       <c r="I156">
-        <v>9.351738541833281E-06</v>
+        <v>8.992308570062354E-06</v>
       </c>
       <c r="J156">
-        <v>9.824095797776615E-06</v>
+        <v>9.406989964684436E-06</v>
       </c>
       <c r="L156">
-        <v>30.21064143693594</v>
+        <v>48.07922872944415</v>
       </c>
       <c r="M156">
-        <v>36.41900295001255</v>
-      </c>
-    </row>
-    <row r="157" spans="1:14">
+        <v>49.20923293772483</v>
+      </c>
+    </row>
+    <row r="157" spans="1:13">
       <c r="A157" s="1" t="s">
         <v>169</v>
       </c>
       <c r="B157">
-        <v>9.103159754886292E-06</v>
+        <v>9.022907761391252E-06</v>
       </c>
       <c r="C157">
-        <v>9.135527761827689E-06</v>
+        <v>9.089946615858937E-06</v>
       </c>
       <c r="D157">
-        <v>8.905908543965779E-06</v>
+        <v>8.946899470174685E-06</v>
       </c>
       <c r="E157">
-        <v>8.983183761301916E-06</v>
+        <v>9.089946615858937E-06</v>
       </c>
       <c r="F157">
-        <v>11219664</v>
+        <v>6384080</v>
       </c>
       <c r="G157">
-        <v>9.315897010009758E-06</v>
+        <v>9.042908816586597E-06</v>
       </c>
       <c r="H157">
-        <v>9.342510384158232E-06</v>
+        <v>9.071413933270379E-06</v>
       </c>
       <c r="I157">
-        <v>9.333702594934342E-06</v>
+        <v>8.998379598779138E-06</v>
       </c>
       <c r="J157">
-        <v>9.812957890008739E-06</v>
+        <v>9.402790715031119E-06</v>
       </c>
       <c r="L157">
-        <v>25.0808766367152</v>
+        <v>54.76517174054217</v>
       </c>
       <c r="M157">
-        <v>32.55114454107894</v>
-      </c>
-      <c r="N157" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="158" spans="1:14">
+        <v>53.20814048577554</v>
+      </c>
+    </row>
+    <row r="158" spans="1:13">
       <c r="A158" s="1" t="s">
         <v>170</v>
       </c>
       <c r="B158">
-        <v>8.986798093246762E-06</v>
+        <v>9.091566425922792E-06</v>
       </c>
       <c r="C158">
-        <v>9.08170113689266E-06</v>
+        <v>9.254944416170474E-06</v>
       </c>
       <c r="D158">
-        <v>8.899090062186588E-06</v>
+        <v>9.067061000678224E-06</v>
       </c>
       <c r="E158">
-        <v>8.910105862014461E-06</v>
+        <v>9.211970791511703E-06</v>
       </c>
       <c r="F158">
-        <v>7929520</v>
+        <v>15125416</v>
       </c>
       <c r="G158">
-        <v>9.279006905646548E-06</v>
+        <v>9.058278087034334E-06</v>
       </c>
       <c r="H158">
-        <v>9.331588898930931E-06</v>
+        <v>9.079870596906404E-06</v>
       </c>
       <c r="I158">
-        <v>9.313558409000204E-06</v>
+        <v>9.012162505920666E-06</v>
       </c>
       <c r="J158">
-        <v>9.800999585002192E-06</v>
+        <v>9.400263298825564E-06</v>
       </c>
       <c r="L158">
-        <v>22.44307736623339</v>
+        <v>64.47391745533049</v>
       </c>
       <c r="M158">
-        <v>30.41107318909711</v>
-      </c>
-      <c r="N158" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="159" spans="1:14">
+        <v>59.66043566174805</v>
+      </c>
+    </row>
+    <row r="159" spans="1:13">
       <c r="A159" s="1" t="s">
         <v>171</v>
       </c>
       <c r="B159">
-        <v>8.912128578231204E-06</v>
+        <v>9.211882570525631E-06</v>
       </c>
       <c r="C159">
-        <v>9.044132639246529E-06</v>
+        <v>9.258828868041746E-06</v>
       </c>
       <c r="D159">
-        <v>8.911732948035933E-06</v>
+        <v>9.19471222005086E-06</v>
       </c>
       <c r="E159">
-        <v>9.030186447489539E-06</v>
+        <v>9.201157809002323E-06</v>
       </c>
       <c r="F159">
-        <v>0</v>
+        <v>1371248</v>
       </c>
       <c r="G159">
-        <v>9.25638686399591E-06</v>
+        <v>9.071267152667787E-06</v>
       </c>
       <c r="H159">
-        <v>9.322869027528214E-06</v>
+        <v>9.086951968129142E-06</v>
       </c>
       <c r="I159">
-        <v>9.299026169173885E-06</v>
+        <v>9.022334961628075E-06</v>
       </c>
       <c r="J159">
-        <v>9.790790139472225E-06</v>
+        <v>9.397626140019959E-06</v>
       </c>
       <c r="L159">
-        <v>35.06722974830478</v>
+        <v>63.12330104100955</v>
       </c>
       <c r="M159">
-        <v>37.66338743456427</v>
-      </c>
-    </row>
-    <row r="160" spans="1:14">
+        <v>58.88555117127815</v>
+      </c>
+    </row>
+    <row r="160" spans="1:13">
       <c r="A160" s="1" t="s">
         <v>172</v>
       </c>
       <c r="B160">
-        <v>9.030084584082942E-06</v>
+        <v>9.199379746860361E-06</v>
       </c>
       <c r="C160">
-        <v>9.047003914020024E-06</v>
+        <v>9.431857506569941E-06</v>
       </c>
       <c r="D160">
-        <v>8.861496098688804E-06</v>
+        <v>9.177669198834336E-06</v>
       </c>
       <c r="E160">
-        <v>8.864256415108684E-06</v>
+        <v>9.264318578061648E-06</v>
       </c>
       <c r="F160">
-        <v>935664</v>
+        <v>16917016</v>
       </c>
       <c r="G160">
-        <v>9.220738641369799E-06</v>
+        <v>9.088817282249047E-06</v>
       </c>
       <c r="H160">
-        <v>9.301535601480283E-06</v>
+        <v>9.097076463149278E-06</v>
       </c>
       <c r="I160">
-        <v>9.276738304227668E-06</v>
+        <v>9.036104650779937E-06</v>
       </c>
       <c r="J160">
-        <v>9.778518169613105E-06</v>
+        <v>9.395860476947664E-06</v>
       </c>
       <c r="L160">
-        <v>27.98575890018839</v>
+        <v>67.58543490573842</v>
       </c>
       <c r="M160">
-        <v>32.60655789118255</v>
-      </c>
-      <c r="N160" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="161" spans="1:14">
+        <v>61.99099475547049</v>
+      </c>
+    </row>
+    <row r="161" spans="1:15">
       <c r="A161" s="1" t="s">
         <v>173</v>
       </c>
       <c r="B161">
-        <v>8.865976269589737E-06</v>
+        <v>9.262484127248172E-06</v>
       </c>
       <c r="C161">
-        <v>8.904520655050874E-06</v>
+        <v>9.360954209114423E-06</v>
       </c>
       <c r="D161">
-        <v>8.490424988849554E-06</v>
+        <v>9.261192644771654E-06</v>
       </c>
       <c r="E161">
-        <v>8.544451702618971E-06</v>
+        <v>9.322588994109536E-06</v>
       </c>
       <c r="F161">
-        <v>20052400</v>
+        <v>5113880</v>
       </c>
       <c r="G161">
-        <v>9.159258010574268E-06</v>
+        <v>9.110069256054546E-06</v>
       </c>
       <c r="H161">
-        <v>9.260794422516483E-06</v>
+        <v>9.110924520427943E-06</v>
       </c>
       <c r="I161">
-        <v>9.247144074227739E-06</v>
+        <v>9.051497090695194E-06</v>
       </c>
       <c r="J161">
-        <v>9.762172918394641E-06</v>
+        <v>9.394889993731266E-06</v>
       </c>
       <c r="L161">
-        <v>19.46349164400693</v>
+        <v>71.20207272677705</v>
       </c>
       <c r="M161">
-        <v>25.50020009932719</v>
-      </c>
-      <c r="N161" t="s">
+        <v>64.64422492293617</v>
+      </c>
+      <c r="O161" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="162" spans="1:14">
+    <row r="162" spans="1:15">
       <c r="A162" s="1" t="s">
         <v>174</v>
       </c>
       <c r="B162">
-        <v>8.555829481338151E-06</v>
+        <v>9.321223842562176E-06</v>
       </c>
       <c r="C162">
-        <v>8.727832209842745E-06</v>
+        <v>9.325221071776468E-06</v>
       </c>
       <c r="D162">
-        <v>8.45955128170317E-06</v>
+        <v>9.245920409739485E-06</v>
       </c>
       <c r="E162">
-        <v>8.687280569574796E-06</v>
+        <v>9.317420335719362E-06</v>
       </c>
       <c r="F162">
-        <v>2592752</v>
+        <v>1667368</v>
       </c>
       <c r="G162">
-        <v>9.116350970483406E-06</v>
+        <v>9.128919354205892E-06</v>
       </c>
       <c r="H162">
-        <v>9.223922052115086E-06</v>
+        <v>9.122402434513788E-06</v>
       </c>
       <c r="I162">
-        <v>9.223088606328625E-06</v>
+        <v>9.066006714419928E-06</v>
       </c>
       <c r="J162">
-        <v>9.74793593364206E-06</v>
+        <v>9.393863905545679E-06</v>
       </c>
       <c r="L162">
-        <v>30.15068927118248</v>
+        <v>70.41804572190135</v>
       </c>
       <c r="M162">
-        <v>32.56858518666014</v>
-      </c>
-    </row>
-    <row r="163" spans="1:14">
+        <v>64.21602534162628</v>
+      </c>
+      <c r="O162" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="163" spans="1:15">
       <c r="A163" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B163">
-        <v>8.6962600107654E-06</v>
+        <v>9.318632692156824E-06</v>
       </c>
       <c r="C163">
-        <v>8.781041287875269E-06</v>
+        <v>9.339809366792906E-06</v>
       </c>
       <c r="D163">
-        <v>8.640802661830094E-06</v>
+        <v>9.18014848139137E-06</v>
       </c>
       <c r="E163">
-        <v>8.649574738228694E-06</v>
+        <v>9.25042786548147E-06</v>
       </c>
       <c r="F163">
-        <v>823920</v>
+        <v>2080600</v>
       </c>
       <c r="G163">
-        <v>9.07391676755116E-06</v>
+        <v>9.139965582503672E-06</v>
       </c>
       <c r="H163">
-        <v>9.184750933854956E-06</v>
+        <v>9.134399715549079E-06</v>
       </c>
       <c r="I163">
-        <v>9.210874395648716E-06</v>
+        <v>9.081964284026375E-06</v>
       </c>
       <c r="J163">
-        <v>9.733388103239235E-06</v>
+        <v>9.391964090445491E-06</v>
       </c>
       <c r="L163">
-        <v>29.00747909024726</v>
+        <v>60.67588693780526</v>
       </c>
       <c r="M163">
-        <v>31.71316039487025</v>
-      </c>
-      <c r="N163" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="164" spans="1:14">
+        <v>58.78117471247388</v>
+      </c>
+    </row>
+    <row r="164" spans="1:15">
       <c r="A164" s="1" t="s">
         <v>176</v>
       </c>
       <c r="B164">
-        <v>8.646873538964428E-06</v>
+        <v>9.251946721633431E-06</v>
       </c>
       <c r="C164">
-        <v>8.824611541058403E-06</v>
+        <v>9.314822818851098E-06</v>
       </c>
       <c r="D164">
-        <v>8.631664968561381E-06</v>
+        <v>9.176704224955756E-06</v>
       </c>
       <c r="E164">
-        <v>8.823699317872524E-06</v>
+        <v>9.20731054065982E-06</v>
       </c>
       <c r="F164">
         <v>0</v>
       </c>
       <c r="G164">
-        <v>9.051169726671284E-06</v>
+        <v>9.146087851426958E-06</v>
       </c>
       <c r="H164">
-        <v>9.156466239801375E-06</v>
+        <v>9.143360011876212E-06</v>
       </c>
       <c r="I164">
-        <v>9.198376786419733E-06</v>
+        <v>9.093143883850038E-06</v>
       </c>
       <c r="J164">
-        <v>9.721339245154907E-06</v>
+        <v>9.389518348064223E-06</v>
       </c>
       <c r="L164">
-        <v>40.69054562507902</v>
+        <v>55.15123622921453</v>
       </c>
       <c r="M164">
-        <v>39.60245975290631</v>
-      </c>
-    </row>
-    <row r="165" spans="1:14">
+        <v>55.52403980517374</v>
+      </c>
+    </row>
+    <row r="165" spans="1:15">
       <c r="A165" s="1" t="s">
         <v>177</v>
       </c>
       <c r="B165">
-        <v>8.824122232908849E-06</v>
+        <v>9.207795301335864E-06</v>
       </c>
       <c r="C165">
-        <v>8.905563845473807E-06</v>
+        <v>9.216383659804706E-06</v>
       </c>
       <c r="D165">
-        <v>8.762563084019348E-06</v>
+        <v>9.035237781063188E-06</v>
       </c>
       <c r="E165">
-        <v>8.776766662776936E-06</v>
+        <v>9.047029379871674E-06</v>
       </c>
       <c r="F165">
-        <v>426704</v>
+        <v>2814128</v>
       </c>
       <c r="G165">
-        <v>9.026223993589979E-06</v>
+        <v>9.137082535831023E-06</v>
       </c>
       <c r="H165">
-        <v>9.123595282289898E-06</v>
+        <v>9.142366207015584E-06</v>
       </c>
       <c r="I165">
-        <v>9.187043633573922E-06</v>
+        <v>9.099429310784521E-06</v>
       </c>
       <c r="J165">
-        <v>9.708828350024073E-06</v>
+        <v>9.384982070339818E-06</v>
       </c>
       <c r="L165">
-        <v>38.75654388997722</v>
+        <v>39.9421448784128</v>
       </c>
       <c r="M165">
-        <v>38.3174748378536</v>
-      </c>
-    </row>
-    <row r="166" spans="1:14">
+        <v>45.44348433217652</v>
+      </c>
+    </row>
+    <row r="166" spans="1:15">
       <c r="A166" s="1" t="s">
         <v>178</v>
       </c>
       <c r="B166">
-        <v>8.777259608905297E-06</v>
+        <v>9.048333595274016E-06</v>
       </c>
       <c r="C166">
-        <v>8.937697202782147E-06</v>
+        <v>9.111681720241904E-06</v>
       </c>
       <c r="D166">
-        <v>8.777259608905297E-06</v>
+        <v>9.00602390174754E-06</v>
       </c>
       <c r="E166">
-        <v>8.906918083084747E-06</v>
+        <v>9.106984180107249E-06</v>
       </c>
       <c r="F166">
-        <v>1985056</v>
+        <v>3110352</v>
       </c>
       <c r="G166">
-        <v>9.015378001725867E-06</v>
+        <v>9.134346321674317E-06</v>
       </c>
       <c r="H166">
-        <v>9.084187331609428E-06</v>
+        <v>9.139801795754467E-06</v>
       </c>
       <c r="I166">
-        <v>9.176542365215331E-06</v>
+        <v>9.106655337139576E-06</v>
       </c>
       <c r="J166">
-        <v>9.698207021985142E-06</v>
+        <v>9.38129997907846E-06</v>
       </c>
       <c r="L166">
-        <v>46.66516250116459</v>
+        <v>46.1870883484865</v>
       </c>
       <c r="M166">
-        <v>43.76662171690241</v>
-      </c>
-    </row>
-    <row r="167" spans="1:14">
+        <v>49.16158842626275</v>
+      </c>
+    </row>
+    <row r="167" spans="1:15">
       <c r="A167" s="1" t="s">
         <v>179</v>
       </c>
       <c r="B167">
-        <v>8.907400115276687E-06</v>
+        <v>9.105948265641928E-06</v>
       </c>
       <c r="C167">
-        <v>8.98567395779537E-06</v>
+        <v>9.123781637754291E-06</v>
       </c>
       <c r="D167">
-        <v>8.907400115276687E-06</v>
+        <v>9.086970749194734E-06</v>
       </c>
       <c r="E167">
-        <v>8.938915925682522E-06</v>
+        <v>9.098689588427078E-06</v>
       </c>
       <c r="F167">
         <v>0</v>
       </c>
       <c r="G167">
-        <v>9.008426903903743E-06</v>
+        <v>9.131104800470022E-06</v>
       </c>
       <c r="H167">
-        <v>9.052207178683603E-06</v>
+        <v>9.138120685747708E-06</v>
       </c>
       <c r="I167">
-        <v>9.166078780253883E-06</v>
+        <v>9.115205890945315E-06</v>
       </c>
       <c r="J167">
-        <v>9.688150186272525E-06</v>
+        <v>9.377556795096322E-06</v>
       </c>
       <c r="L167">
-        <v>48.50439002152616</v>
+        <v>45.45150725648195</v>
       </c>
       <c r="M167">
-        <v>45.05183739189142</v>
-      </c>
-    </row>
-    <row r="168" spans="1:14">
+        <v>48.66742677714404</v>
+      </c>
+    </row>
+    <row r="168" spans="1:15">
       <c r="A168" s="1" t="s">
         <v>180</v>
       </c>
       <c r="B168">
-        <v>8.93905325938249E-06</v>
+        <v>9.099020644498523E-06</v>
       </c>
       <c r="C168">
-        <v>8.9544482761994E-06</v>
+        <v>9.117039553530049E-06</v>
       </c>
       <c r="D168">
-        <v>8.855368832882959E-06</v>
+        <v>8.942120075516868E-06</v>
       </c>
       <c r="E168">
-        <v>8.907815754355397E-06</v>
+        <v>9.014107490656896E-06</v>
       </c>
       <c r="F168">
-        <v>186872</v>
+        <v>3557576</v>
       </c>
       <c r="G168">
-        <v>8.999280435762985E-06</v>
+        <v>9.120468681396101E-06</v>
       </c>
       <c r="H168">
-        <v>9.02288898032566E-06</v>
+        <v>9.129505178862018E-06</v>
       </c>
       <c r="I168">
-        <v>9.158721453180381E-06</v>
+        <v>9.114248223340838E-06</v>
       </c>
       <c r="J168">
-        <v>9.677814630882894E-06</v>
+        <v>9.372742897024277E-06</v>
       </c>
       <c r="L168">
-        <v>46.74190476433171</v>
+        <v>38.4301917811614</v>
       </c>
       <c r="M168">
-        <v>43.9992601405694</v>
-      </c>
-    </row>
-    <row r="169" spans="1:14">
+        <v>43.82931459747323</v>
+      </c>
+    </row>
+    <row r="169" spans="1:15">
       <c r="A169" s="1" t="s">
         <v>181</v>
       </c>
       <c r="B169">
-        <v>8.908567906473763E-06</v>
+        <v>9.013268936541864E-06</v>
       </c>
       <c r="C169">
-        <v>8.917082595871761E-06</v>
+        <v>9.084857083507814E-06</v>
       </c>
       <c r="D169">
-        <v>8.782953045738395E-06</v>
+        <v>8.928992428991478E-06</v>
       </c>
       <c r="E169">
-        <v>8.79848357726587E-06</v>
+        <v>9.053770554601217E-06</v>
       </c>
       <c r="F169">
-        <v>4490048</v>
+        <v>6061848</v>
       </c>
       <c r="G169">
-        <v>8.981026175899611E-06</v>
+        <v>9.11440521532384E-06</v>
       </c>
       <c r="H169">
-        <v>8.988077206595335E-06</v>
+        <v>9.123546988121234E-06</v>
       </c>
       <c r="I169">
-        <v>9.145184776571114E-06</v>
+        <v>9.114056229009294E-06</v>
       </c>
       <c r="J169">
-        <v>9.666167861960814E-06</v>
+        <v>9.368518097786885E-06</v>
       </c>
       <c r="L169">
-        <v>40.86872526202907</v>
+        <v>43.06972026330676</v>
       </c>
       <c r="M169">
-        <v>40.4236747008981</v>
-      </c>
-    </row>
-    <row r="170" spans="1:14">
+        <v>46.51445186419657</v>
+      </c>
+    </row>
+    <row r="170" spans="1:15">
       <c r="A170" s="1" t="s">
         <v>182</v>
       </c>
       <c r="B170">
-        <v>8.797916962066665E-06</v>
+        <v>9.05769229575526E-06</v>
       </c>
       <c r="C170">
-        <v>8.91565559868468E-06</v>
+        <v>9.111010513151996E-06</v>
       </c>
       <c r="D170">
-        <v>8.754815098654944E-06</v>
+        <v>9.005600986711215E-06</v>
       </c>
       <c r="E170">
-        <v>8.895984137780033E-06</v>
+        <v>9.047947060025764E-06</v>
       </c>
       <c r="F170">
-        <v>334272</v>
+        <v>3254552</v>
       </c>
       <c r="G170">
-        <v>8.973295081525104E-06</v>
+        <v>9.108363564842196E-06</v>
       </c>
       <c r="H170">
-        <v>8.960020977610839E-06</v>
+        <v>9.118382467931952E-06</v>
       </c>
       <c r="I170">
-        <v>9.132020083294872E-06</v>
+        <v>9.113593508421521E-06</v>
       </c>
       <c r="J170">
-        <v>9.655966753031268E-06</v>
+        <v>9.364272123776804E-06</v>
       </c>
       <c r="L170">
-        <v>47.48836084712762</v>
+        <v>42.54023260437281</v>
       </c>
       <c r="M170">
-        <v>44.73670364081888</v>
-      </c>
-    </row>
-    <row r="171" spans="1:14">
+        <v>46.16550726622374</v>
+      </c>
+    </row>
+    <row r="171" spans="1:15">
       <c r="A171" s="1" t="s">
         <v>183</v>
       </c>
       <c r="B171">
-        <v>8.896378858480603E-06</v>
+        <v>9.047322237165645E-06</v>
       </c>
       <c r="C171">
-        <v>8.910777978599072E-06</v>
+        <v>9.047322237165645E-06</v>
       </c>
       <c r="D171">
-        <v>8.82731364981737E-06</v>
+        <v>8.866049029165879E-06</v>
       </c>
       <c r="E171">
-        <v>8.851227903505787E-06</v>
+        <v>8.94639924808871E-06</v>
       </c>
       <c r="F171">
-        <v>0</v>
+        <v>7769784</v>
       </c>
       <c r="G171">
-        <v>8.962198065341529E-06</v>
+        <v>9.093639536046424E-06</v>
       </c>
       <c r="H171">
-        <v>8.931550382840214E-06</v>
+        <v>9.111432427744149E-06</v>
       </c>
       <c r="I171">
-        <v>9.115085170681898E-06</v>
+        <v>9.110285888406604E-06</v>
       </c>
       <c r="J171">
-        <v>9.645307960322323E-06</v>
+        <v>9.358737383701467E-06</v>
       </c>
       <c r="L171">
-        <v>44.89301882057099</v>
+        <v>34.27430088660412</v>
       </c>
       <c r="M171">
-        <v>43.19097663754659</v>
-      </c>
-    </row>
-    <row r="172" spans="1:14">
+        <v>40.46492876951399</v>
+      </c>
+    </row>
+    <row r="172" spans="1:15">
       <c r="A172" s="1" t="s">
         <v>184</v>
       </c>
       <c r="B172">
-        <v>8.849886398820672E-06</v>
+        <v>8.945504305302165E-06</v>
       </c>
       <c r="C172">
-        <v>8.861032256390899E-06</v>
+        <v>8.989104571810458E-06</v>
       </c>
       <c r="D172">
-        <v>8.782200893620029E-06</v>
+        <v>8.805518518784083E-06</v>
       </c>
       <c r="E172">
-        <v>8.860815796651877E-06</v>
+        <v>8.902894478524104E-06</v>
       </c>
       <c r="F172">
-        <v>0</v>
+        <v>9106656</v>
       </c>
       <c r="G172">
-        <v>8.952981495460652E-06</v>
+        <v>9.076299076271667E-06</v>
       </c>
       <c r="H172">
-        <v>8.907512528821826E-06</v>
+        <v>9.108413814828964E-06</v>
       </c>
       <c r="I172">
-        <v>9.096288097983537E-06</v>
+        <v>9.104120302557324E-06</v>
       </c>
       <c r="J172">
-        <v>9.634917335637947E-06</v>
+        <v>9.352699729328258E-06</v>
       </c>
       <c r="L172">
-        <v>45.60941509469416</v>
+        <v>31.33935046546751</v>
       </c>
       <c r="M172">
-        <v>43.64023104619646</v>
-      </c>
-    </row>
-    <row r="173" spans="1:14">
+        <v>38.28386634555415</v>
+      </c>
+    </row>
+    <row r="173" spans="1:15">
       <c r="A173" s="1" t="s">
         <v>185</v>
       </c>
       <c r="B173">
-        <v>8.861887181410566E-06</v>
+        <v>8.903191883291584E-06</v>
       </c>
       <c r="C173">
-        <v>8.915042599255685E-06</v>
+        <v>8.913146302802488E-06</v>
       </c>
       <c r="D173">
-        <v>8.826566045172513E-06</v>
+        <v>8.854810403136071E-06</v>
       </c>
       <c r="E173">
-        <v>8.88213162397733E-06</v>
+        <v>8.897468433133326E-06</v>
       </c>
       <c r="F173">
-        <v>304464</v>
+        <v>152024</v>
       </c>
       <c r="G173">
-        <v>8.946540598053077E-06</v>
+        <v>9.060041745077272E-06</v>
       </c>
       <c r="H173">
-        <v>8.8903571395349E-06</v>
+        <v>9.103034562940593E-06</v>
       </c>
       <c r="I173">
-        <v>9.077925915335072E-06</v>
+        <v>9.10035317550258E-06</v>
       </c>
       <c r="J173">
-        <v>9.624946663960324E-06</v>
+        <v>9.346670175736271E-06</v>
       </c>
       <c r="L173">
-        <v>47.32221157629885</v>
+        <v>30.96727229634921</v>
       </c>
       <c r="M173">
-        <v>44.68750893395509</v>
-      </c>
-    </row>
-    <row r="174" spans="1:14">
+        <v>38.00869481140025</v>
+      </c>
+    </row>
+    <row r="174" spans="1:15">
       <c r="A174" s="1" t="s">
         <v>186</v>
       </c>
       <c r="B174">
-        <v>8.881447683961596E-06</v>
+        <v>8.896340659703128E-06</v>
       </c>
       <c r="C174">
-        <v>8.900316061044578E-06</v>
+        <v>8.92301704880083E-06</v>
       </c>
       <c r="D174">
-        <v>8.763066034589428E-06</v>
+        <v>8.879032066033687E-06</v>
       </c>
       <c r="E174">
-        <v>8.771700777288061E-06</v>
+        <v>8.879893357516266E-06</v>
       </c>
       <c r="F174">
-        <v>388952</v>
+        <v>192624</v>
       </c>
       <c r="G174">
-        <v>8.930646068892621E-06</v>
+        <v>9.043664618935363E-06</v>
       </c>
       <c r="H174">
-        <v>8.866640700944118E-06</v>
+        <v>9.093882135857712E-06</v>
       </c>
       <c r="I174">
-        <v>9.057336167946536E-06</v>
+        <v>9.09541280028255E-06</v>
       </c>
       <c r="J174">
-        <v>9.613645393938175E-06</v>
+        <v>9.340487701322761E-06</v>
       </c>
       <c r="L174">
-        <v>39.98373197255591</v>
+        <v>29.68311003559321</v>
       </c>
       <c r="M174">
-        <v>40.48980935581213</v>
-      </c>
-    </row>
-    <row r="175" spans="1:14">
+        <v>37.07905474905741</v>
+      </c>
+      <c r="N174" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="175" spans="1:15">
       <c r="A175" s="1" t="s">
         <v>187</v>
       </c>
       <c r="B175">
-        <v>8.771396096562967E-06</v>
+        <v>8.879943379724864E-06</v>
       </c>
       <c r="C175">
-        <v>8.878066182660405E-06</v>
+        <v>8.997039913083427E-06</v>
       </c>
       <c r="D175">
-        <v>8.737079042475671E-06</v>
+        <v>8.878770131559577E-06</v>
       </c>
       <c r="E175">
-        <v>8.871922545949928E-06</v>
+        <v>8.961575076682493E-06</v>
       </c>
       <c r="F175">
-        <v>361840</v>
+        <v>0</v>
       </c>
       <c r="G175">
-        <v>8.925307566806921E-06</v>
+        <v>9.036201933276012E-06</v>
       </c>
       <c r="H175">
-        <v>8.852868904796197E-06</v>
+        <v>9.09235809558595E-06</v>
       </c>
       <c r="I175">
-        <v>9.038594059044651E-06</v>
+        <v>9.091901786935825E-06</v>
       </c>
       <c r="J175">
-        <v>9.603821250256211E-06</v>
+        <v>9.335468991062626E-06</v>
       </c>
       <c r="L175">
-        <v>48.18727851051184</v>
+        <v>42.21252654937896</v>
       </c>
       <c r="M175">
-        <v>45.49391575141057</v>
-      </c>
-    </row>
-    <row r="176" spans="1:14">
+        <v>43.9415958118479</v>
+      </c>
+    </row>
+    <row r="176" spans="1:15">
       <c r="A176" s="1" t="s">
         <v>188</v>
       </c>
       <c r="B176">
-        <v>8.872171747498214E-06</v>
+        <v>8.959360457083676E-06</v>
       </c>
       <c r="C176">
-        <v>8.875437742972281E-06</v>
+        <v>9.036274605023207E-06</v>
       </c>
       <c r="D176">
-        <v>8.837433597363997E-06</v>
+        <v>8.904417882149573E-06</v>
       </c>
       <c r="E176">
-        <v>8.858466571837198E-06</v>
+        <v>9.030485671246424E-06</v>
       </c>
       <c r="F176">
-        <v>0</v>
+        <v>55552</v>
       </c>
       <c r="G176">
-        <v>8.919231112718764E-06</v>
+        <v>9.035682273091504E-06</v>
       </c>
       <c r="H176">
-        <v>8.840694408718264E-06</v>
+        <v>9.0926193024643E-06</v>
       </c>
       <c r="I176">
-        <v>9.010707041549418E-06</v>
+        <v>9.087642229133053E-06</v>
       </c>
       <c r="J176">
-        <v>9.593949002859933E-06</v>
+        <v>9.331429476892876E-06</v>
       </c>
       <c r="L176">
-        <v>47.21252349940873</v>
+        <v>50.57165356149387</v>
       </c>
       <c r="M176">
-        <v>44.94743126966081</v>
+        <v>48.99568019400301</v>
       </c>
     </row>
     <row r="177" spans="1:13">
@@ -7001,37 +6980,37 @@
         <v>189</v>
       </c>
       <c r="B177">
-        <v>8.86028374225134E-06</v>
+        <v>9.030864930537064E-06</v>
       </c>
       <c r="C177">
-        <v>8.8989936557482E-06</v>
+        <v>9.031060471897945E-06</v>
       </c>
       <c r="D177">
-        <v>8.798797352937981E-06</v>
+        <v>8.991581125883386E-06</v>
       </c>
       <c r="E177">
-        <v>8.890203389455564E-06</v>
+        <v>9.024735845741816E-06</v>
       </c>
       <c r="F177">
-        <v>4190208</v>
+        <v>208432</v>
       </c>
       <c r="G177">
-        <v>8.916592228785746E-06</v>
+        <v>9.03468714333244E-06</v>
       </c>
       <c r="H177">
-        <v>8.836045390125946E-06</v>
+        <v>9.089358763958444E-06</v>
       </c>
       <c r="I177">
-        <v>8.987763188391303E-06</v>
+        <v>9.084056364372372E-06</v>
       </c>
       <c r="J177">
-        <v>9.584627868907556E-06</v>
+        <v>9.327367309592863E-06</v>
       </c>
       <c r="L177">
-        <v>49.90150910175432</v>
+        <v>49.8941708494362</v>
       </c>
       <c r="M177">
-        <v>46.57741157917906</v>
+        <v>48.60194093236275</v>
       </c>
     </row>
     <row r="178" spans="1:13">
@@ -7039,37 +7018,37 @@
         <v>190</v>
       </c>
       <c r="B178">
-        <v>8.890241588233039E-06</v>
+        <v>9.025247891258914E-06</v>
       </c>
       <c r="C178">
-        <v>8.902984518499579E-06</v>
+        <v>9.083132681553252E-06</v>
       </c>
       <c r="D178">
-        <v>8.838695066515356E-06</v>
+        <v>9.025247891258914E-06</v>
       </c>
       <c r="E178">
-        <v>8.842172974254936E-06</v>
+        <v>9.053397661773488E-06</v>
       </c>
       <c r="F178">
-        <v>1008528</v>
+        <v>0</v>
       </c>
       <c r="G178">
-        <v>8.909826842010216E-06</v>
+        <v>9.036388099554353E-06</v>
       </c>
       <c r="H178">
-        <v>8.83264874573797E-06</v>
+        <v>9.081430107471533E-06</v>
       </c>
       <c r="I178">
-        <v>8.966029630149327E-06</v>
+        <v>9.0796223654858E-06</v>
       </c>
       <c r="J178">
-        <v>9.574794029243284E-06</v>
+        <v>9.323738572535653E-06</v>
       </c>
       <c r="L178">
-        <v>45.9190109047997</v>
+        <v>53.3954065540353</v>
       </c>
       <c r="M178">
-        <v>44.43328302057473</v>
+        <v>50.72757541781548</v>
       </c>
     </row>
     <row r="179" spans="1:13">
@@ -7077,37 +7056,37 @@
         <v>191</v>
       </c>
       <c r="B179">
-        <v>8.841961061989423E-06</v>
+        <v>9.052850145963021E-06</v>
       </c>
       <c r="C179">
-        <v>9.042837518791202E-06</v>
+        <v>9.074598892766517E-06</v>
       </c>
       <c r="D179">
-        <v>8.836052984406706E-06</v>
+        <v>9.014015631692018E-06</v>
       </c>
       <c r="E179">
-        <v>9.042837518791202E-06</v>
+        <v>9.070143278222533E-06</v>
       </c>
       <c r="F179">
-        <v>5179544</v>
+        <v>410192</v>
       </c>
       <c r="G179">
-        <v>8.92191872171758E-06</v>
+        <v>9.039456752160551E-06</v>
       </c>
       <c r="H179">
-        <v>8.833281299303053E-06</v>
+        <v>9.074879380932544E-06</v>
       </c>
       <c r="I179">
-        <v>8.950966912379953E-06</v>
+        <v>9.07619599577932E-06</v>
       </c>
       <c r="J179">
-        <v>9.567748247647893E-06</v>
+        <v>9.320379694465282E-06</v>
       </c>
       <c r="L179">
-        <v>60.67127307710466</v>
+        <v>55.44189711253689</v>
       </c>
       <c r="M179">
-        <v>53.96739066189453</v>
+        <v>51.97717729980701</v>
       </c>
     </row>
     <row r="180" spans="1:13">
@@ -7115,37 +7094,37 @@
         <v>192</v>
       </c>
       <c r="B180">
-        <v>9.043250429385807E-06</v>
+        <v>9.069910447578876E-06</v>
       </c>
       <c r="C180">
-        <v>9.059530384547544E-06</v>
+        <v>9.069910447578876E-06</v>
       </c>
       <c r="D180">
-        <v>8.969050213636365E-06</v>
+        <v>9.027497071656398E-06</v>
       </c>
       <c r="E180">
-        <v>9.059530384547544E-06</v>
+        <v>9.041450539371E-06</v>
       </c>
       <c r="F180">
-        <v>2644008</v>
+        <v>0</v>
       </c>
       <c r="G180">
-        <v>8.934428872883939E-06</v>
+        <v>9.039638005543319E-06</v>
       </c>
       <c r="H180">
-        <v>8.843044997774997E-06</v>
+        <v>9.063735978998011E-06</v>
       </c>
       <c r="I180">
-        <v>8.937714301282541E-06</v>
+        <v>9.072536431631307E-06</v>
       </c>
       <c r="J180">
-        <v>9.561016885222723E-06</v>
+        <v>9.316685268569994E-06</v>
       </c>
       <c r="L180">
-        <v>61.65028705639818</v>
+        <v>51.11521854827067</v>
       </c>
       <c r="M180">
-        <v>54.6642593770209</v>
+        <v>49.65351360714832</v>
       </c>
     </row>
     <row r="181" spans="1:13">
@@ -7153,37 +7132,37 @@
         <v>193</v>
       </c>
       <c r="B181">
-        <v>9.059575859282631E-06</v>
+        <v>9.040943041327409E-06</v>
       </c>
       <c r="C181">
-        <v>9.125580618274398E-06</v>
+        <v>9.044836588145699E-06</v>
       </c>
       <c r="D181">
-        <v>9.053920621227007E-06</v>
+        <v>8.938856808526907E-06</v>
       </c>
       <c r="E181">
-        <v>9.061828677658925E-06</v>
+        <v>9.014346687763464E-06</v>
       </c>
       <c r="F181">
-        <v>3357960</v>
+        <v>3084328</v>
       </c>
       <c r="G181">
-        <v>8.946010673318027E-06</v>
+        <v>9.037338794836059E-06</v>
       </c>
       <c r="H181">
-        <v>8.868913846526994E-06</v>
+        <v>9.048323863680708E-06</v>
       </c>
       <c r="I181">
-        <v>8.925753930573894E-06</v>
+        <v>9.070167986161929E-06</v>
       </c>
       <c r="J181">
-        <v>9.554405120884129E-06</v>
+        <v>9.312680784056E-06</v>
       </c>
       <c r="L181">
-        <v>61.79758505945454</v>
+        <v>47.20071530354187</v>
       </c>
       <c r="M181">
-        <v>54.76579338965189</v>
+        <v>47.49358582473666</v>
       </c>
     </row>
     <row r="182" spans="1:13">
@@ -7191,37 +7170,37 @@
         <v>194</v>
       </c>
       <c r="B182">
-        <v>9.062131539394612E-06</v>
+        <v>9.014323950395919E-06</v>
       </c>
       <c r="C182">
-        <v>9.062131539394612E-06</v>
+        <v>9.084730663744269E-06</v>
       </c>
       <c r="D182">
-        <v>8.990685273602139E-06</v>
+        <v>9.014323950395919E-06</v>
       </c>
       <c r="E182">
-        <v>9.002989827422425E-06</v>
+        <v>9.084730663744269E-06</v>
       </c>
       <c r="F182">
-        <v>1519816</v>
+        <v>2339576</v>
       </c>
       <c r="G182">
-        <v>8.951190596418427E-06</v>
+        <v>9.041647146554986E-06</v>
       </c>
       <c r="H182">
-        <v>8.884699309419374E-06</v>
+        <v>9.036689380081953E-06</v>
       </c>
       <c r="I182">
-        <v>8.914467828920654E-06</v>
+        <v>9.074216783725812E-06</v>
       </c>
       <c r="J182">
-        <v>9.547101607063446E-06</v>
+        <v>9.309661577164456E-06</v>
       </c>
       <c r="L182">
-        <v>55.64226261846415</v>
+        <v>56.85376692264247</v>
       </c>
       <c r="M182">
-        <v>51.5808426940195</v>
+        <v>53.18829059875395</v>
       </c>
     </row>
   </sheetData>
